--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_0_branch_ward34_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_0_branch_ward34_resistance.xlsx
@@ -1050,40 +1050,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>6.451026010115471E-29</v>
+        <v>-6.773840894194875E-14</v>
       </c>
       <c r="O2">
-        <v>2.084254351699379E-14</v>
+        <v>2.865851379178795E-14</v>
       </c>
       <c r="P2">
-        <v>1.042124915140882E-14</v>
+        <v>-7.29491003514915E-14</v>
       </c>
       <c r="Q2">
-        <v>-1.563194052506518E-14</v>
+        <v>6.252776210026033E-14</v>
       </c>
       <c r="R2">
-        <v>-2.604851335189882E-15</v>
+        <v>-1.563146844396138E-14</v>
       </c>
       <c r="S2">
-        <v>-1.042082090060242E-14</v>
+        <v>6.773888175360454E-14</v>
       </c>
       <c r="T2">
-        <v>-5.210646841688372E-15</v>
+        <v>-1.042129368337766E-14</v>
       </c>
       <c r="U2">
-        <v>5.763371413985835E-09</v>
+        <v>5.763376624632671E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763387050089312E-09</v>
+        <v>-5.763381839442468E-09</v>
       </c>
       <c r="W2">
-        <v>5.210646841688178E-15</v>
+        <v>1.563194052506598E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763366202853099E-09</v>
+        <v>-5.763381834793613E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763397471868894E-09</v>
+        <v>5.763381839928362E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1104,34 +1104,34 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057475</v>
+        <v>0.5500000117057471</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.5500000121030185</v>
       </c>
       <c r="AI2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593777</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493878</v>
       </c>
       <c r="AL2">
-        <v>7.093487145426187E-13</v>
+        <v>7.708137111832595E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995568</v>
+        <v>-179.999999999557</v>
       </c>
       <c r="AN2">
-        <v>179.99999999955</v>
+        <v>179.9999999995499</v>
       </c>
       <c r="AO2">
-        <v>7.172809081992514E-13</v>
+        <v>7.755961441517077E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999952996</v>
@@ -1181,40 +1181,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.898436390184559E-28</v>
+        <v>-5.210646841688445E-15</v>
       </c>
       <c r="O3">
-        <v>2.084279230409498E-14</v>
+        <v>-1.302641215305053E-14</v>
       </c>
       <c r="P3">
-        <v>1.042149886381828E-14</v>
+        <v>1.042149886093503E-14</v>
       </c>
       <c r="Q3">
-        <v>-1.042129368337662E-14</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-2.605480782604222E-15</v>
+        <v>2.605307683736666E-14</v>
       </c>
       <c r="S3">
-        <v>-1.042145128182984E-14</v>
+        <v>-1.563209812471565E-14</v>
       </c>
       <c r="T3">
-        <v>1.563194052506512E-14</v>
+        <v>5.210646841688308E-15</v>
       </c>
       <c r="U3">
-        <v>-1.921134225739668E-09</v>
+        <v>-1.921149857680187E-09</v>
       </c>
       <c r="V3">
-        <v>1.921118595618701E-09</v>
+        <v>1.921113384971859E-09</v>
       </c>
       <c r="W3">
-        <v>-1.042129368337688E-14</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1.921139436440497E-09</v>
+        <v>1.921144647087337E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.92111338491787E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1235,34 +1235,34 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439221</v>
+        <v>0.5500000116439213</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648437</v>
+        <v>0.5500000121648443</v>
       </c>
       <c r="AI3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593777</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493878</v>
       </c>
       <c r="AL3">
-        <v>6.958342290082945E-13</v>
+        <v>7.478075356453711E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO3">
-        <v>7.172809081992514E-13</v>
+        <v>7.755961441517077E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999952996</v>
@@ -1312,40 +1312,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.647452789181897E-14</v>
+        <v>-1.042129368337682E-14</v>
       </c>
       <c r="O4">
-        <v>2.0494532448286E-19</v>
+        <v>-1.302641215305053E-14</v>
       </c>
       <c r="P4">
-        <v>1.042149886420607E-14</v>
+        <v>1.042149886243581E-14</v>
       </c>
       <c r="Q4">
-        <v>3.126388105013057E-14</v>
+        <v>5.210646841688448E-15</v>
       </c>
       <c r="R4">
-        <v>1.823710657571828E-14</v>
+        <v>2.605307683651307E-14</v>
       </c>
       <c r="S4">
-        <v>-1.042145128182984E-14</v>
+        <v>-1.563209812557053E-14</v>
       </c>
       <c r="T4">
-        <v>3.126388105012979E-14</v>
+        <v>5.210646841688241E-15</v>
       </c>
       <c r="U4">
-        <v>-1.921123804445992E-09</v>
+        <v>-1.921149857680187E-09</v>
       </c>
       <c r="V4">
-        <v>1.921118595618702E-09</v>
+        <v>1.921123806265548E-09</v>
       </c>
       <c r="W4">
-        <v>-2.605323420844148E-14</v>
+        <v>-5.210646841688308E-15</v>
       </c>
       <c r="X4">
-        <v>1.92112901514682E-09</v>
+        <v>1.921155068381016E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.921123806211558E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1366,34 +1366,34 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AG4">
-        <v>0.550000011643922</v>
+        <v>0.5500000116439213</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648438</v>
+        <v>0.5500000121648444</v>
       </c>
       <c r="AI4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593777</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493878</v>
       </c>
       <c r="AL4">
-        <v>6.890106257295765E-13</v>
+        <v>7.49648965579066E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO4">
-        <v>7.172809081992514E-13</v>
+        <v>7.755961441517077E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999952996</v>
@@ -1443,40 +1443,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.647452789181873E-14</v>
+        <v>1.042129368337682E-14</v>
       </c>
       <c r="O5">
-        <v>3.126388103699237E-14</v>
+        <v>1.042129367816364E-14</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>-5.564908815354897E-25</v>
       </c>
       <c r="Q5">
-        <v>-4.68958215751956E-14</v>
+        <v>-1.042129368337675E-14</v>
       </c>
       <c r="R5">
-        <v>-1.563194051905205E-14</v>
+        <v>5.21064683838699E-15</v>
       </c>
       <c r="S5">
-        <v>-1.042129368831191E-14</v>
+        <v>1.66947580005009E-24</v>
       </c>
       <c r="T5">
-        <v>-1.04212936833763E-14</v>
+        <v>-5.210646841688241E-15</v>
       </c>
       <c r="U5">
-        <v>-1.563194051432713E-14</v>
+        <v>2.605323420722118E-15</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-5.210646844155958E-15</v>
       </c>
       <c r="W5">
-        <v>2.084258736675292E-14</v>
+        <v>-1.363505671121129E-28</v>
       </c>
       <c r="X5">
-        <v>1.302661709638436E-14</v>
+        <v>7.815970259387039E-15</v>
       </c>
       <c r="Y5">
-        <v>1.112996488474544E-24</v>
+        <v>1.563194053246788E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1497,40 +1497,40 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AG5">
-        <v>0.5500000116439221</v>
+        <v>0.5500000116439213</v>
       </c>
       <c r="AH5">
-        <v>0.5500000121648437</v>
+        <v>0.5500000121648443</v>
       </c>
       <c r="AI5">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AJ5">
-        <v>0.550000011643922</v>
+        <v>0.5500000116439213</v>
       </c>
       <c r="AK5">
-        <v>0.5500000121648438</v>
+        <v>0.5500000121648444</v>
       </c>
       <c r="AL5">
-        <v>6.958342290082945E-13</v>
+        <v>7.478075356453711E-13</v>
       </c>
       <c r="AM5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AN5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO5">
-        <v>6.890106257295765E-13</v>
+        <v>7.49648965579066E-13</v>
       </c>
       <c r="AP5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
     </row>
   </sheetData>
@@ -1718,40 +1718,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-5.210646841703619E-15</v>
+        <v>-5.210646841703761E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307626403360838E-10</v>
+        <v>-7.307512573310473E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039301998070404E-09</v>
+        <v>-2.039333804991721E-09</v>
       </c>
       <c r="Q2">
-        <v>-5.210646841703933E-15</v>
+        <v>3.126388105022239E-14</v>
       </c>
       <c r="R2">
-        <v>7.307736753759116E-10</v>
+        <v>7.30766004583329E-10</v>
       </c>
       <c r="S2">
-        <v>2.039293626134315E-09</v>
+        <v>2.039329619168185E-09</v>
       </c>
       <c r="T2">
-        <v>-1.563194052511138E-14</v>
+        <v>-1.563194052511191E-14</v>
       </c>
       <c r="U2">
-        <v>5.822472461485158E-09</v>
+        <v>5.822492254385771E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556070027894168E-09</v>
+        <v>-3.556052385948668E-09</v>
       </c>
       <c r="W2">
-        <v>1.563194052511127E-14</v>
+        <v>2.605323420851924E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822476173369687E-09</v>
+        <v>-5.822484931519489E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556073392180328E-09</v>
+        <v>3.556054068255711E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1772,34 +1772,34 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635724</v>
+        <v>0.6816683458635715</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780339</v>
+        <v>0.4761907155780343</v>
       </c>
       <c r="AI2">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299561</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277805</v>
+        <v>0.476190715627781</v>
       </c>
       <c r="AL2">
-        <v>5.711303927421647E-13</v>
+        <v>6.338068411807645E-13</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584274</v>
+        <v>-164.9034422584275</v>
       </c>
       <c r="AN2">
         <v>158.1097491654785</v>
       </c>
       <c r="AO2">
-        <v>5.797060480124924E-13</v>
+        <v>6.363077454774787E-13</v>
       </c>
       <c r="AP2">
         <v>-164.9034422552288</v>
@@ -1849,40 +1849,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052511148E-14</v>
+        <v>-1.042129368340762E-14</v>
       </c>
       <c r="O3">
-        <v>2.43592825013978E-10</v>
+        <v>2.43589359169198E-10</v>
       </c>
       <c r="P3">
-        <v>6.797639688603498E-10</v>
+        <v>6.797790313314473E-10</v>
       </c>
       <c r="Q3">
-        <v>5.210646841704039E-15</v>
+        <v>-5.21064684170378E-15</v>
       </c>
       <c r="R3">
-        <v>-2.435693198687939E-10</v>
+        <v>-2.43587082536078E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797606048700007E-10</v>
+        <v>-6.797748451867817E-10</v>
       </c>
       <c r="T3">
-        <v>1.563194052511117E-14</v>
+        <v>5.210646841703668E-15</v>
       </c>
       <c r="U3">
-        <v>-1.94082718915065E-09</v>
+        <v>-1.940851535253278E-09</v>
       </c>
       <c r="V3">
-        <v>1.185348303885358E-09</v>
+        <v>1.185337389856332E-09</v>
       </c>
       <c r="W3">
-        <v>-2.605323420851883E-14</v>
+        <v>-5.786769937508168E-29</v>
       </c>
       <c r="X3">
-        <v>1.940826840932871E-09</v>
+        <v>1.940855493869838E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185339931623814E-09</v>
+        <v>-1.185339071799014E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1906,31 +1906,31 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187519</v>
+        <v>0.681668345818751</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443627</v>
+        <v>0.4761907156443631</v>
       </c>
       <c r="AI3">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299561</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277805</v>
+        <v>0.476190715627781</v>
       </c>
       <c r="AL3">
-        <v>5.646961758325169E-13</v>
+        <v>6.139709933564363E-13</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541626</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO3">
-        <v>5.797060480124924E-13</v>
+        <v>6.363077454774787E-13</v>
       </c>
       <c r="AP3">
         <v>-164.9034422552288</v>
@@ -1980,40 +1980,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.731711525874183E-14</v>
+        <v>-5.210646841703892E-15</v>
       </c>
       <c r="O4">
-        <v>2.435803546517197E-10</v>
+        <v>2.435927231274353E-10</v>
       </c>
       <c r="P4">
-        <v>6.797673328185873E-10</v>
+        <v>6.797823952896848E-10</v>
       </c>
       <c r="Q4">
-        <v>4.689582157533435E-14</v>
+        <v>-5.21064684170378E-15</v>
       </c>
       <c r="R4">
-        <v>-2.435726838270309E-10</v>
+        <v>-2.43590446494315E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797673327864748E-10</v>
+        <v>-6.797782091450188E-10</v>
       </c>
       <c r="T4">
-        <v>3.12638810502221E-14</v>
+        <v>1.04212936834075E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940830553108888E-09</v>
+        <v>-1.940864005615536E-09</v>
       </c>
       <c r="V4">
-        <v>1.185356676110467E-09</v>
+        <v>1.18534576208144E-09</v>
       </c>
       <c r="W4">
-        <v>-3.647452789192596E-14</v>
+        <v>-5.786769937508168E-29</v>
       </c>
       <c r="X4">
-        <v>1.940839311295129E-09</v>
+        <v>1.940867964232096E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.18535667607403E-09</v>
+        <v>-1.185347444024122E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2034,34 +2034,34 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG4">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187509</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443628</v>
+        <v>0.4761907156443632</v>
       </c>
       <c r="AI4">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299561</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277805</v>
+        <v>0.476190715627781</v>
       </c>
       <c r="AL4">
-        <v>5.528108508744215E-13</v>
+        <v>6.160419327005894E-13</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541626</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO4">
-        <v>5.797060480124924E-13</v>
+        <v>6.363077454774787E-13</v>
       </c>
       <c r="AP4">
         <v>-164.9034422552288</v>
@@ -2111,40 +2111,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.647452789192658E-14</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.241775583870784E-14</v>
+        <v>7.67079257513428E-15</v>
       </c>
       <c r="P5">
-        <v>8.372225108521974E-15</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-5.210646841703784E-14</v>
+        <v>-5.602466670779156E-29</v>
       </c>
       <c r="R5">
-        <v>-4.553202010561026E-15</v>
+        <v>-5.394191569853766E-15</v>
       </c>
       <c r="S5">
-        <v>-5.008266871349968E-15</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>-1.563194052511097E-14</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1.608068816806176E-14</v>
+        <v>8.758149807024745E-15</v>
       </c>
       <c r="V5">
-        <v>-3.363958237172006E-15</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.042129368340704E-14</v>
+        <v>5.21064684170378E-15</v>
       </c>
       <c r="X5">
-        <v>-7.917160247732013E-15</v>
+        <v>-4.799569683158744E-15</v>
       </c>
       <c r="Y5">
-        <v>1.173618334569398E-14</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2168,37 +2168,37 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG5">
-        <v>0.6816683458187519</v>
+        <v>0.681668345818751</v>
       </c>
       <c r="AH5">
-        <v>0.4761907156443627</v>
+        <v>0.4761907156443631</v>
       </c>
       <c r="AI5">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AJ5">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187509</v>
       </c>
       <c r="AK5">
-        <v>0.4761907156443628</v>
+        <v>0.4761907156443632</v>
       </c>
       <c r="AL5">
-        <v>5.646961758325169E-13</v>
+        <v>6.139709933564363E-13</v>
       </c>
       <c r="AM5">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541626</v>
       </c>
       <c r="AN5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO5">
-        <v>5.528108508744215E-13</v>
+        <v>6.160419327005894E-13</v>
       </c>
       <c r="AP5">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541626</v>
       </c>
       <c r="AQ5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
     </row>
   </sheetData>
@@ -2386,40 +2386,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-5.210646841703619E-15</v>
+        <v>-5.210646841703761E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307626403360838E-10</v>
+        <v>-7.307512573310473E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039301998070404E-09</v>
+        <v>-2.039333804991721E-09</v>
       </c>
       <c r="Q2">
-        <v>-5.210646841703933E-15</v>
+        <v>3.126388105022239E-14</v>
       </c>
       <c r="R2">
-        <v>7.307736753759116E-10</v>
+        <v>7.30766004583329E-10</v>
       </c>
       <c r="S2">
-        <v>2.039293626134315E-09</v>
+        <v>2.039329619168185E-09</v>
       </c>
       <c r="T2">
-        <v>-1.563194052511138E-14</v>
+        <v>-1.563194052511191E-14</v>
       </c>
       <c r="U2">
-        <v>5.822472461485158E-09</v>
+        <v>5.822492254385771E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556070027894168E-09</v>
+        <v>-3.556052385948668E-09</v>
       </c>
       <c r="W2">
-        <v>1.563194052511127E-14</v>
+        <v>2.605323420851924E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822476173369687E-09</v>
+        <v>-5.822484931519489E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556073392180328E-09</v>
+        <v>3.556054068255711E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2440,34 +2440,34 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635724</v>
+        <v>0.6816683458635715</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780339</v>
+        <v>0.4761907155780343</v>
       </c>
       <c r="AI2">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299561</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277805</v>
+        <v>0.476190715627781</v>
       </c>
       <c r="AL2">
-        <v>5.711303927421647E-13</v>
+        <v>6.338068411807645E-13</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584274</v>
+        <v>-164.9034422584275</v>
       </c>
       <c r="AN2">
         <v>158.1097491654785</v>
       </c>
       <c r="AO2">
-        <v>5.797060480124924E-13</v>
+        <v>6.363077454774787E-13</v>
       </c>
       <c r="AP2">
         <v>-164.9034422552288</v>
@@ -2517,40 +2517,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052511148E-14</v>
+        <v>-1.042129368340762E-14</v>
       </c>
       <c r="O3">
-        <v>2.43592825013978E-10</v>
+        <v>2.43589359169198E-10</v>
       </c>
       <c r="P3">
-        <v>6.797639688603498E-10</v>
+        <v>6.797790313314473E-10</v>
       </c>
       <c r="Q3">
-        <v>5.210646841704039E-15</v>
+        <v>-5.21064684170378E-15</v>
       </c>
       <c r="R3">
-        <v>-2.435693198687939E-10</v>
+        <v>-2.43587082536078E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797606048700007E-10</v>
+        <v>-6.797748451867817E-10</v>
       </c>
       <c r="T3">
-        <v>1.563194052511117E-14</v>
+        <v>5.210646841703668E-15</v>
       </c>
       <c r="U3">
-        <v>-1.94082718915065E-09</v>
+        <v>-1.940851535253278E-09</v>
       </c>
       <c r="V3">
-        <v>1.185348303885358E-09</v>
+        <v>1.185337389856332E-09</v>
       </c>
       <c r="W3">
-        <v>-2.605323420851883E-14</v>
+        <v>-5.786769937508168E-29</v>
       </c>
       <c r="X3">
-        <v>1.940826840932871E-09</v>
+        <v>1.940855493869838E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185339931623814E-09</v>
+        <v>-1.185339071799014E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2574,31 +2574,31 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187519</v>
+        <v>0.681668345818751</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443627</v>
+        <v>0.4761907156443631</v>
       </c>
       <c r="AI3">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299561</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277805</v>
+        <v>0.476190715627781</v>
       </c>
       <c r="AL3">
-        <v>5.646961758325169E-13</v>
+        <v>6.139709933564363E-13</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541626</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO3">
-        <v>5.797060480124924E-13</v>
+        <v>6.363077454774787E-13</v>
       </c>
       <c r="AP3">
         <v>-164.9034422552288</v>
@@ -2648,40 +2648,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.731711525874183E-14</v>
+        <v>-5.210646841703892E-15</v>
       </c>
       <c r="O4">
-        <v>2.435803546517197E-10</v>
+        <v>2.435927231274353E-10</v>
       </c>
       <c r="P4">
-        <v>6.797673328185873E-10</v>
+        <v>6.797823952896848E-10</v>
       </c>
       <c r="Q4">
-        <v>4.689582157533435E-14</v>
+        <v>-5.21064684170378E-15</v>
       </c>
       <c r="R4">
-        <v>-2.435726838270309E-10</v>
+        <v>-2.43590446494315E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797673327864748E-10</v>
+        <v>-6.797782091450188E-10</v>
       </c>
       <c r="T4">
-        <v>3.12638810502221E-14</v>
+        <v>1.04212936834075E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940830553108888E-09</v>
+        <v>-1.940864005615536E-09</v>
       </c>
       <c r="V4">
-        <v>1.185356676110467E-09</v>
+        <v>1.18534576208144E-09</v>
       </c>
       <c r="W4">
-        <v>-3.647452789192596E-14</v>
+        <v>-5.786769937508168E-29</v>
       </c>
       <c r="X4">
-        <v>1.940839311295129E-09</v>
+        <v>1.940867964232096E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.18535667607403E-09</v>
+        <v>-1.185347444024122E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2702,34 +2702,34 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AG4">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187509</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443628</v>
+        <v>0.4761907156443632</v>
       </c>
       <c r="AI4">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299568</v>
+        <v>0.6816683458299561</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277805</v>
+        <v>0.476190715627781</v>
       </c>
       <c r="AL4">
-        <v>5.528108508744215E-13</v>
+        <v>6.160419327005894E-13</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541626</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO4">
-        <v>5.797060480124924E-13</v>
+        <v>6.363077454774787E-13</v>
       </c>
       <c r="AP4">
         <v>-164.9034422552288</v>
@@ -2779,40 +2779,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.647452789192658E-14</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.241775583870784E-14</v>
+        <v>7.67079257513428E-15</v>
       </c>
       <c r="P5">
-        <v>8.372225108521974E-15</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-5.210646841703784E-14</v>
+        <v>-5.602466670779156E-29</v>
       </c>
       <c r="R5">
-        <v>-4.553202010561026E-15</v>
+        <v>-5.394191569853766E-15</v>
       </c>
       <c r="S5">
-        <v>-5.008266871349968E-15</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>-1.563194052511097E-14</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1.608068816806176E-14</v>
+        <v>8.758149807024745E-15</v>
       </c>
       <c r="V5">
-        <v>-3.363958237172006E-15</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.042129368340704E-14</v>
+        <v>5.21064684170378E-15</v>
       </c>
       <c r="X5">
-        <v>-7.917160247732013E-15</v>
+        <v>-4.799569683158744E-15</v>
       </c>
       <c r="Y5">
-        <v>1.173618334569398E-14</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2836,37 +2836,37 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG5">
-        <v>0.6816683458187519</v>
+        <v>0.681668345818751</v>
       </c>
       <c r="AH5">
-        <v>0.4761907156443627</v>
+        <v>0.4761907156443631</v>
       </c>
       <c r="AI5">
-        <v>1.100000023812017</v>
+        <v>1.100000023812018</v>
       </c>
       <c r="AJ5">
-        <v>0.6816683458187519</v>
+        <v>0.6816683458187509</v>
       </c>
       <c r="AK5">
-        <v>0.4761907156443628</v>
+        <v>0.4761907156443632</v>
       </c>
       <c r="AL5">
-        <v>5.646961758325169E-13</v>
+        <v>6.139709933564363E-13</v>
       </c>
       <c r="AM5">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541626</v>
       </c>
       <c r="AN5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO5">
-        <v>5.528108508744215E-13</v>
+        <v>6.160419327005894E-13</v>
       </c>
       <c r="AP5">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541626</v>
       </c>
       <c r="AQ5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
     </row>
   </sheetData>
@@ -3054,40 +3054,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.552713678801798E-14</v>
+        <v>2.368475785867688E-15</v>
       </c>
       <c r="O2">
-        <v>9.473800830770053E-15</v>
+        <v>2.368373468061545E-15</v>
       </c>
       <c r="P2">
-        <v>9.4738002579307E-15</v>
+        <v>-2.368578669299879E-15</v>
       </c>
       <c r="Q2">
-        <v>-3.315866100215E-14</v>
+        <v>1.64950981243248E-28</v>
       </c>
       <c r="R2">
-        <v>-9.473121301339567E-15</v>
+        <v>2.369257629287652E-15</v>
       </c>
       <c r="S2">
-        <v>-2.36769336487564E-15</v>
+        <v>4.737733991700087E-15</v>
       </c>
       <c r="T2">
-        <v>-2.368475785867807E-14</v>
+        <v>1.421085471520711E-14</v>
       </c>
       <c r="U2">
-        <v>4.763113753521025E-09</v>
+        <v>4.76312796437573E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763123230914892E-09</v>
+        <v>-4.763118493963315E-09</v>
       </c>
       <c r="W2">
-        <v>1.421085471520671E-14</v>
+        <v>-1.421085471520708E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763120858546819E-09</v>
+        <v>-4.763116121595239E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763123231316458E-09</v>
+        <v>4.763123231316455E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3111,37 +3111,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169619</v>
+        <v>0.4999999998169614</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833943</v>
+        <v>0.5000000001833941</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK2">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255478</v>
       </c>
       <c r="AL2">
-        <v>6.444831364690113E-13</v>
+        <v>6.394490097002642E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.999999998762</v>
+        <v>-179.9999999987619</v>
       </c>
       <c r="AN2">
-        <v>179.999999998755</v>
+        <v>179.9999999987551</v>
       </c>
       <c r="AO2">
-        <v>6.315000354601029E-13</v>
+        <v>6.650546530227909E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905878</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3185,40 +3185,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-3.07901852162822E-14</v>
+        <v>-1.894780628694265E-14</v>
       </c>
       <c r="O3">
-        <v>-9.473567025341031E-15</v>
+        <v>-1.184204280825723E-14</v>
       </c>
       <c r="P3">
-        <v>3.363132670147779E-19</v>
+        <v>2.368812094438489E-15</v>
       </c>
       <c r="Q3">
-        <v>2.842170943041436E-14</v>
+        <v>1.657933050107498E-14</v>
       </c>
       <c r="R3">
-        <v>9.473642527617325E-15</v>
+        <v>1.184211830917225E-14</v>
       </c>
       <c r="S3">
-        <v>7.105166551896729E-15</v>
+        <v>-2.608043868516636E-19</v>
       </c>
       <c r="T3">
-        <v>1.894780628694243E-14</v>
+        <v>-9.473903143471598E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587698268393112E-09</v>
+        <v>-1.587693531441541E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771721771992E-09</v>
+        <v>1.587703006865197E-09</v>
       </c>
       <c r="W3">
-        <v>-1.894780628694246E-14</v>
+        <v>-4.736951571735501E-15</v>
       </c>
       <c r="X3">
-        <v>1.587700636913514E-09</v>
+        <v>1.587705373865082E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675302E-09</v>
+        <v>-1.587698269869004E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607567</v>
       </c>
       <c r="AH3">
         <v>0.5000000002395995</v>
@@ -3251,28 +3251,28 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK3">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255478</v>
       </c>
       <c r="AL3">
-        <v>6.198270686972455E-13</v>
+        <v>6.58060486721806E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO3">
-        <v>6.315000354601029E-13</v>
+        <v>6.650546530227909E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905878</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3316,40 +3316,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323364454645E-14</v>
+        <v>-2.131628207281055E-14</v>
       </c>
       <c r="O4">
-        <v>-4.736615455521054E-15</v>
+        <v>-1.184204280825723E-14</v>
       </c>
       <c r="P4">
-        <v>-4.736615260736928E-15</v>
+        <v>-2.368139479565453E-15</v>
       </c>
       <c r="Q4">
-        <v>2.368475785867867E-14</v>
+        <v>1.894780628694277E-14</v>
       </c>
       <c r="R4">
-        <v>9.473642527617325E-15</v>
+        <v>1.184211830917225E-14</v>
       </c>
       <c r="S4">
-        <v>7.105166551896729E-15</v>
+        <v>4.736690769483967E-15</v>
       </c>
       <c r="T4">
-        <v>1.421085471520679E-14</v>
+        <v>-4.736951571735934E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587698268393111E-09</v>
+        <v>-1.587693531441541E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719921E-09</v>
+        <v>1.587703006865197E-09</v>
       </c>
       <c r="W4">
-        <v>-1.894780628694251E-14</v>
+        <v>2.199346416576641E-28</v>
       </c>
       <c r="X4">
-        <v>1.587700636913514E-09</v>
+        <v>1.587705373865082E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587717217675302E-09</v>
+        <v>-1.587698269869005E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3373,37 +3373,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607566</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395992</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK4">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255478</v>
       </c>
       <c r="AL4">
-        <v>6.170194340544487E-13</v>
+        <v>6.554258802524739E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO4">
-        <v>6.315000354601029E-13</v>
+        <v>6.650546530227909E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905878</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -3447,40 +3447,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-7.105427357603588E-15</v>
+        <v>2.368475785867899E-15</v>
       </c>
       <c r="O5">
-        <v>-1.184237893871069E-15</v>
+        <v>1.184237890862636E-15</v>
       </c>
       <c r="P5">
-        <v>1.003390050674056E-24</v>
+        <v>-2.36847578599859E-15</v>
       </c>
       <c r="Q5">
-        <v>2.368475785867846E-15</v>
+        <v>-4.736951571735635E-15</v>
       </c>
       <c r="R5">
-        <v>3.552713676599176E-15</v>
+        <v>-1.184237890862636E-15</v>
       </c>
       <c r="S5">
-        <v>7.105427362009305E-15</v>
+        <v>2.368475785998589E-15</v>
       </c>
       <c r="T5">
-        <v>4.736951571735615E-15</v>
+        <v>-4.736951571735663E-15</v>
       </c>
       <c r="U5">
-        <v>7.105427353950457E-15</v>
+        <v>7.105427354451855E-15</v>
       </c>
       <c r="V5">
-        <v>4.736951574003943E-15</v>
+        <v>4.736951574505634E-15</v>
       </c>
       <c r="W5">
-        <v>2.550616470161163E-29</v>
+        <v>-4.736951571735745E-15</v>
       </c>
       <c r="X5">
-        <v>2.368475785485825E-15</v>
+        <v>-7.105427354451853E-15</v>
       </c>
       <c r="Y5">
-        <v>4.736951572498858E-15</v>
+        <v>-4.736951574505631E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607567</v>
       </c>
       <c r="AH5">
         <v>0.5000000002395995</v>
@@ -3513,28 +3513,28 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AJ5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607566</v>
       </c>
       <c r="AK5">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395992</v>
       </c>
       <c r="AL5">
-        <v>6.198270686972455E-13</v>
+        <v>6.58060486721806E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN5">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO5">
-        <v>6.170194340544487E-13</v>
+        <v>6.554258802524739E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999878632</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
     </row>
   </sheetData>
@@ -3722,40 +3722,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.552713678801798E-14</v>
+        <v>2.368475785867688E-15</v>
       </c>
       <c r="O2">
-        <v>9.473800830770053E-15</v>
+        <v>2.368373468061545E-15</v>
       </c>
       <c r="P2">
-        <v>9.4738002579307E-15</v>
+        <v>-2.368578669299879E-15</v>
       </c>
       <c r="Q2">
-        <v>-3.315866100215E-14</v>
+        <v>1.64950981243248E-28</v>
       </c>
       <c r="R2">
-        <v>-9.473121301339567E-15</v>
+        <v>2.369257629287652E-15</v>
       </c>
       <c r="S2">
-        <v>-2.36769336487564E-15</v>
+        <v>4.737733991700087E-15</v>
       </c>
       <c r="T2">
-        <v>-2.368475785867807E-14</v>
+        <v>1.421085471520711E-14</v>
       </c>
       <c r="U2">
-        <v>4.763113753521025E-09</v>
+        <v>4.76312796437573E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763123230914892E-09</v>
+        <v>-4.763118493963315E-09</v>
       </c>
       <c r="W2">
-        <v>1.421085471520671E-14</v>
+        <v>-1.421085471520708E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763120858546819E-09</v>
+        <v>-4.763116121595239E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763123231316458E-09</v>
+        <v>4.763123231316455E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3779,37 +3779,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169619</v>
+        <v>0.4999999998169614</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833943</v>
+        <v>0.5000000001833941</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK2">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255478</v>
       </c>
       <c r="AL2">
-        <v>6.444831364690113E-13</v>
+        <v>6.394490097002642E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.999999998762</v>
+        <v>-179.9999999987619</v>
       </c>
       <c r="AN2">
-        <v>179.999999998755</v>
+        <v>179.9999999987551</v>
       </c>
       <c r="AO2">
-        <v>6.315000354601029E-13</v>
+        <v>6.650546530227909E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905878</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3853,40 +3853,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-3.07901852162822E-14</v>
+        <v>-1.894780628694265E-14</v>
       </c>
       <c r="O3">
-        <v>-9.473567025341031E-15</v>
+        <v>-1.184204280825723E-14</v>
       </c>
       <c r="P3">
-        <v>3.363132670147779E-19</v>
+        <v>2.368812094438489E-15</v>
       </c>
       <c r="Q3">
-        <v>2.842170943041436E-14</v>
+        <v>1.657933050107498E-14</v>
       </c>
       <c r="R3">
-        <v>9.473642527617325E-15</v>
+        <v>1.184211830917225E-14</v>
       </c>
       <c r="S3">
-        <v>7.105166551896729E-15</v>
+        <v>-2.608043868516636E-19</v>
       </c>
       <c r="T3">
-        <v>1.894780628694243E-14</v>
+        <v>-9.473903143471598E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587698268393112E-09</v>
+        <v>-1.587693531441541E-09</v>
       </c>
       <c r="V3">
-        <v>1.58771721771992E-09</v>
+        <v>1.587703006865197E-09</v>
       </c>
       <c r="W3">
-        <v>-1.894780628694246E-14</v>
+        <v>-4.736951571735501E-15</v>
       </c>
       <c r="X3">
-        <v>1.587700636913514E-09</v>
+        <v>1.587705373865082E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587717217675302E-09</v>
+        <v>-1.587698269869004E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607567</v>
       </c>
       <c r="AH3">
         <v>0.5000000002395995</v>
@@ -3919,28 +3919,28 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK3">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255478</v>
       </c>
       <c r="AL3">
-        <v>6.198270686972455E-13</v>
+        <v>6.58060486721806E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO3">
-        <v>6.315000354601029E-13</v>
+        <v>6.650546530227909E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905878</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3984,40 +3984,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.605323364454645E-14</v>
+        <v>-2.131628207281055E-14</v>
       </c>
       <c r="O4">
-        <v>-4.736615455521054E-15</v>
+        <v>-1.184204280825723E-14</v>
       </c>
       <c r="P4">
-        <v>-4.736615260736928E-15</v>
+        <v>-2.368139479565453E-15</v>
       </c>
       <c r="Q4">
-        <v>2.368475785867867E-14</v>
+        <v>1.894780628694277E-14</v>
       </c>
       <c r="R4">
-        <v>9.473642527617325E-15</v>
+        <v>1.184211830917225E-14</v>
       </c>
       <c r="S4">
-        <v>7.105166551896729E-15</v>
+        <v>4.736690769483967E-15</v>
       </c>
       <c r="T4">
-        <v>1.421085471520679E-14</v>
+        <v>-4.736951571735934E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587698268393111E-09</v>
+        <v>-1.587693531441541E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719921E-09</v>
+        <v>1.587703006865197E-09</v>
       </c>
       <c r="W4">
-        <v>-1.894780628694251E-14</v>
+        <v>2.199346416576641E-28</v>
       </c>
       <c r="X4">
-        <v>1.587700636913514E-09</v>
+        <v>1.587705373865082E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587717217675302E-09</v>
+        <v>-1.587698269869005E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4041,37 +4041,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607566</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395992</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748085</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK4">
-        <v>0.500000000225548</v>
+        <v>0.5000000002255478</v>
       </c>
       <c r="AL4">
-        <v>6.170194340544487E-13</v>
+        <v>6.554258802524739E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO4">
-        <v>6.315000354601029E-13</v>
+        <v>6.650546530227909E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905878</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999905809</v>
+        <v>179.999999990581</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -4115,40 +4115,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-7.105427357603588E-15</v>
+        <v>2.368475785867899E-15</v>
       </c>
       <c r="O5">
-        <v>-1.184237893871069E-15</v>
+        <v>1.184237890862636E-15</v>
       </c>
       <c r="P5">
-        <v>1.003390050674056E-24</v>
+        <v>-2.36847578599859E-15</v>
       </c>
       <c r="Q5">
-        <v>2.368475785867846E-15</v>
+        <v>-4.736951571735635E-15</v>
       </c>
       <c r="R5">
-        <v>3.552713676599176E-15</v>
+        <v>-1.184237890862636E-15</v>
       </c>
       <c r="S5">
-        <v>7.105427362009305E-15</v>
+        <v>2.368475785998589E-15</v>
       </c>
       <c r="T5">
-        <v>4.736951571735615E-15</v>
+        <v>-4.736951571735663E-15</v>
       </c>
       <c r="U5">
-        <v>7.105427353950457E-15</v>
+        <v>7.105427354451855E-15</v>
       </c>
       <c r="V5">
-        <v>4.736951574003943E-15</v>
+        <v>4.736951574505634E-15</v>
       </c>
       <c r="W5">
-        <v>2.550616470161163E-29</v>
+        <v>-4.736951571735745E-15</v>
       </c>
       <c r="X5">
-        <v>2.368475785485825E-15</v>
+        <v>-7.105427354451853E-15</v>
       </c>
       <c r="Y5">
-        <v>4.736951572498858E-15</v>
+        <v>-4.736951574505631E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607567</v>
       </c>
       <c r="AH5">
         <v>0.5000000002395995</v>
@@ -4181,28 +4181,28 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AJ5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607566</v>
       </c>
       <c r="AK5">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395992</v>
       </c>
       <c r="AL5">
-        <v>6.198270686972455E-13</v>
+        <v>6.58060486721806E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999878632</v>
       </c>
       <c r="AN5">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
       <c r="AO5">
-        <v>6.170194340544487E-13</v>
+        <v>6.554258802524739E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999878632</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999878562</v>
+        <v>179.9999999878563</v>
       </c>
     </row>
   </sheetData>
@@ -4390,40 +4390,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.315866100233064E-14</v>
+        <v>2.368475785880567E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559561404307491E-10</v>
+        <v>-5.559581187213354E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551454232167158E-09</v>
+        <v>-1.551457322676625E-09</v>
       </c>
       <c r="Q2">
-        <v>-3.079018521644989E-14</v>
+        <v>-2.368475785880537E-15</v>
       </c>
       <c r="R2">
-        <v>5.559593133527217E-10</v>
+        <v>5.559612916433108E-10</v>
       </c>
       <c r="S2">
-        <v>1.551453443593572E-09</v>
+        <v>1.551459838301796E-09</v>
       </c>
       <c r="T2">
-        <v>-2.605323364468785E-14</v>
+        <v>1.894780628704595E-14</v>
       </c>
       <c r="U2">
-        <v>4.833135132335681E-09</v>
+        <v>4.833155394735582E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10890420585755E-09</v>
+        <v>-3.108894400105924E-09</v>
       </c>
       <c r="W2">
-        <v>2.842170943056861E-14</v>
+        <v>-2.131628207292669E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833129912983906E-09</v>
+        <v>-4.833150175383801E-09</v>
       </c>
       <c r="Y2">
-        <v>3.10889576480678E-09</v>
+        <v>3.108889156409265E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4444,40 +4444,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000005802</v>
+        <v>1.000000000005801</v>
       </c>
       <c r="AG2">
         <v>0.6078088903891383</v>
       </c>
       <c r="AH2">
-        <v>0.434087010414059</v>
+        <v>0.4340870104140589</v>
       </c>
       <c r="AI2">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903608008</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725131</v>
       </c>
       <c r="AL2">
-        <v>5.46181984527439E-13</v>
+        <v>5.269956026690961E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346804</v>
+        <v>160.6235536346805</v>
       </c>
       <c r="AO2">
-        <v>5.314381825294311E-13</v>
+        <v>5.472921133945838E-13</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296894</v>
+        <v>160.6235536296895</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4521,40 +4521,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.657933050116516E-14</v>
+        <v>-1.894780628704585E-14</v>
       </c>
       <c r="O3">
-        <v>1.853223521364244E-10</v>
+        <v>1.853175083402109E-10</v>
       </c>
       <c r="P3">
-        <v>5.171562001099703E-10</v>
+        <v>5.171581398913656E-10</v>
       </c>
       <c r="Q3">
-        <v>1.657933050116512E-14</v>
+        <v>1.894780628704584E-14</v>
       </c>
       <c r="R3">
-        <v>-1.853178152235184E-10</v>
+        <v>-1.853115386744907E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171503807124743E-10</v>
+        <v>-5.17154260275267E-10</v>
       </c>
       <c r="T3">
-        <v>-2.368475785880892E-15</v>
+        <v>-7.105427357642398E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611059962226827E-09</v>
+        <v>-1.611052252924982E-09</v>
       </c>
       <c r="V3">
-        <v>1.036302624036354E-09</v>
+        <v>1.036301941827674E-09</v>
       </c>
       <c r="W3">
-        <v>7.105427357642376E-15</v>
+        <v>9.473903143523145E-15</v>
       </c>
       <c r="X3">
-        <v>1.611059586986259E-09</v>
+        <v>1.611058154233442E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036304670630893E-09</v>
+        <v>-1.036303306213533E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4578,37 +4578,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513553</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919982</v>
       </c>
       <c r="AI3">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903608008</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725131</v>
       </c>
       <c r="AL3">
-        <v>5.22768907759216E-13</v>
+        <v>5.417191681090865E-13</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222524</v>
+        <v>-166.2935793222523</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280257</v>
+        <v>160.6235536280259</v>
       </c>
       <c r="AO3">
-        <v>5.314381825294311E-13</v>
+        <v>5.472921133945838E-13</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296894</v>
+        <v>160.6235536296895</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4652,40 +4652,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.184237892940362E-14</v>
+        <v>-1.894780628704585E-14</v>
       </c>
       <c r="O4">
-        <v>1.85325149306599E-10</v>
+        <v>1.85317508340211E-10</v>
       </c>
       <c r="P4">
-        <v>5.171550493818961E-10</v>
+        <v>5.171542603285707E-10</v>
       </c>
       <c r="Q4">
-        <v>1.18423789294036E-14</v>
+        <v>1.894780628704584E-14</v>
       </c>
       <c r="R4">
-        <v>-1.853247739812273E-10</v>
+        <v>-1.853143358446652E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171517451298344E-10</v>
+        <v>-5.171503807124722E-10</v>
       </c>
       <c r="T4">
-        <v>-9.473903143523071E-15</v>
+        <v>-7.105427357642398E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611059280018147E-09</v>
+        <v>-1.611052252924982E-09</v>
       </c>
       <c r="V4">
-        <v>1.036311747579304E-09</v>
+        <v>1.036303306245033E-09</v>
       </c>
       <c r="W4">
-        <v>1.184237892940381E-14</v>
+        <v>9.473903143523145E-15</v>
       </c>
       <c r="X4">
-        <v>1.611063816909248E-09</v>
+        <v>1.611057472024763E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036308550193688E-09</v>
+        <v>-1.036304670630893E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4709,37 +4709,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513552</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919985</v>
+        <v>0.434087010491998</v>
       </c>
       <c r="AI4">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903608008</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725131</v>
       </c>
       <c r="AL4">
-        <v>5.288738006152195E-13</v>
+        <v>5.410117281348402E-13</v>
       </c>
       <c r="AM4">
         <v>-166.2935793222523</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280257</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO4">
-        <v>5.314381825294311E-13</v>
+        <v>5.472921133945838E-13</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296894</v>
+        <v>160.6235536296895</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -4783,40 +4783,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.368475785880805E-15</v>
+        <v>-2.368475785880763E-15</v>
       </c>
       <c r="O5">
-        <v>-2.421898107303883E-15</v>
+        <v>1.739689427214539E-15</v>
       </c>
       <c r="P5">
-        <v>1.364417360179168E-15</v>
+        <v>4.668616117780046E-15</v>
       </c>
       <c r="Q5">
-        <v>4.736951571761546E-15</v>
+        <v>-2.236418090223101E-29</v>
       </c>
       <c r="R5">
-        <v>5.935444688724147E-15</v>
+        <v>3.138274514384406E-15</v>
       </c>
       <c r="S5">
-        <v>5.819344192265176E-15</v>
+        <v>-1.364417360179161E-15</v>
       </c>
       <c r="T5">
-        <v>7.105427357642199E-15</v>
+        <v>2.368475785880717E-15</v>
       </c>
       <c r="U5">
-        <v>3.854650921464935E-15</v>
+        <v>-1.057480747125195E-15</v>
       </c>
       <c r="V5">
-        <v>3.87956279484345E-15</v>
+        <v>7.076916909597319E-15</v>
       </c>
       <c r="W5">
-        <v>-7.105427357642177E-15</v>
+        <v>2.36847578588074E-15</v>
       </c>
       <c r="X5">
-        <v>-3.416772699118137E-17</v>
+        <v>-7.163764070805222E-16</v>
       </c>
       <c r="Y5">
-        <v>-2.046626040268754E-15</v>
+        <v>-3.879562794843448E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4840,37 +4840,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG5">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513553</v>
       </c>
       <c r="AH5">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919982</v>
       </c>
       <c r="AI5">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ5">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513552</v>
       </c>
       <c r="AK5">
-        <v>0.4340870104919985</v>
+        <v>0.434087010491998</v>
       </c>
       <c r="AL5">
-        <v>5.22768907759216E-13</v>
+        <v>5.417191681090865E-13</v>
       </c>
       <c r="AM5">
-        <v>-166.2935793222524</v>
+        <v>-166.2935793222523</v>
       </c>
       <c r="AN5">
-        <v>160.6235536280257</v>
+        <v>160.6235536280259</v>
       </c>
       <c r="AO5">
-        <v>5.288738006152195E-13</v>
+        <v>5.410117281348402E-13</v>
       </c>
       <c r="AP5">
         <v>-166.2935793222523</v>
       </c>
       <c r="AQ5">
-        <v>160.6235536280257</v>
+        <v>160.6235536280258</v>
       </c>
     </row>
   </sheetData>
@@ -5058,40 +5058,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.315866100233064E-14</v>
+        <v>2.368475785880567E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559561404307491E-10</v>
+        <v>-5.559581187213354E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551454232167158E-09</v>
+        <v>-1.551457322676625E-09</v>
       </c>
       <c r="Q2">
-        <v>-3.079018521644989E-14</v>
+        <v>-2.368475785880537E-15</v>
       </c>
       <c r="R2">
-        <v>5.559593133527217E-10</v>
+        <v>5.559612916433108E-10</v>
       </c>
       <c r="S2">
-        <v>1.551453443593572E-09</v>
+        <v>1.551459838301796E-09</v>
       </c>
       <c r="T2">
-        <v>-2.605323364468785E-14</v>
+        <v>1.894780628704595E-14</v>
       </c>
       <c r="U2">
-        <v>4.833135132335681E-09</v>
+        <v>4.833155394735582E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10890420585755E-09</v>
+        <v>-3.108894400105924E-09</v>
       </c>
       <c r="W2">
-        <v>2.842170943056861E-14</v>
+        <v>-2.131628207292669E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833129912983906E-09</v>
+        <v>-4.833150175383801E-09</v>
       </c>
       <c r="Y2">
-        <v>3.10889576480678E-09</v>
+        <v>3.108889156409265E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5112,40 +5112,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000005802</v>
+        <v>1.000000000005801</v>
       </c>
       <c r="AG2">
         <v>0.6078088903891383</v>
       </c>
       <c r="AH2">
-        <v>0.434087010414059</v>
+        <v>0.4340870104140589</v>
       </c>
       <c r="AI2">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903608008</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725131</v>
       </c>
       <c r="AL2">
-        <v>5.46181984527439E-13</v>
+        <v>5.269956026690961E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346804</v>
+        <v>160.6235536346805</v>
       </c>
       <c r="AO2">
-        <v>5.314381825294311E-13</v>
+        <v>5.472921133945838E-13</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296894</v>
+        <v>160.6235536296895</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5189,40 +5189,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.657933050116516E-14</v>
+        <v>-1.894780628704585E-14</v>
       </c>
       <c r="O3">
-        <v>1.853223521364244E-10</v>
+        <v>1.853175083402109E-10</v>
       </c>
       <c r="P3">
-        <v>5.171562001099703E-10</v>
+        <v>5.171581398913656E-10</v>
       </c>
       <c r="Q3">
-        <v>1.657933050116512E-14</v>
+        <v>1.894780628704584E-14</v>
       </c>
       <c r="R3">
-        <v>-1.853178152235184E-10</v>
+        <v>-1.853115386744907E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171503807124743E-10</v>
+        <v>-5.17154260275267E-10</v>
       </c>
       <c r="T3">
-        <v>-2.368475785880892E-15</v>
+        <v>-7.105427357642398E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611059962226827E-09</v>
+        <v>-1.611052252924982E-09</v>
       </c>
       <c r="V3">
-        <v>1.036302624036354E-09</v>
+        <v>1.036301941827674E-09</v>
       </c>
       <c r="W3">
-        <v>7.105427357642376E-15</v>
+        <v>9.473903143523145E-15</v>
       </c>
       <c r="X3">
-        <v>1.611059586986259E-09</v>
+        <v>1.611058154233442E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036304670630893E-09</v>
+        <v>-1.036303306213533E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5246,37 +5246,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513553</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919982</v>
       </c>
       <c r="AI3">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903608008</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725131</v>
       </c>
       <c r="AL3">
-        <v>5.22768907759216E-13</v>
+        <v>5.417191681090865E-13</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222524</v>
+        <v>-166.2935793222523</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280257</v>
+        <v>160.6235536280259</v>
       </c>
       <c r="AO3">
-        <v>5.314381825294311E-13</v>
+        <v>5.472921133945838E-13</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296894</v>
+        <v>160.6235536296895</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5320,40 +5320,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.184237892940362E-14</v>
+        <v>-1.894780628704585E-14</v>
       </c>
       <c r="O4">
-        <v>1.85325149306599E-10</v>
+        <v>1.85317508340211E-10</v>
       </c>
       <c r="P4">
-        <v>5.171550493818961E-10</v>
+        <v>5.171542603285707E-10</v>
       </c>
       <c r="Q4">
-        <v>1.18423789294036E-14</v>
+        <v>1.894780628704584E-14</v>
       </c>
       <c r="R4">
-        <v>-1.853247739812273E-10</v>
+        <v>-1.853143358446652E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171517451298344E-10</v>
+        <v>-5.171503807124722E-10</v>
       </c>
       <c r="T4">
-        <v>-9.473903143523071E-15</v>
+        <v>-7.105427357642398E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611059280018147E-09</v>
+        <v>-1.611052252924982E-09</v>
       </c>
       <c r="V4">
-        <v>1.036311747579304E-09</v>
+        <v>1.036303306245033E-09</v>
       </c>
       <c r="W4">
-        <v>1.184237892940381E-14</v>
+        <v>9.473903143523145E-15</v>
       </c>
       <c r="X4">
-        <v>1.611063816909248E-09</v>
+        <v>1.611057472024763E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036308550193688E-09</v>
+        <v>-1.036304670630893E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5377,37 +5377,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513552</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919985</v>
+        <v>0.434087010491998</v>
       </c>
       <c r="AI4">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608014</v>
+        <v>0.6078088903608008</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725131</v>
       </c>
       <c r="AL4">
-        <v>5.288738006152195E-13</v>
+        <v>5.410117281348402E-13</v>
       </c>
       <c r="AM4">
         <v>-166.2935793222523</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280257</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO4">
-        <v>5.314381825294311E-13</v>
+        <v>5.472921133945838E-13</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296894</v>
+        <v>160.6235536296895</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -5451,40 +5451,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.368475785880805E-15</v>
+        <v>-2.368475785880763E-15</v>
       </c>
       <c r="O5">
-        <v>-2.421898107303883E-15</v>
+        <v>1.739689427214539E-15</v>
       </c>
       <c r="P5">
-        <v>1.364417360179168E-15</v>
+        <v>4.668616117780046E-15</v>
       </c>
       <c r="Q5">
-        <v>4.736951571761546E-15</v>
+        <v>-2.236418090223101E-29</v>
       </c>
       <c r="R5">
-        <v>5.935444688724147E-15</v>
+        <v>3.138274514384406E-15</v>
       </c>
       <c r="S5">
-        <v>5.819344192265176E-15</v>
+        <v>-1.364417360179161E-15</v>
       </c>
       <c r="T5">
-        <v>7.105427357642199E-15</v>
+        <v>2.368475785880717E-15</v>
       </c>
       <c r="U5">
-        <v>3.854650921464935E-15</v>
+        <v>-1.057480747125195E-15</v>
       </c>
       <c r="V5">
-        <v>3.87956279484345E-15</v>
+        <v>7.076916909597319E-15</v>
       </c>
       <c r="W5">
-        <v>-7.105427357642177E-15</v>
+        <v>2.36847578588074E-15</v>
       </c>
       <c r="X5">
-        <v>-3.416772699118137E-17</v>
+        <v>-7.163764070805222E-16</v>
       </c>
       <c r="Y5">
-        <v>-2.046626040268754E-15</v>
+        <v>-3.879562794843448E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -5508,37 +5508,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG5">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513553</v>
       </c>
       <c r="AH5">
-        <v>0.4340870104919985</v>
+        <v>0.4340870104919982</v>
       </c>
       <c r="AI5">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ5">
-        <v>0.6078088903513559</v>
+        <v>0.6078088903513552</v>
       </c>
       <c r="AK5">
-        <v>0.4340870104919985</v>
+        <v>0.434087010491998</v>
       </c>
       <c r="AL5">
-        <v>5.22768907759216E-13</v>
+        <v>5.417191681090865E-13</v>
       </c>
       <c r="AM5">
-        <v>-166.2935793222524</v>
+        <v>-166.2935793222523</v>
       </c>
       <c r="AN5">
-        <v>160.6235536280257</v>
+        <v>160.6235536280259</v>
       </c>
       <c r="AO5">
-        <v>5.288738006152195E-13</v>
+        <v>5.410117281348402E-13</v>
       </c>
       <c r="AP5">
         <v>-166.2935793222523</v>
       </c>
       <c r="AQ5">
-        <v>160.6235536280257</v>
+        <v>160.6235536280258</v>
       </c>
     </row>
   </sheetData>
@@ -5729,40 +5729,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.94884235054028E-09</v>
+        <v>-2.948858322499707E-09</v>
       </c>
       <c r="O2">
-        <v>-7.361066242155732E-10</v>
+        <v>-7.361176115652678E-10</v>
       </c>
       <c r="P2">
-        <v>-7.383303693456334E-10</v>
+        <v>-7.383482216381561E-10</v>
       </c>
       <c r="Q2">
-        <v>2.948845797538076E-09</v>
+        <v>2.948862201116166E-09</v>
       </c>
       <c r="R2">
-        <v>7.36100816353643E-10</v>
+        <v>7.361124511313323E-10</v>
       </c>
       <c r="S2">
-        <v>7.383439055153656E-10</v>
+        <v>7.383572457725875E-10</v>
       </c>
       <c r="T2">
-        <v>-2.631846524302272E-12</v>
+        <v>-2.628403143826225E-12</v>
       </c>
       <c r="U2">
-        <v>-3.854400850473887E-09</v>
+        <v>-3.85443383525983E-09</v>
       </c>
       <c r="V2">
-        <v>3.853123584980458E-09</v>
+        <v>3.853143555444999E-09</v>
       </c>
       <c r="W2">
-        <v>2.642207730782315E-12</v>
+        <v>2.638764608926196E-12</v>
       </c>
       <c r="X2">
-        <v>3.854394944178976E-09</v>
+        <v>3.854431313767246E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.85312099519607E-09</v>
+        <v>-3.853141828897932E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5783,40 +5783,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3644696238511727</v>
+        <v>0.3644696238511731</v>
       </c>
       <c r="AH2">
-        <v>0.9700090737384316</v>
+        <v>0.9700090737384325</v>
       </c>
       <c r="AI2">
-        <v>0.9697945808474913</v>
+        <v>0.969794580847491</v>
       </c>
       <c r="AJ2">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827593</v>
       </c>
       <c r="AK2">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589756</v>
       </c>
       <c r="AL2">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328788</v>
       </c>
       <c r="AM2">
-        <v>0.0343303849930081</v>
+        <v>0.03433038499314438</v>
       </c>
       <c r="AN2">
-        <v>-100.8284562165842</v>
+        <v>-100.8284562165841</v>
       </c>
       <c r="AO2">
-        <v>100.8308801221832</v>
+        <v>100.8308801221831</v>
       </c>
       <c r="AP2">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061683645</v>
       </c>
       <c r="AQ2">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR2">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5860,40 +5860,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.829509032428543E-10</v>
+        <v>9.829556489792049E-10</v>
       </c>
       <c r="O3">
-        <v>2.45384337333993E-10</v>
+        <v>2.453574936508943E-10</v>
       </c>
       <c r="P3">
-        <v>2.461148576417605E-10</v>
+        <v>2.461185064397381E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.829474564719908E-10</v>
+        <v>-9.829552194011091E-10</v>
       </c>
       <c r="R3">
-        <v>-2.453901452526561E-10</v>
+        <v>-2.453716802811014E-10</v>
       </c>
       <c r="S3">
-        <v>-2.461112088366907E-10</v>
+        <v>-2.461094823620422E-10</v>
       </c>
       <c r="T3">
-        <v>8.772843724385363E-13</v>
+        <v>8.807401665200394E-13</v>
       </c>
       <c r="U3">
-        <v>1.28478329136488E-09</v>
+        <v>1.284814155909876E-09</v>
       </c>
       <c r="V3">
-        <v>-1.284382976873689E-09</v>
+        <v>-1.284377601601062E-09</v>
       </c>
       <c r="W3">
-        <v>-8.669234234342492E-13</v>
+        <v>-8.772869264225871E-13</v>
       </c>
       <c r="X3">
-        <v>-1.284789197724162E-09</v>
+        <v>-1.284814950992184E-09</v>
       </c>
       <c r="Y3">
-        <v>1.284388352154362E-09</v>
+        <v>1.284379328083757E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5914,40 +5914,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3644696238932873</v>
+        <v>0.364469623893288</v>
       </c>
       <c r="AH3">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658233</v>
       </c>
       <c r="AI3">
-        <v>0.9697945808280082</v>
+        <v>0.9697945808280081</v>
       </c>
       <c r="AJ3">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827593</v>
       </c>
       <c r="AK3">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589756</v>
       </c>
       <c r="AL3">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328788</v>
       </c>
       <c r="AM3">
-        <v>0.03433039249122443</v>
+        <v>0.03433039249141101</v>
       </c>
       <c r="AN3">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO3">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP3">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061683645</v>
       </c>
       <c r="AQ3">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR3">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5991,37 +5991,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.829578008657154E-10</v>
+        <v>9.829590977906351E-10</v>
       </c>
       <c r="O4">
-        <v>2.453688747668905E-10</v>
+        <v>2.453493307486814E-10</v>
       </c>
       <c r="P4">
-        <v>2.461419298535735E-10</v>
+        <v>2.461374178182709E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.829578070441466E-10</v>
+        <v>-9.82962121161835E-10</v>
       </c>
       <c r="R4">
-        <v>-2.453720929735819E-10</v>
+        <v>-2.453725435184252E-10</v>
       </c>
       <c r="S4">
-        <v>-2.461292569778994E-10</v>
+        <v>-2.461292569778987E-10</v>
       </c>
       <c r="T4">
-        <v>8.911003074866904E-13</v>
+        <v>8.876481340440802E-13</v>
       </c>
       <c r="U4">
-        <v>1.284800283523481E-09</v>
+        <v>1.284820395454292E-09</v>
       </c>
       <c r="V4">
-        <v>-1.284377797449745E-09</v>
+        <v>-1.284378660687069E-09</v>
       </c>
       <c r="W4">
-        <v>-8.807414274146606E-13</v>
+        <v>-8.84196962879147E-13</v>
       </c>
       <c r="X4">
-        <v>-1.284792650673458E-09</v>
+        <v>-1.284819464061953E-09</v>
       </c>
       <c r="Y4">
         <v>1.284384899205066E-09</v>
@@ -6045,40 +6045,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3644696238932877</v>
+        <v>0.364469623893288</v>
       </c>
       <c r="AH4">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658233</v>
       </c>
       <c r="AI4">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280082</v>
       </c>
       <c r="AJ4">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827593</v>
       </c>
       <c r="AK4">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589756</v>
       </c>
       <c r="AL4">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328788</v>
       </c>
       <c r="AM4">
-        <v>0.03433039249121426</v>
+        <v>0.03433039249140383</v>
       </c>
       <c r="AN4">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO4">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP4">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061683645</v>
       </c>
       <c r="AQ4">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR4">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -6122,40 +6122,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.588160272137461E-15</v>
+        <v>-2.589194738548133E-15</v>
       </c>
       <c r="O5">
-        <v>8.692962449671304E-15</v>
+        <v>-6.023735085426073E-15</v>
       </c>
       <c r="P5">
-        <v>-1.267286858255978E-14</v>
+        <v>-9.887307928236358E-15</v>
       </c>
       <c r="Q5">
-        <v>5.603801340591168E-15</v>
+        <v>-4.331703615749224E-16</v>
       </c>
       <c r="R5">
-        <v>-1.310759064375078E-14</v>
+        <v>-2.786595120734276E-15</v>
       </c>
       <c r="S5">
-        <v>1.180963125864188E-14</v>
+        <v>1.804814120863691E-14</v>
       </c>
       <c r="T5">
-        <v>-2.591263671369467E-15</v>
+        <v>-8.647890235338343E-16</v>
       </c>
       <c r="U5">
-        <v>-1.569730261550422E-14</v>
+        <v>-7.034634771079516E-15</v>
       </c>
       <c r="V5">
-        <v>-7.101747273912938E-15</v>
+        <v>2.785560654323426E-15</v>
       </c>
       <c r="W5">
-        <v>1.208868455068418E-14</v>
+        <v>2.589453355150801E-15</v>
       </c>
       <c r="X5">
-        <v>4.846246856038388E-15</v>
+        <v>9.889376861057617E-15</v>
       </c>
       <c r="Y5">
-        <v>1.161378257607217E-14</v>
+        <v>3.452949295671609E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -6176,40 +6176,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3644696238932873</v>
+        <v>0.364469623893288</v>
       </c>
       <c r="AH5">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658233</v>
       </c>
       <c r="AI5">
+        <v>0.9697945808280081</v>
+      </c>
+      <c r="AJ5">
+        <v>0.364469623893288</v>
+      </c>
+      <c r="AK5">
+        <v>0.9700090737658233</v>
+      </c>
+      <c r="AL5">
         <v>0.9697945808280082</v>
       </c>
-      <c r="AJ5">
-        <v>0.3644696238932877</v>
-      </c>
-      <c r="AK5">
-        <v>0.9700090737658222</v>
-      </c>
-      <c r="AL5">
-        <v>0.9697945808280084</v>
-      </c>
       <c r="AM5">
-        <v>0.03433039249122443</v>
+        <v>0.03433039249141101</v>
       </c>
       <c r="AN5">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO5">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP5">
-        <v>0.03433039249121426</v>
+        <v>0.03433039249140383</v>
       </c>
       <c r="AQ5">
         <v>-100.8284562175402</v>
       </c>
       <c r="AR5">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
     </row>
   </sheetData>
@@ -6400,40 +6400,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.94884235054028E-09</v>
+        <v>-2.948858322499707E-09</v>
       </c>
       <c r="O2">
-        <v>-7.361066242155732E-10</v>
+        <v>-7.361176115652678E-10</v>
       </c>
       <c r="P2">
-        <v>-7.383303693456334E-10</v>
+        <v>-7.383482216381561E-10</v>
       </c>
       <c r="Q2">
-        <v>2.948845797538076E-09</v>
+        <v>2.948862201116166E-09</v>
       </c>
       <c r="R2">
-        <v>7.36100816353643E-10</v>
+        <v>7.361124511313323E-10</v>
       </c>
       <c r="S2">
-        <v>7.383439055153656E-10</v>
+        <v>7.383572457725875E-10</v>
       </c>
       <c r="T2">
-        <v>-2.631846524302272E-12</v>
+        <v>-2.628403143826225E-12</v>
       </c>
       <c r="U2">
-        <v>-3.854400850473887E-09</v>
+        <v>-3.85443383525983E-09</v>
       </c>
       <c r="V2">
-        <v>3.853123584980458E-09</v>
+        <v>3.853143555444999E-09</v>
       </c>
       <c r="W2">
-        <v>2.642207730782315E-12</v>
+        <v>2.638764608926196E-12</v>
       </c>
       <c r="X2">
-        <v>3.854394944178976E-09</v>
+        <v>3.854431313767246E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.85312099519607E-09</v>
+        <v>-3.853141828897932E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6454,40 +6454,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3644696238511727</v>
+        <v>0.3644696238511731</v>
       </c>
       <c r="AH2">
-        <v>0.9700090737384316</v>
+        <v>0.9700090737384325</v>
       </c>
       <c r="AI2">
-        <v>0.9697945808474913</v>
+        <v>0.969794580847491</v>
       </c>
       <c r="AJ2">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827593</v>
       </c>
       <c r="AK2">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589756</v>
       </c>
       <c r="AL2">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328788</v>
       </c>
       <c r="AM2">
-        <v>0.0343303849930081</v>
+        <v>0.03433038499314438</v>
       </c>
       <c r="AN2">
-        <v>-100.8284562165842</v>
+        <v>-100.8284562165841</v>
       </c>
       <c r="AO2">
-        <v>100.8308801221832</v>
+        <v>100.8308801221831</v>
       </c>
       <c r="AP2">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061683645</v>
       </c>
       <c r="AQ2">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR2">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -6531,40 +6531,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.829509032428543E-10</v>
+        <v>9.829556489792049E-10</v>
       </c>
       <c r="O3">
-        <v>2.45384337333993E-10</v>
+        <v>2.453574936508943E-10</v>
       </c>
       <c r="P3">
-        <v>2.461148576417605E-10</v>
+        <v>2.461185064397381E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.829474564719908E-10</v>
+        <v>-9.829552194011091E-10</v>
       </c>
       <c r="R3">
-        <v>-2.453901452526561E-10</v>
+        <v>-2.453716802811014E-10</v>
       </c>
       <c r="S3">
-        <v>-2.461112088366907E-10</v>
+        <v>-2.461094823620422E-10</v>
       </c>
       <c r="T3">
-        <v>8.772843724385363E-13</v>
+        <v>8.807401665200394E-13</v>
       </c>
       <c r="U3">
-        <v>1.28478329136488E-09</v>
+        <v>1.284814155909876E-09</v>
       </c>
       <c r="V3">
-        <v>-1.284382976873689E-09</v>
+        <v>-1.284377601601062E-09</v>
       </c>
       <c r="W3">
-        <v>-8.669234234342492E-13</v>
+        <v>-8.772869264225871E-13</v>
       </c>
       <c r="X3">
-        <v>-1.284789197724162E-09</v>
+        <v>-1.284814950992184E-09</v>
       </c>
       <c r="Y3">
-        <v>1.284388352154362E-09</v>
+        <v>1.284379328083757E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6585,40 +6585,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3644696238932873</v>
+        <v>0.364469623893288</v>
       </c>
       <c r="AH3">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658233</v>
       </c>
       <c r="AI3">
-        <v>0.9697945808280082</v>
+        <v>0.9697945808280081</v>
       </c>
       <c r="AJ3">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827593</v>
       </c>
       <c r="AK3">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589756</v>
       </c>
       <c r="AL3">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328788</v>
       </c>
       <c r="AM3">
-        <v>0.03433039249122443</v>
+        <v>0.03433039249141101</v>
       </c>
       <c r="AN3">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO3">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP3">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061683645</v>
       </c>
       <c r="AQ3">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR3">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6662,37 +6662,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.829578008657154E-10</v>
+        <v>9.829590977906351E-10</v>
       </c>
       <c r="O4">
-        <v>2.453688747668905E-10</v>
+        <v>2.453493307486814E-10</v>
       </c>
       <c r="P4">
-        <v>2.461419298535735E-10</v>
+        <v>2.461374178182709E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.829578070441466E-10</v>
+        <v>-9.82962121161835E-10</v>
       </c>
       <c r="R4">
-        <v>-2.453720929735819E-10</v>
+        <v>-2.453725435184252E-10</v>
       </c>
       <c r="S4">
-        <v>-2.461292569778994E-10</v>
+        <v>-2.461292569778987E-10</v>
       </c>
       <c r="T4">
-        <v>8.911003074866904E-13</v>
+        <v>8.876481340440802E-13</v>
       </c>
       <c r="U4">
-        <v>1.284800283523481E-09</v>
+        <v>1.284820395454292E-09</v>
       </c>
       <c r="V4">
-        <v>-1.284377797449745E-09</v>
+        <v>-1.284378660687069E-09</v>
       </c>
       <c r="W4">
-        <v>-8.807414274146606E-13</v>
+        <v>-8.84196962879147E-13</v>
       </c>
       <c r="X4">
-        <v>-1.284792650673458E-09</v>
+        <v>-1.284819464061953E-09</v>
       </c>
       <c r="Y4">
         <v>1.284384899205066E-09</v>
@@ -6716,40 +6716,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3644696238932877</v>
+        <v>0.364469623893288</v>
       </c>
       <c r="AH4">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658233</v>
       </c>
       <c r="AI4">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280082</v>
       </c>
       <c r="AJ4">
-        <v>0.3644696238827587</v>
+        <v>0.3644696238827593</v>
       </c>
       <c r="AK4">
-        <v>0.9700090737589746</v>
+        <v>0.9700090737589756</v>
       </c>
       <c r="AL4">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328788</v>
       </c>
       <c r="AM4">
-        <v>0.03433039249121426</v>
+        <v>0.03433039249140383</v>
       </c>
       <c r="AN4">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO4">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP4">
-        <v>0.03433039061665995</v>
+        <v>0.03433039061683645</v>
       </c>
       <c r="AQ4">
         <v>-100.8284562173012</v>
       </c>
       <c r="AR4">
-        <v>100.8308801232977</v>
+        <v>100.8308801232976</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -6793,40 +6793,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.588160272137461E-15</v>
+        <v>-2.589194738548133E-15</v>
       </c>
       <c r="O5">
-        <v>8.692962449671304E-15</v>
+        <v>-6.023735085426073E-15</v>
       </c>
       <c r="P5">
-        <v>-1.267286858255978E-14</v>
+        <v>-9.887307928236358E-15</v>
       </c>
       <c r="Q5">
-        <v>5.603801340591168E-15</v>
+        <v>-4.331703615749224E-16</v>
       </c>
       <c r="R5">
-        <v>-1.310759064375078E-14</v>
+        <v>-2.786595120734276E-15</v>
       </c>
       <c r="S5">
-        <v>1.180963125864188E-14</v>
+        <v>1.804814120863691E-14</v>
       </c>
       <c r="T5">
-        <v>-2.591263671369467E-15</v>
+        <v>-8.647890235338343E-16</v>
       </c>
       <c r="U5">
-        <v>-1.569730261550422E-14</v>
+        <v>-7.034634771079516E-15</v>
       </c>
       <c r="V5">
-        <v>-7.101747273912938E-15</v>
+        <v>2.785560654323426E-15</v>
       </c>
       <c r="W5">
-        <v>1.208868455068418E-14</v>
+        <v>2.589453355150801E-15</v>
       </c>
       <c r="X5">
-        <v>4.846246856038388E-15</v>
+        <v>9.889376861057617E-15</v>
       </c>
       <c r="Y5">
-        <v>1.161378257607217E-14</v>
+        <v>3.452949295671609E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -6847,40 +6847,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3644696238932873</v>
+        <v>0.364469623893288</v>
       </c>
       <c r="AH5">
-        <v>0.9700090737658222</v>
+        <v>0.9700090737658233</v>
       </c>
       <c r="AI5">
+        <v>0.9697945808280081</v>
+      </c>
+      <c r="AJ5">
+        <v>0.364469623893288</v>
+      </c>
+      <c r="AK5">
+        <v>0.9700090737658233</v>
+      </c>
+      <c r="AL5">
         <v>0.9697945808280082</v>
       </c>
-      <c r="AJ5">
-        <v>0.3644696238932877</v>
-      </c>
-      <c r="AK5">
-        <v>0.9700090737658222</v>
-      </c>
-      <c r="AL5">
-        <v>0.9697945808280084</v>
-      </c>
       <c r="AM5">
-        <v>0.03433039249122443</v>
+        <v>0.03433039249141101</v>
       </c>
       <c r="AN5">
         <v>-100.8284562175402</v>
       </c>
       <c r="AO5">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
       <c r="AP5">
-        <v>0.03433039249121426</v>
+        <v>0.03433039249140383</v>
       </c>
       <c r="AQ5">
         <v>-100.8284562175402</v>
       </c>
       <c r="AR5">
-        <v>100.8308801236692</v>
+        <v>100.8308801236691</v>
       </c>
     </row>
   </sheetData>
@@ -7071,40 +7071,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.139219592425468E-09</v>
+        <v>-3.1392428623013E-09</v>
       </c>
       <c r="O2">
-        <v>-1.401002092550954E-09</v>
+        <v>-1.40099768151028E-09</v>
       </c>
       <c r="P2">
-        <v>-1.686109590965717E-10</v>
+        <v>-1.686282091320726E-10</v>
       </c>
       <c r="Q2">
-        <v>3.139210706545364E-09</v>
+        <v>3.13924785106265E-09</v>
       </c>
       <c r="R2">
-        <v>1.400998896781519E-09</v>
+        <v>1.400994926481892E-09</v>
       </c>
       <c r="S2">
-        <v>1.686291663183075E-10</v>
+        <v>1.686401868794865E-10</v>
       </c>
       <c r="T2">
-        <v>1.422976457147646E-09</v>
+        <v>1.422975740073512E-09</v>
       </c>
       <c r="U2">
-        <v>-2.225664220843995E-09</v>
+        <v>-2.225696416721643E-09</v>
       </c>
       <c r="V2">
-        <v>2.937193531378306E-09</v>
+        <v>2.937198798389627E-09</v>
       </c>
       <c r="W2">
-        <v>-1.422979959427625E-09</v>
+        <v>-1.422969244334618E-09</v>
       </c>
       <c r="X2">
-        <v>2.225661764558413E-09</v>
+        <v>2.225709159382718E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.937193288074692E-09</v>
+        <v>-2.93719520238662E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7125,25 +7125,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.618586631852206</v>
+        <v>0.6185866318522067</v>
       </c>
       <c r="AH2">
-        <v>0.9439982598637759</v>
+        <v>0.9439982598637765</v>
       </c>
       <c r="AI2">
         <v>1.056026550193052</v>
       </c>
       <c r="AJ2">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618197</v>
       </c>
       <c r="AK2">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799977</v>
       </c>
       <c r="AL2">
         <v>1.056026550181367</v>
       </c>
       <c r="AM2">
-        <v>-10.95931300975982</v>
+        <v>-10.95931300975975</v>
       </c>
       <c r="AN2">
         <v>-108.7637340183826</v>
@@ -7152,7 +7152,7 @@
         <v>106.7108886474994</v>
       </c>
       <c r="AP2">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684883</v>
       </c>
       <c r="AQ2">
         <v>-108.7637340185421</v>
@@ -7202,40 +7202,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046411355964419E-09</v>
+        <v>1.046407575012745E-09</v>
       </c>
       <c r="O3">
-        <v>4.669997386054615E-10</v>
+        <v>4.670015163037474E-10</v>
       </c>
       <c r="P3">
-        <v>5.620972387847775E-11</v>
+        <v>5.62193060521926E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046413374265002E-09</v>
+        <v>-1.046401472221732E-09</v>
       </c>
       <c r="R3">
-        <v>-4.67005730032552E-10</v>
+        <v>-4.670057908906873E-10</v>
       </c>
       <c r="S3">
-        <v>-5.620109885736391E-11</v>
+        <v>-5.621211941854313E-11</v>
       </c>
       <c r="T3">
-        <v>-4.743313944169963E-10</v>
+        <v>-4.743239468032779E-10</v>
       </c>
       <c r="U3">
-        <v>7.418852509511207E-10</v>
+        <v>7.41887008363362E-10</v>
       </c>
       <c r="V3">
-        <v>-9.790731336929091E-10</v>
+        <v>-9.7907025691798E-10</v>
       </c>
       <c r="W3">
-        <v>4.743325314274757E-10</v>
+        <v>4.743361959699167E-10</v>
       </c>
       <c r="X3">
-        <v>-7.418820348615546E-10</v>
+        <v>-7.418926401931335E-10</v>
       </c>
       <c r="Y3">
-        <v>9.790705001910644E-10</v>
+        <v>9.79072414502993E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7256,25 +7256,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650238</v>
       </c>
       <c r="AH3">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854049</v>
       </c>
       <c r="AI3">
-        <v>1.056026550177472</v>
+        <v>1.056026550177471</v>
       </c>
       <c r="AJ3">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618197</v>
       </c>
       <c r="AK3">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799977</v>
       </c>
       <c r="AL3">
         <v>1.056026550181367</v>
       </c>
       <c r="AM3">
-        <v>-10.95931300587861</v>
+        <v>-10.95931300587852</v>
       </c>
       <c r="AN3">
         <v>-108.7637340185952</v>
@@ -7283,7 +7283,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP3">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684883</v>
       </c>
       <c r="AQ3">
         <v>-108.7637340185421</v>
@@ -7333,40 +7333,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046413584238996E-09</v>
+        <v>1.046414442699891E-09</v>
       </c>
       <c r="O4">
-        <v>4.670039726236747E-10</v>
+        <v>4.669988018171789E-10</v>
       </c>
       <c r="P4">
-        <v>5.621930605219267E-11</v>
+        <v>5.622888822590763E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046415602539579E-09</v>
+        <v>-1.046409454046167E-09</v>
       </c>
       <c r="R4">
-        <v>-4.67005730032552E-10</v>
+        <v>-4.669987612417254E-10</v>
       </c>
       <c r="S4">
-        <v>-5.621068103107879E-11</v>
+        <v>-5.622170159225802E-11</v>
       </c>
       <c r="T4">
-        <v>-4.743198873172808E-10</v>
+        <v>-4.743193073907084E-10</v>
       </c>
       <c r="U4">
-        <v>7.418838125636564E-10</v>
+        <v>7.419068212111439E-10</v>
       </c>
       <c r="V4">
-        <v>-9.790702569179802E-10</v>
+        <v>-9.790673801430511E-10</v>
       </c>
       <c r="W4">
-        <v>4.7432102432776E-10</v>
+        <v>4.743258030074896E-10</v>
       </c>
       <c r="X4">
-        <v>-7.418820348615546E-10</v>
+        <v>-7.418997509862756E-10</v>
       </c>
       <c r="Y4">
-        <v>9.790676234161357E-10</v>
+        <v>9.790695377280639E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7387,34 +7387,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650238</v>
       </c>
       <c r="AH4">
-        <v>0.9439982598854041</v>
+        <v>0.943998259885405</v>
       </c>
       <c r="AI4">
         <v>1.056026550177472</v>
       </c>
       <c r="AJ4">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618197</v>
       </c>
       <c r="AK4">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799977</v>
       </c>
       <c r="AL4">
         <v>1.056026550181367</v>
       </c>
       <c r="AM4">
-        <v>-10.95931300587862</v>
+        <v>-10.95931300587852</v>
       </c>
       <c r="AN4">
         <v>-108.7637340185952</v>
       </c>
       <c r="AO4">
-        <v>106.7108886483352</v>
+        <v>106.7108886483353</v>
       </c>
       <c r="AP4">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684883</v>
       </c>
       <c r="AQ4">
         <v>-108.7637340185421</v>
@@ -7464,40 +7464,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.354062410371609E-15</v>
+        <v>-3.016042089977453E-15</v>
       </c>
       <c r="O5">
-        <v>-3.914993437194899E-15</v>
+        <v>6.38049552063318E-16</v>
       </c>
       <c r="P5">
-        <v>4.812315002236296E-16</v>
+        <v>-3.352699392948732E-15</v>
       </c>
       <c r="Q5">
-        <v>-4.778679730533062E-15</v>
+        <v>9.52012200329794E-16</v>
       </c>
       <c r="R5">
-        <v>-6.786216421479811E-16</v>
+        <v>-3.155227614877587E-15</v>
       </c>
       <c r="S5">
-        <v>3.352699392948732E-15</v>
+        <v>3.352699392948731E-15</v>
       </c>
       <c r="T5">
-        <v>-4.40871370044616E-15</v>
+        <v>-1.621250880451659E-16</v>
       </c>
       <c r="U5">
-        <v>-4.573329034300547E-15</v>
+        <v>-1.20234329975317E-14</v>
       </c>
       <c r="V5">
-        <v>-1.030136744706079E-14</v>
+        <v>-6.229474321879393E-15</v>
       </c>
       <c r="W5">
-        <v>6.148493414003481E-15</v>
+        <v>8.769591947838622E-15</v>
       </c>
       <c r="X5">
-        <v>4.953211945459205E-15</v>
+        <v>4.613901124385219E-15</v>
       </c>
       <c r="Y5">
-        <v>6.229474321879395E-15</v>
+        <v>6.229474321879394E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -7518,25 +7518,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650238</v>
       </c>
       <c r="AH5">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854049</v>
       </c>
       <c r="AI5">
-        <v>1.056026550177472</v>
+        <v>1.056026550177471</v>
       </c>
       <c r="AJ5">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650238</v>
       </c>
       <c r="AK5">
-        <v>0.9439982598854041</v>
+        <v>0.943998259885405</v>
       </c>
       <c r="AL5">
         <v>1.056026550177472</v>
       </c>
       <c r="AM5">
-        <v>-10.95931300587861</v>
+        <v>-10.95931300587852</v>
       </c>
       <c r="AN5">
         <v>-108.7637340185952</v>
@@ -7545,13 +7545,13 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP5">
-        <v>-10.95931300587862</v>
+        <v>-10.95931300587852</v>
       </c>
       <c r="AQ5">
         <v>-108.7637340185952</v>
       </c>
       <c r="AR5">
-        <v>106.7108886483352</v>
+        <v>106.7108886483353</v>
       </c>
     </row>
   </sheetData>
@@ -8020,40 +8020,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.139219592425468E-09</v>
+        <v>-3.1392428623013E-09</v>
       </c>
       <c r="O2">
-        <v>-1.401002092550954E-09</v>
+        <v>-1.40099768151028E-09</v>
       </c>
       <c r="P2">
-        <v>-1.686109590965717E-10</v>
+        <v>-1.686282091320726E-10</v>
       </c>
       <c r="Q2">
-        <v>3.139210706545364E-09</v>
+        <v>3.13924785106265E-09</v>
       </c>
       <c r="R2">
-        <v>1.400998896781519E-09</v>
+        <v>1.400994926481892E-09</v>
       </c>
       <c r="S2">
-        <v>1.686291663183075E-10</v>
+        <v>1.686401868794865E-10</v>
       </c>
       <c r="T2">
-        <v>1.422976457147646E-09</v>
+        <v>1.422975740073512E-09</v>
       </c>
       <c r="U2">
-        <v>-2.225664220843995E-09</v>
+        <v>-2.225696416721643E-09</v>
       </c>
       <c r="V2">
-        <v>2.937193531378306E-09</v>
+        <v>2.937198798389627E-09</v>
       </c>
       <c r="W2">
-        <v>-1.422979959427625E-09</v>
+        <v>-1.422969244334618E-09</v>
       </c>
       <c r="X2">
-        <v>2.225661764558413E-09</v>
+        <v>2.225709159382718E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.937193288074692E-09</v>
+        <v>-2.93719520238662E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.618586631852206</v>
+        <v>0.6185866318522067</v>
       </c>
       <c r="AH2">
-        <v>0.9439982598637759</v>
+        <v>0.9439982598637765</v>
       </c>
       <c r="AI2">
         <v>1.056026550193052</v>
       </c>
       <c r="AJ2">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618197</v>
       </c>
       <c r="AK2">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799977</v>
       </c>
       <c r="AL2">
         <v>1.056026550181367</v>
       </c>
       <c r="AM2">
-        <v>-10.95931300975982</v>
+        <v>-10.95931300975975</v>
       </c>
       <c r="AN2">
         <v>-108.7637340183826</v>
@@ -8101,7 +8101,7 @@
         <v>106.7108886474994</v>
       </c>
       <c r="AP2">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684883</v>
       </c>
       <c r="AQ2">
         <v>-108.7637340185421</v>
@@ -8151,40 +8151,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046411355964419E-09</v>
+        <v>1.046407575012745E-09</v>
       </c>
       <c r="O3">
-        <v>4.669997386054615E-10</v>
+        <v>4.670015163037474E-10</v>
       </c>
       <c r="P3">
-        <v>5.620972387847775E-11</v>
+        <v>5.62193060521926E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046413374265002E-09</v>
+        <v>-1.046401472221732E-09</v>
       </c>
       <c r="R3">
-        <v>-4.67005730032552E-10</v>
+        <v>-4.670057908906873E-10</v>
       </c>
       <c r="S3">
-        <v>-5.620109885736391E-11</v>
+        <v>-5.621211941854313E-11</v>
       </c>
       <c r="T3">
-        <v>-4.743313944169963E-10</v>
+        <v>-4.743239468032779E-10</v>
       </c>
       <c r="U3">
-        <v>7.418852509511207E-10</v>
+        <v>7.41887008363362E-10</v>
       </c>
       <c r="V3">
-        <v>-9.790731336929091E-10</v>
+        <v>-9.7907025691798E-10</v>
       </c>
       <c r="W3">
-        <v>4.743325314274757E-10</v>
+        <v>4.743361959699167E-10</v>
       </c>
       <c r="X3">
-        <v>-7.418820348615546E-10</v>
+        <v>-7.418926401931335E-10</v>
       </c>
       <c r="Y3">
-        <v>9.790705001910644E-10</v>
+        <v>9.79072414502993E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8205,25 +8205,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650238</v>
       </c>
       <c r="AH3">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854049</v>
       </c>
       <c r="AI3">
-        <v>1.056026550177472</v>
+        <v>1.056026550177471</v>
       </c>
       <c r="AJ3">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618197</v>
       </c>
       <c r="AK3">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799977</v>
       </c>
       <c r="AL3">
         <v>1.056026550181367</v>
       </c>
       <c r="AM3">
-        <v>-10.95931300587861</v>
+        <v>-10.95931300587852</v>
       </c>
       <c r="AN3">
         <v>-108.7637340185952</v>
@@ -8232,7 +8232,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP3">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684883</v>
       </c>
       <c r="AQ3">
         <v>-108.7637340185421</v>
@@ -8282,40 +8282,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046413584238996E-09</v>
+        <v>1.046414442699891E-09</v>
       </c>
       <c r="O4">
-        <v>4.670039726236747E-10</v>
+        <v>4.669988018171789E-10</v>
       </c>
       <c r="P4">
-        <v>5.621930605219267E-11</v>
+        <v>5.622888822590763E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046415602539579E-09</v>
+        <v>-1.046409454046167E-09</v>
       </c>
       <c r="R4">
-        <v>-4.67005730032552E-10</v>
+        <v>-4.669987612417254E-10</v>
       </c>
       <c r="S4">
-        <v>-5.621068103107879E-11</v>
+        <v>-5.622170159225802E-11</v>
       </c>
       <c r="T4">
-        <v>-4.743198873172808E-10</v>
+        <v>-4.743193073907084E-10</v>
       </c>
       <c r="U4">
-        <v>7.418838125636564E-10</v>
+        <v>7.419068212111439E-10</v>
       </c>
       <c r="V4">
-        <v>-9.790702569179802E-10</v>
+        <v>-9.790673801430511E-10</v>
       </c>
       <c r="W4">
-        <v>4.7432102432776E-10</v>
+        <v>4.743258030074896E-10</v>
       </c>
       <c r="X4">
-        <v>-7.418820348615546E-10</v>
+        <v>-7.418997509862756E-10</v>
       </c>
       <c r="Y4">
-        <v>9.790676234161357E-10</v>
+        <v>9.790695377280639E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8336,34 +8336,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650238</v>
       </c>
       <c r="AH4">
-        <v>0.9439982598854041</v>
+        <v>0.943998259885405</v>
       </c>
       <c r="AI4">
         <v>1.056026550177472</v>
       </c>
       <c r="AJ4">
-        <v>0.6185866318618188</v>
+        <v>0.6185866318618197</v>
       </c>
       <c r="AK4">
-        <v>0.943998259879997</v>
+        <v>0.9439982598799977</v>
       </c>
       <c r="AL4">
         <v>1.056026550181367</v>
       </c>
       <c r="AM4">
-        <v>-10.95931300587862</v>
+        <v>-10.95931300587852</v>
       </c>
       <c r="AN4">
         <v>-108.7637340185952</v>
       </c>
       <c r="AO4">
-        <v>106.7108886483352</v>
+        <v>106.7108886483353</v>
       </c>
       <c r="AP4">
-        <v>-10.95931300684891</v>
+        <v>-10.95931300684883</v>
       </c>
       <c r="AQ4">
         <v>-108.7637340185421</v>
@@ -8413,40 +8413,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.354062410371609E-15</v>
+        <v>-3.016042089977453E-15</v>
       </c>
       <c r="O5">
-        <v>-3.914993437194899E-15</v>
+        <v>6.38049552063318E-16</v>
       </c>
       <c r="P5">
-        <v>4.812315002236296E-16</v>
+        <v>-3.352699392948732E-15</v>
       </c>
       <c r="Q5">
-        <v>-4.778679730533062E-15</v>
+        <v>9.52012200329794E-16</v>
       </c>
       <c r="R5">
-        <v>-6.786216421479811E-16</v>
+        <v>-3.155227614877587E-15</v>
       </c>
       <c r="S5">
-        <v>3.352699392948732E-15</v>
+        <v>3.352699392948731E-15</v>
       </c>
       <c r="T5">
-        <v>-4.40871370044616E-15</v>
+        <v>-1.621250880451659E-16</v>
       </c>
       <c r="U5">
-        <v>-4.573329034300547E-15</v>
+        <v>-1.20234329975317E-14</v>
       </c>
       <c r="V5">
-        <v>-1.030136744706079E-14</v>
+        <v>-6.229474321879393E-15</v>
       </c>
       <c r="W5">
-        <v>6.148493414003481E-15</v>
+        <v>8.769591947838622E-15</v>
       </c>
       <c r="X5">
-        <v>4.953211945459205E-15</v>
+        <v>4.613901124385219E-15</v>
       </c>
       <c r="Y5">
-        <v>6.229474321879395E-15</v>
+        <v>6.229474321879394E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -8467,25 +8467,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650238</v>
       </c>
       <c r="AH5">
-        <v>0.9439982598854041</v>
+        <v>0.9439982598854049</v>
       </c>
       <c r="AI5">
-        <v>1.056026550177472</v>
+        <v>1.056026550177471</v>
       </c>
       <c r="AJ5">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650238</v>
       </c>
       <c r="AK5">
-        <v>0.9439982598854041</v>
+        <v>0.943998259885405</v>
       </c>
       <c r="AL5">
         <v>1.056026550177472</v>
       </c>
       <c r="AM5">
-        <v>-10.95931300587861</v>
+        <v>-10.95931300587852</v>
       </c>
       <c r="AN5">
         <v>-108.7637340185952</v>
@@ -8494,13 +8494,13 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP5">
-        <v>-10.95931300587862</v>
+        <v>-10.95931300587852</v>
       </c>
       <c r="AQ5">
         <v>-108.7637340185952</v>
       </c>
       <c r="AR5">
-        <v>106.7108886483352</v>
+        <v>106.7108886483353</v>
       </c>
     </row>
   </sheetData>
@@ -8691,40 +8691,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.436079110586352E-09</v>
+        <v>-2.436089299100782E-09</v>
       </c>
       <c r="O2">
-        <v>-6.079657777500475E-10</v>
+        <v>-6.079406456674021E-10</v>
       </c>
       <c r="P2">
-        <v>-6.101204553926416E-10</v>
+        <v>-6.101022988222368E-10</v>
       </c>
       <c r="Q2">
-        <v>2.436080679235042E-09</v>
+        <v>2.436088123323776E-09</v>
       </c>
       <c r="R2">
-        <v>6.079719321320142E-10</v>
+        <v>6.079447486225027E-10</v>
       </c>
       <c r="S2">
-        <v>6.101150869350427E-10</v>
+        <v>6.100981971365399E-10</v>
       </c>
       <c r="T2">
-        <v>-2.477156175009268E-12</v>
+        <v>-2.484612263912656E-12</v>
       </c>
       <c r="U2">
-        <v>-3.186851092631166E-09</v>
+        <v>-3.186892043830565E-09</v>
       </c>
       <c r="V2">
-        <v>3.185593754630543E-09</v>
+        <v>3.185609980599848E-09</v>
       </c>
       <c r="W2">
-        <v>2.477157481281443E-12</v>
+        <v>2.484611703491217E-12</v>
       </c>
       <c r="X2">
-        <v>3.186849916508622E-09</v>
+        <v>3.186891259768835E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.185599032540144E-09</v>
+        <v>-3.185610764661579E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8745,40 +8745,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3310660019364454</v>
+        <v>0.3310660019364471</v>
       </c>
       <c r="AH2">
-        <v>0.8818141464759023</v>
+        <v>0.8818141464759027</v>
       </c>
       <c r="AI2">
-        <v>0.8815929672376949</v>
+        <v>0.8815929672376942</v>
       </c>
       <c r="AJ2">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915793</v>
       </c>
       <c r="AK2">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970572</v>
       </c>
       <c r="AL2">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268867</v>
       </c>
       <c r="AM2">
-        <v>0.03897125581011066</v>
+        <v>0.03897125581016293</v>
       </c>
       <c r="AN2">
-        <v>-100.8196771664425</v>
+        <v>-100.8196771664424</v>
       </c>
       <c r="AO2">
-        <v>100.8224244169424</v>
+        <v>100.8224244169423</v>
       </c>
       <c r="AP2">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143550293</v>
       </c>
       <c r="AQ2">
         <v>-100.8196771680026</v>
       </c>
       <c r="AR2">
-        <v>100.8224244188999</v>
+        <v>100.8224244188998</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8822,40 +8822,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.120310797277046E-10</v>
+        <v>8.120302932060433E-10</v>
       </c>
       <c r="O3">
-        <v>2.026654161167396E-10</v>
+        <v>2.026461373766941E-10</v>
       </c>
       <c r="P3">
-        <v>2.033717961467276E-10</v>
+        <v>2.033725802683544E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.120295103727167E-10</v>
+        <v>-8.12031469343437E-10</v>
       </c>
       <c r="R3">
-        <v>-2.026666834107198E-10</v>
+        <v>-2.026502402191705E-10</v>
       </c>
       <c r="S3">
-        <v>-2.033771646944225E-10</v>
+        <v>-2.033766820441482E-10</v>
       </c>
       <c r="T3">
-        <v>8.18926310762044E-13</v>
+        <v>8.224543247469739E-13</v>
       </c>
       <c r="U3">
-        <v>1.062277503725596E-09</v>
+        <v>1.062304578120522E-09</v>
       </c>
       <c r="V3">
-        <v>-1.061870576647387E-09</v>
+        <v>-1.061874678434443E-09</v>
       </c>
       <c r="W3">
-        <v>-8.20493460712904E-13</v>
+        <v>-8.224550981366287E-13</v>
       </c>
       <c r="X3">
-        <v>-1.062273008804388E-09</v>
+        <v>-1.062303793992239E-09</v>
       </c>
       <c r="Y3">
-        <v>1.061865298684544E-09</v>
+        <v>1.06187389431947E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8876,40 +8876,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099565</v>
       </c>
       <c r="AH3">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041084</v>
       </c>
       <c r="AI3">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232846</v>
       </c>
       <c r="AJ3">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915793</v>
       </c>
       <c r="AK3">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970572</v>
       </c>
       <c r="AL3">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268867</v>
       </c>
       <c r="AM3">
-        <v>0.03897126331067127</v>
+        <v>0.03897126331073052</v>
       </c>
       <c r="AN3">
         <v>-100.8196771685226</v>
       </c>
       <c r="AO3">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
       <c r="AP3">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143550293</v>
       </c>
       <c r="AQ3">
         <v>-100.8196771680026</v>
       </c>
       <c r="AR3">
-        <v>100.8224244188999</v>
+        <v>100.8224244188998</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -8953,40 +8953,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.120279421745101E-10</v>
+        <v>8.120334264925063E-10</v>
       </c>
       <c r="O4">
-        <v>2.026605291413727E-10</v>
+        <v>2.026507234140468E-10</v>
       </c>
       <c r="P4">
-        <v>2.033758979337838E-10</v>
+        <v>2.033774661770385E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.120295082393508E-10</v>
+        <v>-8.12037739116411E-10</v>
       </c>
       <c r="R4">
-        <v>-2.026576935816139E-10</v>
+        <v>-2.026474046706731E-10</v>
       </c>
       <c r="S4">
-        <v>-2.033771646944225E-10</v>
+        <v>-2.0338235207446E-10</v>
       </c>
       <c r="T4">
-        <v>8.20492420651829E-13</v>
+        <v>8.271611878796982E-13</v>
       </c>
       <c r="U4">
-        <v>1.062274184993485E-09</v>
+        <v>1.062295196230602E-09</v>
       </c>
       <c r="V4">
-        <v>-1.061869792525759E-09</v>
+        <v>-1.061877996099871E-09</v>
       </c>
       <c r="W4">
-        <v>-8.236299472243344E-13</v>
+        <v>-8.271640946353107E-13</v>
       </c>
       <c r="X4">
-        <v>-1.062270474193905E-09</v>
+        <v>-1.062300083199314E-09</v>
       </c>
       <c r="Y4">
-        <v>1.061865298684544E-09</v>
+        <v>1.061881313771954E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9007,40 +9007,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099566</v>
       </c>
       <c r="AH4">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041085</v>
       </c>
       <c r="AI4">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232845</v>
       </c>
       <c r="AJ4">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915793</v>
       </c>
       <c r="AK4">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970572</v>
       </c>
       <c r="AL4">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268867</v>
       </c>
       <c r="AM4">
-        <v>0.03897126331066095</v>
+        <v>0.03897126331069145</v>
       </c>
       <c r="AN4">
         <v>-100.8196771685226</v>
       </c>
       <c r="AO4">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
       <c r="AP4">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143550293</v>
       </c>
       <c r="AQ4">
         <v>-100.8196771680026</v>
       </c>
       <c r="AR4">
-        <v>100.8224244188999</v>
+        <v>100.8224244188998</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -9084,40 +9084,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.925941554182964E-16</v>
+        <v>-3.527747313353372E-15</v>
       </c>
       <c r="O5">
-        <v>3.031578904411784E-15</v>
+        <v>-2.926671297219177E-15</v>
       </c>
       <c r="P5">
-        <v>-2.050893528067668E-15</v>
+        <v>-1.266771900166492E-15</v>
       </c>
       <c r="Q5">
-        <v>-2.350764859300087E-15</v>
+        <v>1.567709914334474E-15</v>
       </c>
       <c r="R5">
-        <v>-4.494914553021373E-15</v>
+        <v>-1.176182441851649E-15</v>
       </c>
       <c r="S5">
-        <v>-2.050893528067668E-15</v>
+        <v>1.266771900166492E-15</v>
       </c>
       <c r="T5">
-        <v>-7.838549571672339E-16</v>
+        <v>-1.178582478456513E-15</v>
       </c>
       <c r="U5">
-        <v>4.736506359887981E-15</v>
+        <v>6.93840223650734E-15</v>
       </c>
       <c r="V5">
-        <v>-3.920608139505895E-16</v>
+        <v>-4.493847870085923E-15</v>
       </c>
       <c r="W5">
-        <v>-2.353964908106548E-15</v>
+        <v>7.851883108365965E-16</v>
       </c>
       <c r="X5">
-        <v>-1.267305241634314E-15</v>
+        <v>-6.15428060860624E-15</v>
       </c>
       <c r="Y5">
-        <v>-3.920608139505897E-16</v>
+        <v>4.493847870085921E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -9138,40 +9138,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099565</v>
       </c>
       <c r="AH5">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041084</v>
       </c>
       <c r="AI5">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232846</v>
       </c>
       <c r="AJ5">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099566</v>
       </c>
       <c r="AK5">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041085</v>
       </c>
       <c r="AL5">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232845</v>
       </c>
       <c r="AM5">
-        <v>0.03897126331067127</v>
+        <v>0.03897126331073052</v>
       </c>
       <c r="AN5">
         <v>-100.8196771685226</v>
       </c>
       <c r="AO5">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
       <c r="AP5">
-        <v>0.03897126331066095</v>
+        <v>0.03897126331069145</v>
       </c>
       <c r="AQ5">
         <v>-100.8196771685226</v>
       </c>
       <c r="AR5">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
     </row>
   </sheetData>
@@ -9362,40 +9362,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.436079110586352E-09</v>
+        <v>-2.436089299100782E-09</v>
       </c>
       <c r="O2">
-        <v>-6.079657777500475E-10</v>
+        <v>-6.079406456674021E-10</v>
       </c>
       <c r="P2">
-        <v>-6.101204553926416E-10</v>
+        <v>-6.101022988222368E-10</v>
       </c>
       <c r="Q2">
-        <v>2.436080679235042E-09</v>
+        <v>2.436088123323776E-09</v>
       </c>
       <c r="R2">
-        <v>6.079719321320142E-10</v>
+        <v>6.079447486225027E-10</v>
       </c>
       <c r="S2">
-        <v>6.101150869350427E-10</v>
+        <v>6.100981971365399E-10</v>
       </c>
       <c r="T2">
-        <v>-2.477156175009268E-12</v>
+        <v>-2.484612263912656E-12</v>
       </c>
       <c r="U2">
-        <v>-3.186851092631166E-09</v>
+        <v>-3.186892043830565E-09</v>
       </c>
       <c r="V2">
-        <v>3.185593754630543E-09</v>
+        <v>3.185609980599848E-09</v>
       </c>
       <c r="W2">
-        <v>2.477157481281443E-12</v>
+        <v>2.484611703491217E-12</v>
       </c>
       <c r="X2">
-        <v>3.186849916508622E-09</v>
+        <v>3.186891259768835E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.185599032540144E-09</v>
+        <v>-3.185610764661579E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9416,40 +9416,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3310660019364454</v>
+        <v>0.3310660019364471</v>
       </c>
       <c r="AH2">
-        <v>0.8818141464759023</v>
+        <v>0.8818141464759027</v>
       </c>
       <c r="AI2">
-        <v>0.8815929672376949</v>
+        <v>0.8815929672376942</v>
       </c>
       <c r="AJ2">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915793</v>
       </c>
       <c r="AK2">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970572</v>
       </c>
       <c r="AL2">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268867</v>
       </c>
       <c r="AM2">
-        <v>0.03897125581011066</v>
+        <v>0.03897125581016293</v>
       </c>
       <c r="AN2">
-        <v>-100.8196771664425</v>
+        <v>-100.8196771664424</v>
       </c>
       <c r="AO2">
-        <v>100.8224244169424</v>
+        <v>100.8224244169423</v>
       </c>
       <c r="AP2">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143550293</v>
       </c>
       <c r="AQ2">
         <v>-100.8196771680026</v>
       </c>
       <c r="AR2">
-        <v>100.8224244188999</v>
+        <v>100.8224244188998</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9493,40 +9493,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.120310797277046E-10</v>
+        <v>8.120302932060433E-10</v>
       </c>
       <c r="O3">
-        <v>2.026654161167396E-10</v>
+        <v>2.026461373766941E-10</v>
       </c>
       <c r="P3">
-        <v>2.033717961467276E-10</v>
+        <v>2.033725802683544E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.120295103727167E-10</v>
+        <v>-8.12031469343437E-10</v>
       </c>
       <c r="R3">
-        <v>-2.026666834107198E-10</v>
+        <v>-2.026502402191705E-10</v>
       </c>
       <c r="S3">
-        <v>-2.033771646944225E-10</v>
+        <v>-2.033766820441482E-10</v>
       </c>
       <c r="T3">
-        <v>8.18926310762044E-13</v>
+        <v>8.224543247469739E-13</v>
       </c>
       <c r="U3">
-        <v>1.062277503725596E-09</v>
+        <v>1.062304578120522E-09</v>
       </c>
       <c r="V3">
-        <v>-1.061870576647387E-09</v>
+        <v>-1.061874678434443E-09</v>
       </c>
       <c r="W3">
-        <v>-8.20493460712904E-13</v>
+        <v>-8.224550981366287E-13</v>
       </c>
       <c r="X3">
-        <v>-1.062273008804388E-09</v>
+        <v>-1.062303793992239E-09</v>
       </c>
       <c r="Y3">
-        <v>1.061865298684544E-09</v>
+        <v>1.06187389431947E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9547,40 +9547,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099565</v>
       </c>
       <c r="AH3">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041084</v>
       </c>
       <c r="AI3">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232846</v>
       </c>
       <c r="AJ3">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915793</v>
       </c>
       <c r="AK3">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970572</v>
       </c>
       <c r="AL3">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268867</v>
       </c>
       <c r="AM3">
-        <v>0.03897126331067127</v>
+        <v>0.03897126331073052</v>
       </c>
       <c r="AN3">
         <v>-100.8196771685226</v>
       </c>
       <c r="AO3">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
       <c r="AP3">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143550293</v>
       </c>
       <c r="AQ3">
         <v>-100.8196771680026</v>
       </c>
       <c r="AR3">
-        <v>100.8224244188999</v>
+        <v>100.8224244188998</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9624,40 +9624,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.120279421745101E-10</v>
+        <v>8.120334264925063E-10</v>
       </c>
       <c r="O4">
-        <v>2.026605291413727E-10</v>
+        <v>2.026507234140468E-10</v>
       </c>
       <c r="P4">
-        <v>2.033758979337838E-10</v>
+        <v>2.033774661770385E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.120295082393508E-10</v>
+        <v>-8.12037739116411E-10</v>
       </c>
       <c r="R4">
-        <v>-2.026576935816139E-10</v>
+        <v>-2.026474046706731E-10</v>
       </c>
       <c r="S4">
-        <v>-2.033771646944225E-10</v>
+        <v>-2.0338235207446E-10</v>
       </c>
       <c r="T4">
-        <v>8.20492420651829E-13</v>
+        <v>8.271611878796982E-13</v>
       </c>
       <c r="U4">
-        <v>1.062274184993485E-09</v>
+        <v>1.062295196230602E-09</v>
       </c>
       <c r="V4">
-        <v>-1.061869792525759E-09</v>
+        <v>-1.061877996099871E-09</v>
       </c>
       <c r="W4">
-        <v>-8.236299472243344E-13</v>
+        <v>-8.271640946353107E-13</v>
       </c>
       <c r="X4">
-        <v>-1.062270474193905E-09</v>
+        <v>-1.062300083199314E-09</v>
       </c>
       <c r="Y4">
-        <v>1.061865298684544E-09</v>
+        <v>1.061881313771954E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9678,40 +9678,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099566</v>
       </c>
       <c r="AH4">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041085</v>
       </c>
       <c r="AI4">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232845</v>
       </c>
       <c r="AJ4">
-        <v>0.3310660019915775</v>
+        <v>0.3310660019915793</v>
       </c>
       <c r="AK4">
-        <v>0.8818141464970566</v>
+        <v>0.8818141464970572</v>
       </c>
       <c r="AL4">
-        <v>0.8815929672268876</v>
+        <v>0.8815929672268867</v>
       </c>
       <c r="AM4">
-        <v>0.03897126331066095</v>
+        <v>0.03897126331069145</v>
       </c>
       <c r="AN4">
         <v>-100.8196771685226</v>
       </c>
       <c r="AO4">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
       <c r="AP4">
-        <v>0.03897126143546968</v>
+        <v>0.03897126143550293</v>
       </c>
       <c r="AQ4">
         <v>-100.8196771680026</v>
       </c>
       <c r="AR4">
-        <v>100.8224244188999</v>
+        <v>100.8224244188998</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -9755,40 +9755,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.925941554182964E-16</v>
+        <v>-3.527747313353372E-15</v>
       </c>
       <c r="O5">
-        <v>3.031578904411784E-15</v>
+        <v>-2.926671297219177E-15</v>
       </c>
       <c r="P5">
-        <v>-2.050893528067668E-15</v>
+        <v>-1.266771900166492E-15</v>
       </c>
       <c r="Q5">
-        <v>-2.350764859300087E-15</v>
+        <v>1.567709914334474E-15</v>
       </c>
       <c r="R5">
-        <v>-4.494914553021373E-15</v>
+        <v>-1.176182441851649E-15</v>
       </c>
       <c r="S5">
-        <v>-2.050893528067668E-15</v>
+        <v>1.266771900166492E-15</v>
       </c>
       <c r="T5">
-        <v>-7.838549571672339E-16</v>
+        <v>-1.178582478456513E-15</v>
       </c>
       <c r="U5">
-        <v>4.736506359887981E-15</v>
+        <v>6.93840223650734E-15</v>
       </c>
       <c r="V5">
-        <v>-3.920608139505895E-16</v>
+        <v>-4.493847870085923E-15</v>
       </c>
       <c r="W5">
-        <v>-2.353964908106548E-15</v>
+        <v>7.851883108365965E-16</v>
       </c>
       <c r="X5">
-        <v>-1.267305241634314E-15</v>
+        <v>-6.15428060860624E-15</v>
       </c>
       <c r="Y5">
-        <v>-3.920608139505897E-16</v>
+        <v>4.493847870085921E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -9809,40 +9809,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099565</v>
       </c>
       <c r="AH5">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041084</v>
       </c>
       <c r="AI5">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232846</v>
       </c>
       <c r="AJ5">
-        <v>0.3310660020099552</v>
+        <v>0.3310660020099566</v>
       </c>
       <c r="AK5">
-        <v>0.8818141465041077</v>
+        <v>0.8818141465041085</v>
       </c>
       <c r="AL5">
-        <v>0.8815929672232853</v>
+        <v>0.8815929672232845</v>
       </c>
       <c r="AM5">
-        <v>0.03897126331067127</v>
+        <v>0.03897126331073052</v>
       </c>
       <c r="AN5">
         <v>-100.8196771685226</v>
       </c>
       <c r="AO5">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
       <c r="AP5">
-        <v>0.03897126331066095</v>
+        <v>0.03897126331069145</v>
       </c>
       <c r="AQ5">
         <v>-100.8196771685226</v>
       </c>
       <c r="AR5">
-        <v>100.8224244195524</v>
+        <v>100.8224244195523</v>
       </c>
     </row>
   </sheetData>
@@ -10033,40 +10033,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624698165856549E-09</v>
+        <v>-2.624709952010108E-09</v>
       </c>
       <c r="O2">
-        <v>-1.142004805697549E-09</v>
+        <v>-1.14199404059083E-09</v>
       </c>
       <c r="P2">
-        <v>-1.703726607036822E-10</v>
+        <v>-1.703678601904734E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624701217478476E-09</v>
+        <v>2.624708210354038E-09</v>
       </c>
       <c r="R2">
-        <v>1.14200642144373E-09</v>
+        <v>1.141996579220861E-09</v>
       </c>
       <c r="S2">
-        <v>1.703704888078097E-10</v>
+        <v>1.70366774268581E-10</v>
       </c>
       <c r="T2">
-        <v>1.121951942779899E-09</v>
+        <v>1.121948331961603E-09</v>
       </c>
       <c r="U2">
-        <v>-1.951304766741755E-09</v>
+        <v>-1.951330699862576E-09</v>
       </c>
       <c r="V2">
-        <v>2.512283310569796E-09</v>
+        <v>2.512287055909477E-09</v>
       </c>
       <c r="W2">
-        <v>-1.121956443523471E-09</v>
+        <v>-1.121950607689721E-09</v>
       </c>
       <c r="X2">
-        <v>1.951303172229626E-09</v>
+        <v>1.951335211146111E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.512283939895705E-09</v>
+        <v>-2.512287370557042E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10087,34 +10087,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5411436570099359</v>
+        <v>0.5411436570099369</v>
       </c>
       <c r="AH2">
-        <v>0.8572501491769243</v>
+        <v>0.8572501491769245</v>
       </c>
       <c r="AI2">
-        <v>0.9547462544936434</v>
+        <v>0.9547462544936433</v>
       </c>
       <c r="AJ2">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370816</v>
       </c>
       <c r="AK2">
-        <v>0.857250149196972</v>
+        <v>0.8572501491969724</v>
       </c>
       <c r="AL2">
-        <v>0.9547462544833357</v>
+        <v>0.9547462544833355</v>
       </c>
       <c r="AM2">
-        <v>-10.86424712076562</v>
+        <v>-10.86424712076559</v>
       </c>
       <c r="AN2">
         <v>-108.0574514187701</v>
       </c>
       <c r="AO2">
-        <v>106.1597915285525</v>
+        <v>106.1597915285524</v>
       </c>
       <c r="AP2">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684942</v>
       </c>
       <c r="AQ2">
         <v>-108.0574514195153</v>
@@ -10164,40 +10164,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.748985368250718E-10</v>
+        <v>8.748985114071795E-10</v>
       </c>
       <c r="O3">
-        <v>3.806727595537138E-10</v>
+        <v>3.806670716028839E-10</v>
       </c>
       <c r="P3">
-        <v>5.679088692437632E-11</v>
+        <v>5.678374172381227E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.748950022373036E-10</v>
+        <v>-8.748997700974091E-10</v>
       </c>
       <c r="R3">
-        <v>-3.806724025672109E-10</v>
+        <v>-3.806645330191531E-10</v>
       </c>
       <c r="S3">
-        <v>-5.679648952788408E-11</v>
+        <v>-5.678591366598305E-11</v>
       </c>
       <c r="T3">
-        <v>-3.739929529159103E-10</v>
+        <v>-3.739896853447041E-10</v>
       </c>
       <c r="U3">
-        <v>6.50419221006232E-10</v>
+        <v>6.504541766325616E-10</v>
       </c>
       <c r="V3">
-        <v>-8.374277701762521E-10</v>
+        <v>-8.374274862983623E-10</v>
       </c>
       <c r="W3">
-        <v>3.739909694896566E-10</v>
+        <v>3.739899269339032E-10</v>
       </c>
       <c r="X3">
-        <v>-6.504246762906006E-10</v>
+        <v>-6.504496653763873E-10</v>
       </c>
       <c r="Y3">
-        <v>8.374308553622091E-10</v>
+        <v>8.374268569450926E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10218,34 +10218,34 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461295</v>
       </c>
       <c r="AH3">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036547</v>
       </c>
       <c r="AI3">
-        <v>0.9547462544799001</v>
+        <v>0.9547462544798999</v>
       </c>
       <c r="AJ3">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370816</v>
       </c>
       <c r="AK3">
-        <v>0.857250149196972</v>
+        <v>0.8572501491969724</v>
       </c>
       <c r="AL3">
-        <v>0.9547462544833357</v>
+        <v>0.9547462544833355</v>
       </c>
       <c r="AM3">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554398</v>
       </c>
       <c r="AN3">
         <v>-108.0574514197637</v>
       </c>
       <c r="AO3">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP3">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684942</v>
       </c>
       <c r="AQ3">
         <v>-108.0574514195153</v>
@@ -10295,40 +10295,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.748990199761086E-10</v>
+        <v>8.74904512562769E-10</v>
       </c>
       <c r="O4">
-        <v>3.806688988088347E-10</v>
+        <v>3.806671562076263E-10</v>
       </c>
       <c r="P4">
-        <v>5.679088692437632E-11</v>
+        <v>5.678808561972828E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749005202418561E-10</v>
+        <v>-8.749004948239644E-10</v>
       </c>
       <c r="R4">
-        <v>-3.806685418223318E-10</v>
+        <v>-3.806671350506533E-10</v>
       </c>
       <c r="S4">
-        <v>-5.679648952788408E-11</v>
+        <v>-5.679025756189906E-11</v>
       </c>
       <c r="T4">
-        <v>-3.739904354891527E-10</v>
+        <v>-3.739856167932625E-10</v>
       </c>
       <c r="U4">
-        <v>6.504204797196109E-10</v>
+        <v>6.504413356845451E-10</v>
       </c>
       <c r="V4">
-        <v>-8.374277701762521E-10</v>
+        <v>-8.374262275849833E-10</v>
       </c>
       <c r="W4">
-        <v>3.739894183649726E-10</v>
+        <v>3.739861507937666E-10</v>
       </c>
       <c r="X4">
-        <v>-6.504259350039794E-10</v>
+        <v>-6.504445459181292E-10</v>
       </c>
       <c r="Y4">
-        <v>8.374308553622091E-10</v>
+        <v>8.374255982317138E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10349,22 +10349,22 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461297</v>
       </c>
       <c r="AH4">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036548</v>
       </c>
       <c r="AI4">
-        <v>0.9547462544799001</v>
+        <v>0.9547462544798998</v>
       </c>
       <c r="AJ4">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370816</v>
       </c>
       <c r="AK4">
-        <v>0.857250149196972</v>
+        <v>0.8572501491969724</v>
       </c>
       <c r="AL4">
-        <v>0.9547462544833357</v>
+        <v>0.9547462544833355</v>
       </c>
       <c r="AM4">
         <v>-10.864247115544</v>
@@ -10373,10 +10373,10 @@
         <v>-108.0574514197637</v>
       </c>
       <c r="AO4">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP4">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684942</v>
       </c>
       <c r="AQ4">
         <v>-108.0574514195153</v>
@@ -10426,40 +10426,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.371221105142404E-15</v>
+        <v>-2.008857827535983E-15</v>
       </c>
       <c r="O5">
-        <v>2.287353155564767E-15</v>
+        <v>1.216411007634928E-15</v>
       </c>
       <c r="P5">
-        <v>2.801304647437079E-15</v>
+        <v>-3.085182537095626E-15</v>
       </c>
       <c r="Q5">
-        <v>4.224315187309081E-15</v>
+        <v>1.198319499288158E-15</v>
       </c>
       <c r="R5">
-        <v>-1.762457674413422E-15</v>
+        <v>2.937861030636537E-15</v>
       </c>
       <c r="S5">
-        <v>-7.947296652759649E-15</v>
+        <v>-6.293566894446323E-16</v>
       </c>
       <c r="T5">
-        <v>2.15506348017203E-15</v>
+        <v>-2.669934118381915E-16</v>
       </c>
       <c r="U5">
-        <v>-6.084644477859612E-15</v>
+        <v>1.028121888738539E-14</v>
       </c>
       <c r="V5">
-        <v>-1.542591268547811E-15</v>
+        <v>-5.602609294874154E-15</v>
       </c>
       <c r="W5">
-        <v>-1.789549348581906E-15</v>
+        <v>-5.562538631265891E-16</v>
       </c>
       <c r="X5">
-        <v>-4.931687027106146E-16</v>
+        <v>-7.364509042376002E-15</v>
       </c>
       <c r="Y5">
-        <v>7.114400108358195E-15</v>
+        <v>2.171947957992445E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -10480,31 +10480,31 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461295</v>
       </c>
       <c r="AH5">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036547</v>
       </c>
       <c r="AI5">
-        <v>0.9547462544799001</v>
+        <v>0.9547462544798999</v>
       </c>
       <c r="AJ5">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461297</v>
       </c>
       <c r="AK5">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036548</v>
       </c>
       <c r="AL5">
-        <v>0.9547462544799001</v>
+        <v>0.9547462544798998</v>
       </c>
       <c r="AM5">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554398</v>
       </c>
       <c r="AN5">
         <v>-108.0574514197637</v>
       </c>
       <c r="AO5">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP5">
         <v>-10.864247115544</v>
@@ -10513,7 +10513,7 @@
         <v>-108.0574514197637</v>
       </c>
       <c r="AR5">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
     </row>
   </sheetData>
@@ -10704,40 +10704,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624698165856549E-09</v>
+        <v>-2.624709952010108E-09</v>
       </c>
       <c r="O2">
-        <v>-1.142004805697549E-09</v>
+        <v>-1.14199404059083E-09</v>
       </c>
       <c r="P2">
-        <v>-1.703726607036822E-10</v>
+        <v>-1.703678601904734E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624701217478476E-09</v>
+        <v>2.624708210354038E-09</v>
       </c>
       <c r="R2">
-        <v>1.14200642144373E-09</v>
+        <v>1.141996579220861E-09</v>
       </c>
       <c r="S2">
-        <v>1.703704888078097E-10</v>
+        <v>1.70366774268581E-10</v>
       </c>
       <c r="T2">
-        <v>1.121951942779899E-09</v>
+        <v>1.121948331961603E-09</v>
       </c>
       <c r="U2">
-        <v>-1.951304766741755E-09</v>
+        <v>-1.951330699862576E-09</v>
       </c>
       <c r="V2">
-        <v>2.512283310569796E-09</v>
+        <v>2.512287055909477E-09</v>
       </c>
       <c r="W2">
-        <v>-1.121956443523471E-09</v>
+        <v>-1.121950607689721E-09</v>
       </c>
       <c r="X2">
-        <v>1.951303172229626E-09</v>
+        <v>1.951335211146111E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.512283939895705E-09</v>
+        <v>-2.512287370557042E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10758,34 +10758,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5411436570099359</v>
+        <v>0.5411436570099369</v>
       </c>
       <c r="AH2">
-        <v>0.8572501491769243</v>
+        <v>0.8572501491769245</v>
       </c>
       <c r="AI2">
-        <v>0.9547462544936434</v>
+        <v>0.9547462544936433</v>
       </c>
       <c r="AJ2">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370816</v>
       </c>
       <c r="AK2">
-        <v>0.857250149196972</v>
+        <v>0.8572501491969724</v>
       </c>
       <c r="AL2">
-        <v>0.9547462544833357</v>
+        <v>0.9547462544833355</v>
       </c>
       <c r="AM2">
-        <v>-10.86424712076562</v>
+        <v>-10.86424712076559</v>
       </c>
       <c r="AN2">
         <v>-108.0574514187701</v>
       </c>
       <c r="AO2">
-        <v>106.1597915285525</v>
+        <v>106.1597915285524</v>
       </c>
       <c r="AP2">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684942</v>
       </c>
       <c r="AQ2">
         <v>-108.0574514195153</v>
@@ -10835,40 +10835,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.748985368250718E-10</v>
+        <v>8.748985114071795E-10</v>
       </c>
       <c r="O3">
-        <v>3.806727595537138E-10</v>
+        <v>3.806670716028839E-10</v>
       </c>
       <c r="P3">
-        <v>5.679088692437632E-11</v>
+        <v>5.678374172381227E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.748950022373036E-10</v>
+        <v>-8.748997700974091E-10</v>
       </c>
       <c r="R3">
-        <v>-3.806724025672109E-10</v>
+        <v>-3.806645330191531E-10</v>
       </c>
       <c r="S3">
-        <v>-5.679648952788408E-11</v>
+        <v>-5.678591366598305E-11</v>
       </c>
       <c r="T3">
-        <v>-3.739929529159103E-10</v>
+        <v>-3.739896853447041E-10</v>
       </c>
       <c r="U3">
-        <v>6.50419221006232E-10</v>
+        <v>6.504541766325616E-10</v>
       </c>
       <c r="V3">
-        <v>-8.374277701762521E-10</v>
+        <v>-8.374274862983623E-10</v>
       </c>
       <c r="W3">
-        <v>3.739909694896566E-10</v>
+        <v>3.739899269339032E-10</v>
       </c>
       <c r="X3">
-        <v>-6.504246762906006E-10</v>
+        <v>-6.504496653763873E-10</v>
       </c>
       <c r="Y3">
-        <v>8.374308553622091E-10</v>
+        <v>8.374268569450926E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10889,34 +10889,34 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461295</v>
       </c>
       <c r="AH3">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036547</v>
       </c>
       <c r="AI3">
-        <v>0.9547462544799001</v>
+        <v>0.9547462544798999</v>
       </c>
       <c r="AJ3">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370816</v>
       </c>
       <c r="AK3">
-        <v>0.857250149196972</v>
+        <v>0.8572501491969724</v>
       </c>
       <c r="AL3">
-        <v>0.9547462544833357</v>
+        <v>0.9547462544833355</v>
       </c>
       <c r="AM3">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554398</v>
       </c>
       <c r="AN3">
         <v>-108.0574514197637</v>
       </c>
       <c r="AO3">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP3">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684942</v>
       </c>
       <c r="AQ3">
         <v>-108.0574514195153</v>
@@ -10966,40 +10966,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.748990199761086E-10</v>
+        <v>8.74904512562769E-10</v>
       </c>
       <c r="O4">
-        <v>3.806688988088347E-10</v>
+        <v>3.806671562076263E-10</v>
       </c>
       <c r="P4">
-        <v>5.679088692437632E-11</v>
+        <v>5.678808561972828E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749005202418561E-10</v>
+        <v>-8.749004948239644E-10</v>
       </c>
       <c r="R4">
-        <v>-3.806685418223318E-10</v>
+        <v>-3.806671350506533E-10</v>
       </c>
       <c r="S4">
-        <v>-5.679648952788408E-11</v>
+        <v>-5.679025756189906E-11</v>
       </c>
       <c r="T4">
-        <v>-3.739904354891527E-10</v>
+        <v>-3.739856167932625E-10</v>
       </c>
       <c r="U4">
-        <v>6.504204797196109E-10</v>
+        <v>6.504413356845451E-10</v>
       </c>
       <c r="V4">
-        <v>-8.374277701762521E-10</v>
+        <v>-8.374262275849833E-10</v>
       </c>
       <c r="W4">
-        <v>3.739894183649726E-10</v>
+        <v>3.739861507937666E-10</v>
       </c>
       <c r="X4">
-        <v>-6.504259350039794E-10</v>
+        <v>-6.504445459181292E-10</v>
       </c>
       <c r="Y4">
-        <v>8.374308553622091E-10</v>
+        <v>8.374255982317138E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11020,22 +11020,22 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461297</v>
       </c>
       <c r="AH4">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036548</v>
       </c>
       <c r="AI4">
-        <v>0.9547462544799001</v>
+        <v>0.9547462544798998</v>
       </c>
       <c r="AJ4">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370816</v>
       </c>
       <c r="AK4">
-        <v>0.857250149196972</v>
+        <v>0.8572501491969724</v>
       </c>
       <c r="AL4">
-        <v>0.9547462544833357</v>
+        <v>0.9547462544833355</v>
       </c>
       <c r="AM4">
         <v>-10.864247115544</v>
@@ -11044,10 +11044,10 @@
         <v>-108.0574514197637</v>
       </c>
       <c r="AO4">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP4">
-        <v>-10.86424711684944</v>
+        <v>-10.86424711684942</v>
       </c>
       <c r="AQ4">
         <v>-108.0574514195153</v>
@@ -11097,40 +11097,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.371221105142404E-15</v>
+        <v>-2.008857827535983E-15</v>
       </c>
       <c r="O5">
-        <v>2.287353155564767E-15</v>
+        <v>1.216411007634928E-15</v>
       </c>
       <c r="P5">
-        <v>2.801304647437079E-15</v>
+        <v>-3.085182537095626E-15</v>
       </c>
       <c r="Q5">
-        <v>4.224315187309081E-15</v>
+        <v>1.198319499288158E-15</v>
       </c>
       <c r="R5">
-        <v>-1.762457674413422E-15</v>
+        <v>2.937861030636537E-15</v>
       </c>
       <c r="S5">
-        <v>-7.947296652759649E-15</v>
+        <v>-6.293566894446323E-16</v>
       </c>
       <c r="T5">
-        <v>2.15506348017203E-15</v>
+        <v>-2.669934118381915E-16</v>
       </c>
       <c r="U5">
-        <v>-6.084644477859612E-15</v>
+        <v>1.028121888738539E-14</v>
       </c>
       <c r="V5">
-        <v>-1.542591268547811E-15</v>
+        <v>-5.602609294874154E-15</v>
       </c>
       <c r="W5">
-        <v>-1.789549348581906E-15</v>
+        <v>-5.562538631265891E-16</v>
       </c>
       <c r="X5">
-        <v>-4.931687027106146E-16</v>
+        <v>-7.364509042376002E-15</v>
       </c>
       <c r="Y5">
-        <v>7.114400108358195E-15</v>
+        <v>2.171947957992445E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -11151,31 +11151,31 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461295</v>
       </c>
       <c r="AH5">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036547</v>
       </c>
       <c r="AI5">
-        <v>0.9547462544799001</v>
+        <v>0.9547462544798999</v>
       </c>
       <c r="AJ5">
-        <v>0.541143657046129</v>
+        <v>0.5411436570461297</v>
       </c>
       <c r="AK5">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036548</v>
       </c>
       <c r="AL5">
-        <v>0.9547462544799001</v>
+        <v>0.9547462544798998</v>
       </c>
       <c r="AM5">
-        <v>-10.864247115544</v>
+        <v>-10.86424711554398</v>
       </c>
       <c r="AN5">
         <v>-108.0574514197637</v>
       </c>
       <c r="AO5">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
       <c r="AP5">
         <v>-10.864247115544</v>
@@ -11184,7 +11184,7 @@
         <v>-108.0574514197637</v>
       </c>
       <c r="AR5">
-        <v>106.1597915301923</v>
+        <v>106.1597915301922</v>
       </c>
     </row>
   </sheetData>
@@ -11375,40 +11375,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.966594444817775E-09</v>
+        <v>-2.966649854911111E-09</v>
       </c>
       <c r="O2">
-        <v>-7.427858474330292E-10</v>
+        <v>-7.427858437905975E-10</v>
       </c>
       <c r="P2">
-        <v>-7.405165719961207E-10</v>
+        <v>-7.405442806852294E-10</v>
       </c>
       <c r="Q2">
-        <v>2.966587515107981E-09</v>
+        <v>2.966635998549392E-09</v>
       </c>
       <c r="R2">
-        <v>7.427858457958462E-10</v>
+        <v>7.427858442347998E-10</v>
       </c>
       <c r="S2">
-        <v>7.405096499513564E-10</v>
+        <v>7.405477402928253E-10</v>
       </c>
       <c r="T2">
-        <v>-2.65079955848289E-12</v>
+        <v>-2.66120618745577E-12</v>
       </c>
       <c r="U2">
-        <v>3.830056346635137E-09</v>
+        <v>3.830044224994266E-09</v>
       </c>
       <c r="V2">
-        <v>-3.831374825723406E-09</v>
+        <v>-3.831367907397016E-09</v>
       </c>
       <c r="W2">
-        <v>2.661187527839053E-12</v>
+        <v>2.67159207542933E-12</v>
       </c>
       <c r="X2">
-        <v>-3.830049419479215E-09</v>
+        <v>-3.830044224490268E-09</v>
       </c>
       <c r="Y2">
-        <v>3.83136097084238E-09</v>
+        <v>3.831381762245791E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11429,37 +11429,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.731129729105334</v>
+        <v>0.7311297291053348</v>
       </c>
       <c r="AH2">
-        <v>0.3655648643427205</v>
+        <v>0.3655648643427197</v>
       </c>
       <c r="AI2">
-        <v>0.3655648647626211</v>
+        <v>0.3655648647626212</v>
       </c>
       <c r="AJ2">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211758</v>
       </c>
       <c r="AK2">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042829</v>
       </c>
       <c r="AL2">
-        <v>0.3655648648168982</v>
+        <v>0.3655648648168986</v>
       </c>
       <c r="AM2">
-        <v>0.01721676665953011</v>
+        <v>0.01721676665966171</v>
       </c>
       <c r="AN2">
-        <v>-179.9827832337043</v>
+        <v>-179.9827832337044</v>
       </c>
       <c r="AO2">
-        <v>-179.9827832329747</v>
+        <v>-179.9827832329748</v>
       </c>
       <c r="AP2">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806559271</v>
       </c>
       <c r="AQ2">
-        <v>-179.9827832258909</v>
+        <v>-179.982783225891</v>
       </c>
       <c r="AR2">
         <v>-179.9827832379762</v>
@@ -11506,40 +11506,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.888555787380985E-10</v>
+        <v>9.888694330826456E-10</v>
       </c>
       <c r="O3">
-        <v>2.475906656009488E-10</v>
+        <v>2.475768138581431E-10</v>
       </c>
       <c r="P3">
-        <v>2.468527143023846E-10</v>
+        <v>2.46852718465151E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.888625064235835E-10</v>
+        <v>-9.88879824094093E-10</v>
       </c>
       <c r="R3">
-        <v>-2.4758373889967E-10</v>
+        <v>-2.475768138087853E-10</v>
       </c>
       <c r="S3">
-        <v>-2.468527121716248E-10</v>
+        <v>-2.468561796603584E-10</v>
       </c>
       <c r="T3">
-        <v>8.859059940012773E-13</v>
+        <v>8.82446830810131E-13</v>
       </c>
       <c r="U3">
-        <v>-1.276687758925944E-09</v>
+        <v>-1.276692958077654E-09</v>
       </c>
       <c r="V3">
-        <v>1.277113401874783E-09</v>
+        <v>1.277099548570921E-09</v>
       </c>
       <c r="W3">
-        <v>-8.824447413288261E-13</v>
+        <v>-8.789866188300944E-13</v>
       </c>
       <c r="X3">
-        <v>1.276687761063328E-09</v>
+        <v>1.276692958133653E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.27712032847069E-09</v>
+        <v>-1.277106476207521E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11560,37 +11560,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7311297291264546</v>
+        <v>0.731129729126456</v>
       </c>
       <c r="AH3">
-        <v>0.3655648642914716</v>
+        <v>0.3655648642914707</v>
       </c>
       <c r="AI3">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349911</v>
       </c>
       <c r="AJ3">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211758</v>
       </c>
       <c r="AK3">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042829</v>
       </c>
       <c r="AL3">
-        <v>0.3655648648168982</v>
+        <v>0.3655648648168986</v>
       </c>
       <c r="AM3">
-        <v>0.01721676853406251</v>
+        <v>0.01721676853419883</v>
       </c>
       <c r="AN3">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232865</v>
       </c>
       <c r="AO3">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP3">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806559271</v>
       </c>
       <c r="AQ3">
-        <v>-179.9827832258909</v>
+        <v>-179.982783225891</v>
       </c>
       <c r="AR3">
         <v>-179.9827832379762</v>
@@ -11637,40 +11637,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.888625095527948E-10</v>
+        <v>9.88855575616023E-10</v>
       </c>
       <c r="O4">
-        <v>2.475975943342557E-10</v>
+        <v>2.475906671619856E-10</v>
       </c>
       <c r="P4">
-        <v>2.468388589171386E-10</v>
+        <v>2.468527101396169E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.888694372382794E-10</v>
+        <v>-9.888659687088556E-10</v>
       </c>
       <c r="R4">
-        <v>-2.475975942848984E-10</v>
+        <v>-2.475768138087853E-10</v>
       </c>
       <c r="S4">
-        <v>-2.468388588677625E-10</v>
+        <v>-2.468492509270431E-10</v>
       </c>
       <c r="T4">
-        <v>8.720547715336597E-13</v>
+        <v>8.962959718931374E-13</v>
       </c>
       <c r="U4">
-        <v>-1.276694683496479E-09</v>
+        <v>-1.276692953914882E-09</v>
       </c>
       <c r="V4">
-        <v>1.277120324363946E-09</v>
+        <v>1.277127255178648E-09</v>
       </c>
       <c r="W4">
-        <v>-8.68593518861029E-13</v>
+        <v>-8.859091079868271E-13</v>
       </c>
       <c r="X4">
-        <v>1.276694683552479E-09</v>
+        <v>1.276692958133653E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.277120324307921E-09</v>
+        <v>-1.277113400778068E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11691,37 +11691,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264558</v>
       </c>
       <c r="AH4">
-        <v>0.3655648642914715</v>
+        <v>0.3655648642914707</v>
       </c>
       <c r="AI4">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349913</v>
       </c>
       <c r="AJ4">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211758</v>
       </c>
       <c r="AK4">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042829</v>
       </c>
       <c r="AL4">
-        <v>0.3655648648168982</v>
+        <v>0.3655648648168986</v>
       </c>
       <c r="AM4">
-        <v>0.01721676853407541</v>
+        <v>0.01721676853419883</v>
       </c>
       <c r="AN4">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232865</v>
       </c>
       <c r="AO4">
         <v>-179.9827832396433</v>
       </c>
       <c r="AP4">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806559271</v>
       </c>
       <c r="AQ4">
-        <v>-179.9827832258909</v>
+        <v>-179.982783225891</v>
       </c>
       <c r="AR4">
         <v>-179.9827832379762</v>
@@ -11768,40 +11768,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-5.203462084578851E-18</v>
+        <v>1.731767050825968E-14</v>
       </c>
       <c r="O5">
-        <v>-1.04069291012509E-18</v>
+        <v>-3.462805614138741E-15</v>
       </c>
       <c r="P5">
-        <v>3.463325965743355E-15</v>
+        <v>-3.457081814205584E-15</v>
       </c>
       <c r="Q5">
-        <v>-6.921448464252509E-15</v>
+        <v>-2.424536312701371E-14</v>
       </c>
       <c r="R5">
-        <v>1.731819084233424E-14</v>
+        <v>1.212372224789854E-14</v>
       </c>
       <c r="S5">
-        <v>-1.038997789723006E-14</v>
+        <v>-6.930814699178558E-15</v>
       </c>
       <c r="T5">
-        <v>1.731662981584273E-14</v>
+        <v>-3.458122501083933E-15</v>
       </c>
       <c r="U5">
-        <v>3.463325960593811E-15</v>
+        <v>-1.73270367320702E-15</v>
       </c>
       <c r="V5">
-        <v>1.040691922958227E-18</v>
+        <v>-2.078099648638311E-14</v>
       </c>
       <c r="W5">
-        <v>-1.731871120067657E-14</v>
+        <v>6.919367079418636E-15</v>
       </c>
       <c r="X5">
-        <v>-5.189785476340089E-15</v>
+        <v>-6.923009496002184E-15</v>
       </c>
       <c r="Y5">
-        <v>-3.12207576886837E-18</v>
+        <v>1.385122247912752E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -11822,37 +11822,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7311297291264546</v>
+        <v>0.731129729126456</v>
       </c>
       <c r="AH5">
-        <v>0.3655648642914716</v>
+        <v>0.3655648642914707</v>
       </c>
       <c r="AI5">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349911</v>
       </c>
       <c r="AJ5">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264558</v>
       </c>
       <c r="AK5">
-        <v>0.3655648642914715</v>
+        <v>0.3655648642914707</v>
       </c>
       <c r="AL5">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349913</v>
       </c>
       <c r="AM5">
-        <v>0.01721676853406251</v>
+        <v>0.01721676853419883</v>
       </c>
       <c r="AN5">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232865</v>
       </c>
       <c r="AO5">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP5">
-        <v>0.01721676853407541</v>
+        <v>0.01721676853419883</v>
       </c>
       <c r="AQ5">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232865</v>
       </c>
       <c r="AR5">
         <v>-179.9827832396433</v>
@@ -12046,40 +12046,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.966594444817775E-09</v>
+        <v>-2.966649854911111E-09</v>
       </c>
       <c r="O2">
-        <v>-7.427858474330292E-10</v>
+        <v>-7.427858437905975E-10</v>
       </c>
       <c r="P2">
-        <v>-7.405165719961207E-10</v>
+        <v>-7.405442806852294E-10</v>
       </c>
       <c r="Q2">
-        <v>2.966587515107981E-09</v>
+        <v>2.966635998549392E-09</v>
       </c>
       <c r="R2">
-        <v>7.427858457958462E-10</v>
+        <v>7.427858442347998E-10</v>
       </c>
       <c r="S2">
-        <v>7.405096499513564E-10</v>
+        <v>7.405477402928253E-10</v>
       </c>
       <c r="T2">
-        <v>-2.65079955848289E-12</v>
+        <v>-2.66120618745577E-12</v>
       </c>
       <c r="U2">
-        <v>3.830056346635137E-09</v>
+        <v>3.830044224994266E-09</v>
       </c>
       <c r="V2">
-        <v>-3.831374825723406E-09</v>
+        <v>-3.831367907397016E-09</v>
       </c>
       <c r="W2">
-        <v>2.661187527839053E-12</v>
+        <v>2.67159207542933E-12</v>
       </c>
       <c r="X2">
-        <v>-3.830049419479215E-09</v>
+        <v>-3.830044224490268E-09</v>
       </c>
       <c r="Y2">
-        <v>3.83136097084238E-09</v>
+        <v>3.831381762245791E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12100,37 +12100,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.731129729105334</v>
+        <v>0.7311297291053348</v>
       </c>
       <c r="AH2">
-        <v>0.3655648643427205</v>
+        <v>0.3655648643427197</v>
       </c>
       <c r="AI2">
-        <v>0.3655648647626211</v>
+        <v>0.3655648647626212</v>
       </c>
       <c r="AJ2">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211758</v>
       </c>
       <c r="AK2">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042829</v>
       </c>
       <c r="AL2">
-        <v>0.3655648648168982</v>
+        <v>0.3655648648168986</v>
       </c>
       <c r="AM2">
-        <v>0.01721676665953011</v>
+        <v>0.01721676665966171</v>
       </c>
       <c r="AN2">
-        <v>-179.9827832337043</v>
+        <v>-179.9827832337044</v>
       </c>
       <c r="AO2">
-        <v>-179.9827832329747</v>
+        <v>-179.9827832329748</v>
       </c>
       <c r="AP2">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806559271</v>
       </c>
       <c r="AQ2">
-        <v>-179.9827832258909</v>
+        <v>-179.982783225891</v>
       </c>
       <c r="AR2">
         <v>-179.9827832379762</v>
@@ -12177,40 +12177,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.888555787380985E-10</v>
+        <v>9.888694330826456E-10</v>
       </c>
       <c r="O3">
-        <v>2.475906656009488E-10</v>
+        <v>2.475768138581431E-10</v>
       </c>
       <c r="P3">
-        <v>2.468527143023846E-10</v>
+        <v>2.46852718465151E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.888625064235835E-10</v>
+        <v>-9.88879824094093E-10</v>
       </c>
       <c r="R3">
-        <v>-2.4758373889967E-10</v>
+        <v>-2.475768138087853E-10</v>
       </c>
       <c r="S3">
-        <v>-2.468527121716248E-10</v>
+        <v>-2.468561796603584E-10</v>
       </c>
       <c r="T3">
-        <v>8.859059940012773E-13</v>
+        <v>8.82446830810131E-13</v>
       </c>
       <c r="U3">
-        <v>-1.276687758925944E-09</v>
+        <v>-1.276692958077654E-09</v>
       </c>
       <c r="V3">
-        <v>1.277113401874783E-09</v>
+        <v>1.277099548570921E-09</v>
       </c>
       <c r="W3">
-        <v>-8.824447413288261E-13</v>
+        <v>-8.789866188300944E-13</v>
       </c>
       <c r="X3">
-        <v>1.276687761063328E-09</v>
+        <v>1.276692958133653E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.27712032847069E-09</v>
+        <v>-1.277106476207521E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12231,37 +12231,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7311297291264546</v>
+        <v>0.731129729126456</v>
       </c>
       <c r="AH3">
-        <v>0.3655648642914716</v>
+        <v>0.3655648642914707</v>
       </c>
       <c r="AI3">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349911</v>
       </c>
       <c r="AJ3">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211758</v>
       </c>
       <c r="AK3">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042829</v>
       </c>
       <c r="AL3">
-        <v>0.3655648648168982</v>
+        <v>0.3655648648168986</v>
       </c>
       <c r="AM3">
-        <v>0.01721676853406251</v>
+        <v>0.01721676853419883</v>
       </c>
       <c r="AN3">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232865</v>
       </c>
       <c r="AO3">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP3">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806559271</v>
       </c>
       <c r="AQ3">
-        <v>-179.9827832258909</v>
+        <v>-179.982783225891</v>
       </c>
       <c r="AR3">
         <v>-179.9827832379762</v>
@@ -12308,40 +12308,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.888625095527948E-10</v>
+        <v>9.88855575616023E-10</v>
       </c>
       <c r="O4">
-        <v>2.475975943342557E-10</v>
+        <v>2.475906671619856E-10</v>
       </c>
       <c r="P4">
-        <v>2.468388589171386E-10</v>
+        <v>2.468527101396169E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.888694372382794E-10</v>
+        <v>-9.888659687088556E-10</v>
       </c>
       <c r="R4">
-        <v>-2.475975942848984E-10</v>
+        <v>-2.475768138087853E-10</v>
       </c>
       <c r="S4">
-        <v>-2.468388588677625E-10</v>
+        <v>-2.468492509270431E-10</v>
       </c>
       <c r="T4">
-        <v>8.720547715336597E-13</v>
+        <v>8.962959718931374E-13</v>
       </c>
       <c r="U4">
-        <v>-1.276694683496479E-09</v>
+        <v>-1.276692953914882E-09</v>
       </c>
       <c r="V4">
-        <v>1.277120324363946E-09</v>
+        <v>1.277127255178648E-09</v>
       </c>
       <c r="W4">
-        <v>-8.68593518861029E-13</v>
+        <v>-8.859091079868271E-13</v>
       </c>
       <c r="X4">
-        <v>1.276694683552479E-09</v>
+        <v>1.276692958133653E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.277120324307921E-09</v>
+        <v>-1.277113400778068E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12362,37 +12362,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264558</v>
       </c>
       <c r="AH4">
-        <v>0.3655648642914715</v>
+        <v>0.3655648642914707</v>
       </c>
       <c r="AI4">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349913</v>
       </c>
       <c r="AJ4">
-        <v>0.7311297291211747</v>
+        <v>0.7311297291211758</v>
       </c>
       <c r="AK4">
-        <v>0.3655648643042836</v>
+        <v>0.3655648643042829</v>
       </c>
       <c r="AL4">
-        <v>0.3655648648168982</v>
+        <v>0.3655648648168986</v>
       </c>
       <c r="AM4">
-        <v>0.01721676853407541</v>
+        <v>0.01721676853419883</v>
       </c>
       <c r="AN4">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232865</v>
       </c>
       <c r="AO4">
         <v>-179.9827832396433</v>
       </c>
       <c r="AP4">
-        <v>0.01721676806544974</v>
+        <v>0.01721676806559271</v>
       </c>
       <c r="AQ4">
-        <v>-179.9827832258909</v>
+        <v>-179.982783225891</v>
       </c>
       <c r="AR4">
         <v>-179.9827832379762</v>
@@ -12439,40 +12439,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-5.203462084578851E-18</v>
+        <v>1.731767050825968E-14</v>
       </c>
       <c r="O5">
-        <v>-1.04069291012509E-18</v>
+        <v>-3.462805614138741E-15</v>
       </c>
       <c r="P5">
-        <v>3.463325965743355E-15</v>
+        <v>-3.457081814205584E-15</v>
       </c>
       <c r="Q5">
-        <v>-6.921448464252509E-15</v>
+        <v>-2.424536312701371E-14</v>
       </c>
       <c r="R5">
-        <v>1.731819084233424E-14</v>
+        <v>1.212372224789854E-14</v>
       </c>
       <c r="S5">
-        <v>-1.038997789723006E-14</v>
+        <v>-6.930814699178558E-15</v>
       </c>
       <c r="T5">
-        <v>1.731662981584273E-14</v>
+        <v>-3.458122501083933E-15</v>
       </c>
       <c r="U5">
-        <v>3.463325960593811E-15</v>
+        <v>-1.73270367320702E-15</v>
       </c>
       <c r="V5">
-        <v>1.040691922958227E-18</v>
+        <v>-2.078099648638311E-14</v>
       </c>
       <c r="W5">
-        <v>-1.731871120067657E-14</v>
+        <v>6.919367079418636E-15</v>
       </c>
       <c r="X5">
-        <v>-5.189785476340089E-15</v>
+        <v>-6.923009496002184E-15</v>
       </c>
       <c r="Y5">
-        <v>-3.12207576886837E-18</v>
+        <v>1.385122247912752E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -12493,37 +12493,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7311297291264546</v>
+        <v>0.731129729126456</v>
       </c>
       <c r="AH5">
-        <v>0.3655648642914716</v>
+        <v>0.3655648642914707</v>
       </c>
       <c r="AI5">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349911</v>
       </c>
       <c r="AJ5">
-        <v>0.7311297291264546</v>
+        <v>0.7311297291264558</v>
       </c>
       <c r="AK5">
-        <v>0.3655648642914715</v>
+        <v>0.3655648642914707</v>
       </c>
       <c r="AL5">
-        <v>0.3655648648349907</v>
+        <v>0.3655648648349913</v>
       </c>
       <c r="AM5">
-        <v>0.01721676853406251</v>
+        <v>0.01721676853419883</v>
       </c>
       <c r="AN5">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232865</v>
       </c>
       <c r="AO5">
-        <v>-179.9827832396433</v>
+        <v>-179.9827832396432</v>
       </c>
       <c r="AP5">
-        <v>0.01721676853407541</v>
+        <v>0.01721676853419883</v>
       </c>
       <c r="AQ5">
-        <v>-179.9827832232864</v>
+        <v>-179.9827832232865</v>
       </c>
       <c r="AR5">
         <v>-179.9827832396433</v>
@@ -12717,40 +12717,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.278231802026923E-09</v>
+        <v>-2.278279116285303E-09</v>
       </c>
       <c r="O2">
-        <v>-1.906604959041384E-09</v>
+        <v>-1.906587183826012E-09</v>
       </c>
       <c r="P2">
-        <v>-3.133038894016867E-09</v>
+        <v>-3.133062282671872E-09</v>
       </c>
       <c r="Q2">
-        <v>2.278216474817314E-09</v>
+        <v>2.27826727159071E-09</v>
       </c>
       <c r="R2">
-        <v>1.906610443287048E-09</v>
+        <v>1.906598152106216E-09</v>
       </c>
       <c r="S2">
-        <v>3.13304799895207E-09</v>
+        <v>3.133066190128187E-09</v>
       </c>
       <c r="T2">
-        <v>7.137893502907106E-10</v>
+        <v>7.137804396435999E-10</v>
       </c>
       <c r="U2">
-        <v>4.345325343376213E-09</v>
+        <v>4.345327268172726E-09</v>
       </c>
       <c r="V2">
-        <v>-7.970592407331584E-10</v>
+        <v>-7.97029963801911E-10</v>
       </c>
       <c r="W2">
-        <v>-7.137761083512936E-10</v>
+        <v>-7.137755599141552E-10</v>
       </c>
       <c r="X2">
-        <v>-4.345322649016282E-09</v>
+        <v>-4.345321879692413E-09</v>
       </c>
       <c r="Y2">
-        <v>7.970611854591325E-10</v>
+        <v>7.970384145126105E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12771,40 +12771,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8551989639615296</v>
+        <v>0.8551989639615302</v>
       </c>
       <c r="AH2">
-        <v>0.6449366187237823</v>
+        <v>0.6449366187237817</v>
       </c>
       <c r="AI2">
         <v>0.4394789399935438</v>
       </c>
       <c r="AJ2">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682267</v>
       </c>
       <c r="AK2">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054972</v>
       </c>
       <c r="AL2">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293722</v>
       </c>
       <c r="AM2">
-        <v>-3.955340391003942</v>
+        <v>-3.955340391003844</v>
       </c>
       <c r="AN2">
-        <v>-153.8366771790808</v>
+        <v>-153.8366771790809</v>
       </c>
       <c r="AO2">
         <v>128.6205387876522</v>
       </c>
       <c r="AP2">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389995988</v>
       </c>
       <c r="AQ2">
         <v>-153.8366771755843</v>
       </c>
       <c r="AR2">
-        <v>128.6205387908427</v>
+        <v>128.6205387908428</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12848,40 +12848,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.59400196238488E-10</v>
+        <v>7.594059788829892E-10</v>
       </c>
       <c r="O3">
-        <v>6.355277063261667E-10</v>
+        <v>6.355399017132217E-10</v>
       </c>
       <c r="P3">
-        <v>1.044346285917938E-09</v>
+        <v>1.044356699147935E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.593999167991227E-10</v>
+        <v>-7.594016580566314E-10</v>
       </c>
       <c r="R3">
-        <v>-6.355222222681689E-10</v>
+        <v>-6.355290294144555E-10</v>
       </c>
       <c r="S3">
-        <v>-1.04434628589449E-09</v>
+        <v>-1.044352791879211E-09</v>
       </c>
       <c r="T3">
-        <v>-2.379236497362841E-10</v>
+        <v>-2.379281102772583E-10</v>
       </c>
       <c r="U3">
-        <v>-1.448440819116298E-09</v>
+        <v>-1.448455250629625E-09</v>
       </c>
       <c r="V3">
-        <v>2.656686404044149E-10</v>
+        <v>2.656822883545596E-10</v>
       </c>
       <c r="W3">
-        <v>2.37927691127108E-10</v>
+        <v>2.379318722320934E-10</v>
       </c>
       <c r="X3">
-        <v>1.448443513263297E-09</v>
+        <v>1.448446976707547E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.656686403778097E-10</v>
+        <v>-2.656738378567022E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12902,40 +12902,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8551989639704577</v>
+        <v>0.8551989639704587</v>
       </c>
       <c r="AH3">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994026</v>
       </c>
       <c r="AI3">
-        <v>0.4394789400413149</v>
+        <v>0.4394789400413147</v>
       </c>
       <c r="AJ3">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682267</v>
       </c>
       <c r="AK3">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054972</v>
       </c>
       <c r="AL3">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293722</v>
       </c>
       <c r="AM3">
-        <v>-3.955340389660154</v>
+        <v>-3.955340389660061</v>
       </c>
       <c r="AN3">
         <v>-153.8366771744188</v>
       </c>
       <c r="AO3">
-        <v>128.6205387919062</v>
+        <v>128.6205387919063</v>
       </c>
       <c r="AP3">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389995988</v>
       </c>
       <c r="AQ3">
         <v>-153.8366771755843</v>
       </c>
       <c r="AR3">
-        <v>128.6205387908427</v>
+        <v>128.6205387908428</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12979,40 +12979,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.593964342874844E-10</v>
+        <v>7.594024963679741E-10</v>
       </c>
       <c r="O4">
-        <v>6.355277063261667E-10</v>
+        <v>6.355399017132217E-10</v>
       </c>
       <c r="P4">
-        <v>1.044354100408491E-09</v>
+        <v>1.044359297887381E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.594004756710998E-10</v>
+        <v>-7.593981755416163E-10</v>
       </c>
       <c r="R4">
-        <v>-6.355222222681689E-10</v>
+        <v>-6.355344176552231E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044356699124489E-09</v>
+        <v>-1.044355390618656E-09</v>
       </c>
       <c r="T4">
-        <v>-2.379193289133033E-10</v>
+        <v>-2.379197480672851E-10</v>
       </c>
       <c r="U4">
-        <v>-1.448440819116297E-09</v>
+        <v>-1.448455250629625E-09</v>
       </c>
       <c r="V4">
-        <v>2.656855413469193E-10</v>
+        <v>2.65679035362199E-10</v>
       </c>
       <c r="W4">
-        <v>2.379196083531234E-10</v>
+        <v>2.379235100221203E-10</v>
       </c>
       <c r="X4">
-        <v>1.448443513263297E-09</v>
+        <v>1.448457944776625E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.656822883279526E-10</v>
+        <v>-2.656705848643412E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13033,40 +13033,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8551989639704578</v>
+        <v>0.8551989639704587</v>
       </c>
       <c r="AH4">
-        <v>0.6449366186994031</v>
+        <v>0.6449366186994026</v>
       </c>
       <c r="AI4">
-        <v>0.439478940041315</v>
+        <v>0.4394789400413147</v>
       </c>
       <c r="AJ4">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682267</v>
       </c>
       <c r="AK4">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054972</v>
       </c>
       <c r="AL4">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293722</v>
       </c>
       <c r="AM4">
-        <v>-3.955340389660157</v>
+        <v>-3.955340389660061</v>
       </c>
       <c r="AN4">
         <v>-153.8366771744188</v>
       </c>
       <c r="AO4">
-        <v>128.6205387919062</v>
+        <v>128.6205387919063</v>
       </c>
       <c r="AP4">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389995988</v>
       </c>
       <c r="AQ4">
         <v>-153.8366771755843</v>
       </c>
       <c r="AR4">
-        <v>128.6205387908427</v>
+        <v>128.6205387908428</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -13110,40 +13110,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.794359885505045E-16</v>
+        <v>1.21241609769295E-14</v>
       </c>
       <c r="O5">
-        <v>6.831094730990787E-15</v>
+        <v>1.371008634756854E-15</v>
       </c>
       <c r="P5">
-        <v>-6.505984722056529E-15</v>
+        <v>-4.552362083824371E-15</v>
       </c>
       <c r="Q5">
-        <v>-8.082773984619657E-15</v>
+        <v>-3.761951003759335E-15</v>
       </c>
       <c r="R5">
-        <v>1.394957077550346E-15</v>
+        <v>1.32311174916987E-15</v>
       </c>
       <c r="S5">
-        <v>7.814490552928611E-15</v>
+        <v>1.299369722796114E-15</v>
       </c>
       <c r="T5">
-        <v>-4.041386992309828E-15</v>
+        <v>-8.383079656514949E-16</v>
       </c>
       <c r="U5">
-        <v>-4.789688558698208E-17</v>
+        <v>6.735300959816811E-16</v>
       </c>
       <c r="V5">
-        <v>-5.197478891184448E-15</v>
+        <v>-9.722432650780982E-16</v>
       </c>
       <c r="W5">
-        <v>5.588719771010093E-16</v>
+        <v>4.320822980860332E-15</v>
       </c>
       <c r="X5">
-        <v>4.089077461477074E-15</v>
+        <v>-6.157564635009097E-15</v>
       </c>
       <c r="Y5">
-        <v>1.690094250442543E-14</v>
+        <v>-1.626496180514129E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -13164,40 +13164,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.8551989639704577</v>
+        <v>0.8551989639704587</v>
       </c>
       <c r="AH5">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994026</v>
       </c>
       <c r="AI5">
-        <v>0.4394789400413149</v>
+        <v>0.4394789400413147</v>
       </c>
       <c r="AJ5">
-        <v>0.8551989639704578</v>
+        <v>0.8551989639704587</v>
       </c>
       <c r="AK5">
-        <v>0.6449366186994031</v>
+        <v>0.6449366186994026</v>
       </c>
       <c r="AL5">
-        <v>0.439478940041315</v>
+        <v>0.4394789400413147</v>
       </c>
       <c r="AM5">
-        <v>-3.955340389660154</v>
+        <v>-3.955340389660061</v>
       </c>
       <c r="AN5">
         <v>-153.8366771744188</v>
       </c>
       <c r="AO5">
-        <v>128.6205387919062</v>
+        <v>128.6205387919063</v>
       </c>
       <c r="AP5">
-        <v>-3.955340389660157</v>
+        <v>-3.955340389660061</v>
       </c>
       <c r="AQ5">
         <v>-153.8366771744188</v>
       </c>
       <c r="AR5">
-        <v>128.6205387919062</v>
+        <v>128.6205387919063</v>
       </c>
     </row>
   </sheetData>
@@ -13388,40 +13388,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.278231802026923E-09</v>
+        <v>-2.278279116285303E-09</v>
       </c>
       <c r="O2">
-        <v>-1.906604959041384E-09</v>
+        <v>-1.906587183826012E-09</v>
       </c>
       <c r="P2">
-        <v>-3.133038894016867E-09</v>
+        <v>-3.133062282671872E-09</v>
       </c>
       <c r="Q2">
-        <v>2.278216474817314E-09</v>
+        <v>2.27826727159071E-09</v>
       </c>
       <c r="R2">
-        <v>1.906610443287048E-09</v>
+        <v>1.906598152106216E-09</v>
       </c>
       <c r="S2">
-        <v>3.13304799895207E-09</v>
+        <v>3.133066190128187E-09</v>
       </c>
       <c r="T2">
-        <v>7.137893502907106E-10</v>
+        <v>7.137804396435999E-10</v>
       </c>
       <c r="U2">
-        <v>4.345325343376213E-09</v>
+        <v>4.345327268172726E-09</v>
       </c>
       <c r="V2">
-        <v>-7.970592407331584E-10</v>
+        <v>-7.97029963801911E-10</v>
       </c>
       <c r="W2">
-        <v>-7.137761083512936E-10</v>
+        <v>-7.137755599141552E-10</v>
       </c>
       <c r="X2">
-        <v>-4.345322649016282E-09</v>
+        <v>-4.345321879692413E-09</v>
       </c>
       <c r="Y2">
-        <v>7.970611854591325E-10</v>
+        <v>7.970384145126105E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13442,40 +13442,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8551989639615296</v>
+        <v>0.8551989639615302</v>
       </c>
       <c r="AH2">
-        <v>0.6449366187237823</v>
+        <v>0.6449366187237817</v>
       </c>
       <c r="AI2">
         <v>0.4394789399935438</v>
       </c>
       <c r="AJ2">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682267</v>
       </c>
       <c r="AK2">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054972</v>
       </c>
       <c r="AL2">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293722</v>
       </c>
       <c r="AM2">
-        <v>-3.955340391003942</v>
+        <v>-3.955340391003844</v>
       </c>
       <c r="AN2">
-        <v>-153.8366771790808</v>
+        <v>-153.8366771790809</v>
       </c>
       <c r="AO2">
         <v>128.6205387876522</v>
       </c>
       <c r="AP2">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389995988</v>
       </c>
       <c r="AQ2">
         <v>-153.8366771755843</v>
       </c>
       <c r="AR2">
-        <v>128.6205387908427</v>
+        <v>128.6205387908428</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13519,40 +13519,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.59400196238488E-10</v>
+        <v>7.594059788829892E-10</v>
       </c>
       <c r="O3">
-        <v>6.355277063261667E-10</v>
+        <v>6.355399017132217E-10</v>
       </c>
       <c r="P3">
-        <v>1.044346285917938E-09</v>
+        <v>1.044356699147935E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.593999167991227E-10</v>
+        <v>-7.594016580566314E-10</v>
       </c>
       <c r="R3">
-        <v>-6.355222222681689E-10</v>
+        <v>-6.355290294144555E-10</v>
       </c>
       <c r="S3">
-        <v>-1.04434628589449E-09</v>
+        <v>-1.044352791879211E-09</v>
       </c>
       <c r="T3">
-        <v>-2.379236497362841E-10</v>
+        <v>-2.379281102772583E-10</v>
       </c>
       <c r="U3">
-        <v>-1.448440819116298E-09</v>
+        <v>-1.448455250629625E-09</v>
       </c>
       <c r="V3">
-        <v>2.656686404044149E-10</v>
+        <v>2.656822883545596E-10</v>
       </c>
       <c r="W3">
-        <v>2.37927691127108E-10</v>
+        <v>2.379318722320934E-10</v>
       </c>
       <c r="X3">
-        <v>1.448443513263297E-09</v>
+        <v>1.448446976707547E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.656686403778097E-10</v>
+        <v>-2.656738378567022E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13573,40 +13573,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8551989639704577</v>
+        <v>0.8551989639704587</v>
       </c>
       <c r="AH3">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994026</v>
       </c>
       <c r="AI3">
-        <v>0.4394789400413149</v>
+        <v>0.4394789400413147</v>
       </c>
       <c r="AJ3">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682267</v>
       </c>
       <c r="AK3">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054972</v>
       </c>
       <c r="AL3">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293722</v>
       </c>
       <c r="AM3">
-        <v>-3.955340389660154</v>
+        <v>-3.955340389660061</v>
       </c>
       <c r="AN3">
         <v>-153.8366771744188</v>
       </c>
       <c r="AO3">
-        <v>128.6205387919062</v>
+        <v>128.6205387919063</v>
       </c>
       <c r="AP3">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389995988</v>
       </c>
       <c r="AQ3">
         <v>-153.8366771755843</v>
       </c>
       <c r="AR3">
-        <v>128.6205387908427</v>
+        <v>128.6205387908428</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13650,40 +13650,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.593964342874844E-10</v>
+        <v>7.594024963679741E-10</v>
       </c>
       <c r="O4">
-        <v>6.355277063261667E-10</v>
+        <v>6.355399017132217E-10</v>
       </c>
       <c r="P4">
-        <v>1.044354100408491E-09</v>
+        <v>1.044359297887381E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.594004756710998E-10</v>
+        <v>-7.593981755416163E-10</v>
       </c>
       <c r="R4">
-        <v>-6.355222222681689E-10</v>
+        <v>-6.355344176552231E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044356699124489E-09</v>
+        <v>-1.044355390618656E-09</v>
       </c>
       <c r="T4">
-        <v>-2.379193289133033E-10</v>
+        <v>-2.379197480672851E-10</v>
       </c>
       <c r="U4">
-        <v>-1.448440819116297E-09</v>
+        <v>-1.448455250629625E-09</v>
       </c>
       <c r="V4">
-        <v>2.656855413469193E-10</v>
+        <v>2.65679035362199E-10</v>
       </c>
       <c r="W4">
-        <v>2.379196083531234E-10</v>
+        <v>2.379235100221203E-10</v>
       </c>
       <c r="X4">
-        <v>1.448443513263297E-09</v>
+        <v>1.448457944776625E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.656822883279526E-10</v>
+        <v>-2.656705848643412E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13704,40 +13704,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8551989639704578</v>
+        <v>0.8551989639704587</v>
       </c>
       <c r="AH4">
-        <v>0.6449366186994031</v>
+        <v>0.6449366186994026</v>
       </c>
       <c r="AI4">
-        <v>0.439478940041315</v>
+        <v>0.4394789400413147</v>
       </c>
       <c r="AJ4">
-        <v>0.8551989639682259</v>
+        <v>0.8551989639682267</v>
       </c>
       <c r="AK4">
-        <v>0.6449366187054978</v>
+        <v>0.6449366187054972</v>
       </c>
       <c r="AL4">
-        <v>0.4394789400293723</v>
+        <v>0.4394789400293722</v>
       </c>
       <c r="AM4">
-        <v>-3.955340389660157</v>
+        <v>-3.955340389660061</v>
       </c>
       <c r="AN4">
         <v>-153.8366771744188</v>
       </c>
       <c r="AO4">
-        <v>128.6205387919062</v>
+        <v>128.6205387919063</v>
       </c>
       <c r="AP4">
-        <v>-3.955340389996089</v>
+        <v>-3.955340389995988</v>
       </c>
       <c r="AQ4">
         <v>-153.8366771755843</v>
       </c>
       <c r="AR4">
-        <v>128.6205387908427</v>
+        <v>128.6205387908428</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -13781,40 +13781,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.794359885505045E-16</v>
+        <v>1.21241609769295E-14</v>
       </c>
       <c r="O5">
-        <v>6.831094730990787E-15</v>
+        <v>1.371008634756854E-15</v>
       </c>
       <c r="P5">
-        <v>-6.505984722056529E-15</v>
+        <v>-4.552362083824371E-15</v>
       </c>
       <c r="Q5">
-        <v>-8.082773984619657E-15</v>
+        <v>-3.761951003759335E-15</v>
       </c>
       <c r="R5">
-        <v>1.394957077550346E-15</v>
+        <v>1.32311174916987E-15</v>
       </c>
       <c r="S5">
-        <v>7.814490552928611E-15</v>
+        <v>1.299369722796114E-15</v>
       </c>
       <c r="T5">
-        <v>-4.041386992309828E-15</v>
+        <v>-8.383079656514949E-16</v>
       </c>
       <c r="U5">
-        <v>-4.789688558698208E-17</v>
+        <v>6.735300959816811E-16</v>
       </c>
       <c r="V5">
-        <v>-5.197478891184448E-15</v>
+        <v>-9.722432650780982E-16</v>
       </c>
       <c r="W5">
-        <v>5.588719771010093E-16</v>
+        <v>4.320822980860332E-15</v>
       </c>
       <c r="X5">
-        <v>4.089077461477074E-15</v>
+        <v>-6.157564635009097E-15</v>
       </c>
       <c r="Y5">
-        <v>1.690094250442543E-14</v>
+        <v>-1.626496180514129E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -13835,40 +13835,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.8551989639704577</v>
+        <v>0.8551989639704587</v>
       </c>
       <c r="AH5">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994026</v>
       </c>
       <c r="AI5">
-        <v>0.4394789400413149</v>
+        <v>0.4394789400413147</v>
       </c>
       <c r="AJ5">
-        <v>0.8551989639704578</v>
+        <v>0.8551989639704587</v>
       </c>
       <c r="AK5">
-        <v>0.6449366186994031</v>
+        <v>0.6449366186994026</v>
       </c>
       <c r="AL5">
-        <v>0.439478940041315</v>
+        <v>0.4394789400413147</v>
       </c>
       <c r="AM5">
-        <v>-3.955340389660154</v>
+        <v>-3.955340389660061</v>
       </c>
       <c r="AN5">
         <v>-153.8366771744188</v>
       </c>
       <c r="AO5">
-        <v>128.6205387919062</v>
+        <v>128.6205387919063</v>
       </c>
       <c r="AP5">
-        <v>-3.955340389660157</v>
+        <v>-3.955340389660061</v>
       </c>
       <c r="AQ5">
         <v>-153.8366771744188</v>
       </c>
       <c r="AR5">
-        <v>128.6205387919062</v>
+        <v>128.6205387919063</v>
       </c>
     </row>
   </sheetData>
@@ -14059,40 +14059,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.452713813269776E-09</v>
+        <v>-2.452746865217258E-09</v>
       </c>
       <c r="O2">
-        <v>-6.142666265342984E-10</v>
+        <v>-6.142658381256466E-10</v>
       </c>
       <c r="P2">
-        <v>-6.120965779141675E-10</v>
+        <v>-6.121012976264103E-10</v>
       </c>
       <c r="Q2">
-        <v>2.452716961636622E-09</v>
+        <v>2.452745290649925E-09</v>
       </c>
       <c r="R2">
-        <v>6.142642663090649E-10</v>
+        <v>6.142721332121505E-10</v>
       </c>
       <c r="S2">
-        <v>6.121012994056265E-10</v>
+        <v>6.121028740750002E-10</v>
       </c>
       <c r="T2">
-        <v>-2.51443876828862E-12</v>
+        <v>-2.495566900098917E-12</v>
       </c>
       <c r="U2">
-        <v>3.163959092006597E-09</v>
+        <v>3.163954371488854E-09</v>
       </c>
       <c r="V2">
-        <v>-3.165206875102102E-09</v>
+        <v>-3.16521002390389E-09</v>
       </c>
       <c r="W2">
-        <v>2.511292711747048E-12</v>
+        <v>2.498713614241704E-12</v>
       </c>
       <c r="X2">
-        <v>-3.163957518800134E-09</v>
+        <v>-3.163954368924364E-09</v>
       </c>
       <c r="Y2">
-        <v>3.165206877129818E-09</v>
+        <v>3.165203730475976E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -14113,40 +14113,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6643916361876107</v>
+        <v>0.6643916361876102</v>
       </c>
       <c r="AH2">
-        <v>0.3321958179292133</v>
+        <v>0.3321958179292131</v>
       </c>
       <c r="AI2">
-        <v>0.3321958182584022</v>
+        <v>0.332195818258402</v>
       </c>
       <c r="AJ2">
-        <v>0.6643916362152703</v>
+        <v>0.6643916362152706</v>
       </c>
       <c r="AK2">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009138</v>
       </c>
       <c r="AL2">
-        <v>0.332195818314362</v>
+        <v>0.3321958183143612</v>
       </c>
       <c r="AM2">
-        <v>0.01955212036734578</v>
+        <v>0.01955212036737194</v>
       </c>
       <c r="AN2">
-        <v>-179.9804478777209</v>
+        <v>-179.9804478777206</v>
       </c>
       <c r="AO2">
-        <v>-179.9804478815424</v>
+        <v>-179.9804478815421</v>
       </c>
       <c r="AP2">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177373826</v>
       </c>
       <c r="AQ2">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640086</v>
       </c>
       <c r="AR2">
-        <v>-179.9804478924417</v>
+        <v>-179.9804478924415</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -14190,40 +14190,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.175597300036313E-10</v>
+        <v>8.175613100428955E-10</v>
       </c>
       <c r="O3">
-        <v>2.047471499825206E-10</v>
+        <v>2.047510855820144E-10</v>
       </c>
       <c r="P3">
-        <v>2.040342903627215E-10</v>
+        <v>2.040358628841554E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.175628782570906E-10</v>
+        <v>-8.175660297438148E-10</v>
       </c>
       <c r="R3">
-        <v>-2.04749508686353E-10</v>
+        <v>-2.047510833557431E-10</v>
       </c>
       <c r="S3">
-        <v>-2.04032716688951E-10</v>
+        <v>-2.040374342532588E-10</v>
       </c>
       <c r="T3">
-        <v>8.423385994180972E-13</v>
+        <v>8.234559914743345E-13</v>
       </c>
       <c r="U3">
-        <v>-1.054653033347676E-09</v>
+        <v>-1.054657752791433E-09</v>
       </c>
       <c r="V3">
-        <v>1.05507105739579E-09</v>
+        <v>1.055074205123601E-09</v>
       </c>
       <c r="W3">
-        <v>-8.391924758707792E-13</v>
+        <v>-8.266047865589768E-13</v>
       </c>
       <c r="X3">
-        <v>1.054648311802245E-09</v>
+        <v>1.054651458456074E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.055071056812497E-09</v>
+        <v>-1.05508049999593E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -14244,40 +14244,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6643916362244899</v>
+        <v>0.66439163622449</v>
       </c>
       <c r="AH3">
-        <v>0.3321958178914815</v>
+        <v>0.3321958178914809</v>
       </c>
       <c r="AI3">
-        <v>0.3321958183330152</v>
+        <v>0.3321958183330148</v>
       </c>
       <c r="AJ3">
-        <v>0.6643916362152703</v>
+        <v>0.6643916362152706</v>
       </c>
       <c r="AK3">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009138</v>
       </c>
       <c r="AL3">
-        <v>0.332195818314362</v>
+        <v>0.3321958183143612</v>
       </c>
       <c r="AM3">
-        <v>0.01955212224240663</v>
+        <v>0.01955212224253161</v>
       </c>
       <c r="AN3">
-        <v>-179.9804478594382</v>
+        <v>-179.980447859438</v>
       </c>
       <c r="AO3">
-        <v>-179.9804478960748</v>
+        <v>-179.9804478960746</v>
       </c>
       <c r="AP3">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177373826</v>
       </c>
       <c r="AQ3">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640086</v>
       </c>
       <c r="AR3">
-        <v>-179.9804478924417</v>
+        <v>-179.9804478924415</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -14321,40 +14321,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.175691758719999E-10</v>
+        <v>8.175676044245398E-10</v>
       </c>
       <c r="O4">
-        <v>2.047534443641613E-10</v>
+        <v>2.047573799636553E-10</v>
       </c>
       <c r="P4">
-        <v>2.040342903627216E-10</v>
+        <v>2.040358650321036E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.17572321977508E-10</v>
+        <v>-8.175691769346372E-10</v>
       </c>
       <c r="R4">
-        <v>-2.047558052159459E-10</v>
+        <v>-2.047510855036955E-10</v>
       </c>
       <c r="S4">
-        <v>-2.040358638797751E-10</v>
+        <v>-2.040342892103841E-10</v>
       </c>
       <c r="T4">
-        <v>8.297530580558909E-13</v>
+        <v>8.234581394251465E-13</v>
       </c>
       <c r="U4">
-        <v>-1.054653031199723E-09</v>
+        <v>-1.05465775064348E-09</v>
       </c>
       <c r="V4">
-        <v>1.055071057395791E-09</v>
+        <v>1.055067910741952E-09</v>
       </c>
       <c r="W4">
-        <v>-8.329013161527888E-13</v>
+        <v>-8.266058605344267E-13</v>
       </c>
       <c r="X4">
-        <v>1.054654604035933E-09</v>
+        <v>1.054657752837714E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.055071057886472E-09</v>
+        <v>-1.055074204540307E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -14375,40 +14375,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6643916362244899</v>
+        <v>0.6643916362244902</v>
       </c>
       <c r="AH4">
-        <v>0.3321958178914816</v>
+        <v>0.3321958178914809</v>
       </c>
       <c r="AI4">
-        <v>0.3321958183330153</v>
+        <v>0.3321958183330146</v>
       </c>
       <c r="AJ4">
-        <v>0.6643916362152703</v>
+        <v>0.6643916362152706</v>
       </c>
       <c r="AK4">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009138</v>
       </c>
       <c r="AL4">
-        <v>0.332195818314362</v>
+        <v>0.3321958183143612</v>
       </c>
       <c r="AM4">
-        <v>0.01955212224242221</v>
+        <v>0.01955212224252182</v>
       </c>
       <c r="AN4">
-        <v>-179.9804478594382</v>
+        <v>-179.980447859438</v>
       </c>
       <c r="AO4">
-        <v>-179.9804478960748</v>
+        <v>-179.9804478960746</v>
       </c>
       <c r="AP4">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177373826</v>
       </c>
       <c r="AQ4">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640086</v>
       </c>
       <c r="AR4">
-        <v>-179.9804478924417</v>
+        <v>-179.9804478924415</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -14452,40 +14452,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.102053775512821E-14</v>
+        <v>-6.295455619903904E-15</v>
       </c>
       <c r="O5">
-        <v>-3.935062501633718E-15</v>
+        <v>1.574132398301587E-15</v>
       </c>
       <c r="P5">
-        <v>-1.073974469983202E-18</v>
+        <v>-3.150412747715917E-15</v>
       </c>
       <c r="Q5">
-        <v>4.72508213522432E-15</v>
+        <v>1.575743362058661E-15</v>
       </c>
       <c r="R5">
-        <v>4.721860206664272E-15</v>
+        <v>3.149338773084152E-15</v>
       </c>
       <c r="S5">
-        <v>4.721860210928895E-15</v>
+        <v>3.22192340998747E-18</v>
       </c>
       <c r="T5">
-        <v>1.573219519690486E-14</v>
+        <v>3.1450428712624E-15</v>
       </c>
       <c r="U5">
-        <v>3.145848349521005E-15</v>
+        <v>-1.573058421820614E-15</v>
       </c>
       <c r="V5">
-        <v>3.14719082430594E-15</v>
+        <v>9.440498498447814E-15</v>
       </c>
       <c r="W5">
-        <v>-1.258715232564244E-14</v>
+        <v>-6.293844656690174E-15</v>
       </c>
       <c r="X5">
-        <v>-3.145579855400764E-15</v>
+        <v>-6.293307663763424E-15</v>
       </c>
       <c r="Y5">
-        <v>-3.145579862600966E-15</v>
+        <v>-9.441572472917805E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -14506,40 +14506,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6643916362244899</v>
+        <v>0.66439163622449</v>
       </c>
       <c r="AH5">
-        <v>0.3321958178914815</v>
+        <v>0.3321958178914809</v>
       </c>
       <c r="AI5">
-        <v>0.3321958183330152</v>
+        <v>0.3321958183330148</v>
       </c>
       <c r="AJ5">
-        <v>0.6643916362244899</v>
+        <v>0.6643916362244902</v>
       </c>
       <c r="AK5">
-        <v>0.3321958178914816</v>
+        <v>0.3321958178914809</v>
       </c>
       <c r="AL5">
-        <v>0.3321958183330153</v>
+        <v>0.3321958183330146</v>
       </c>
       <c r="AM5">
-        <v>0.01955212224240663</v>
+        <v>0.01955212224253161</v>
       </c>
       <c r="AN5">
-        <v>-179.9804478594382</v>
+        <v>-179.980447859438</v>
       </c>
       <c r="AO5">
-        <v>-179.9804478960748</v>
+        <v>-179.9804478960746</v>
       </c>
       <c r="AP5">
-        <v>0.01955212224242221</v>
+        <v>0.01955212224252182</v>
       </c>
       <c r="AQ5">
-        <v>-179.9804478594382</v>
+        <v>-179.980447859438</v>
       </c>
       <c r="AR5">
-        <v>-179.9804478960748</v>
+        <v>-179.9804478960746</v>
       </c>
     </row>
   </sheetData>
@@ -15008,40 +15008,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.452713813269776E-09</v>
+        <v>-2.452746865217258E-09</v>
       </c>
       <c r="O2">
-        <v>-6.142666265342984E-10</v>
+        <v>-6.142658381256466E-10</v>
       </c>
       <c r="P2">
-        <v>-6.120965779141675E-10</v>
+        <v>-6.121012976264103E-10</v>
       </c>
       <c r="Q2">
-        <v>2.452716961636622E-09</v>
+        <v>2.452745290649925E-09</v>
       </c>
       <c r="R2">
-        <v>6.142642663090649E-10</v>
+        <v>6.142721332121505E-10</v>
       </c>
       <c r="S2">
-        <v>6.121012994056265E-10</v>
+        <v>6.121028740750002E-10</v>
       </c>
       <c r="T2">
-        <v>-2.51443876828862E-12</v>
+        <v>-2.495566900098917E-12</v>
       </c>
       <c r="U2">
-        <v>3.163959092006597E-09</v>
+        <v>3.163954371488854E-09</v>
       </c>
       <c r="V2">
-        <v>-3.165206875102102E-09</v>
+        <v>-3.16521002390389E-09</v>
       </c>
       <c r="W2">
-        <v>2.511292711747048E-12</v>
+        <v>2.498713614241704E-12</v>
       </c>
       <c r="X2">
-        <v>-3.163957518800134E-09</v>
+        <v>-3.163954368924364E-09</v>
       </c>
       <c r="Y2">
-        <v>3.165206877129818E-09</v>
+        <v>3.165203730475976E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15062,40 +15062,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6643916361876107</v>
+        <v>0.6643916361876102</v>
       </c>
       <c r="AH2">
-        <v>0.3321958179292133</v>
+        <v>0.3321958179292131</v>
       </c>
       <c r="AI2">
-        <v>0.3321958182584022</v>
+        <v>0.332195818258402</v>
       </c>
       <c r="AJ2">
-        <v>0.6643916362152703</v>
+        <v>0.6643916362152706</v>
       </c>
       <c r="AK2">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009138</v>
       </c>
       <c r="AL2">
-        <v>0.332195818314362</v>
+        <v>0.3321958183143612</v>
       </c>
       <c r="AM2">
-        <v>0.01955212036734578</v>
+        <v>0.01955212036737194</v>
       </c>
       <c r="AN2">
-        <v>-179.9804478777209</v>
+        <v>-179.9804478777206</v>
       </c>
       <c r="AO2">
-        <v>-179.9804478815424</v>
+        <v>-179.9804478815421</v>
       </c>
       <c r="AP2">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177373826</v>
       </c>
       <c r="AQ2">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640086</v>
       </c>
       <c r="AR2">
-        <v>-179.9804478924417</v>
+        <v>-179.9804478924415</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -15139,40 +15139,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.175597300036313E-10</v>
+        <v>8.175613100428955E-10</v>
       </c>
       <c r="O3">
-        <v>2.047471499825206E-10</v>
+        <v>2.047510855820144E-10</v>
       </c>
       <c r="P3">
-        <v>2.040342903627215E-10</v>
+        <v>2.040358628841554E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.175628782570906E-10</v>
+        <v>-8.175660297438148E-10</v>
       </c>
       <c r="R3">
-        <v>-2.04749508686353E-10</v>
+        <v>-2.047510833557431E-10</v>
       </c>
       <c r="S3">
-        <v>-2.04032716688951E-10</v>
+        <v>-2.040374342532588E-10</v>
       </c>
       <c r="T3">
-        <v>8.423385994180972E-13</v>
+        <v>8.234559914743345E-13</v>
       </c>
       <c r="U3">
-        <v>-1.054653033347676E-09</v>
+        <v>-1.054657752791433E-09</v>
       </c>
       <c r="V3">
-        <v>1.05507105739579E-09</v>
+        <v>1.055074205123601E-09</v>
       </c>
       <c r="W3">
-        <v>-8.391924758707792E-13</v>
+        <v>-8.266047865589768E-13</v>
       </c>
       <c r="X3">
-        <v>1.054648311802245E-09</v>
+        <v>1.054651458456074E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.055071056812497E-09</v>
+        <v>-1.05508049999593E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15193,40 +15193,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6643916362244899</v>
+        <v>0.66439163622449</v>
       </c>
       <c r="AH3">
-        <v>0.3321958178914815</v>
+        <v>0.3321958178914809</v>
       </c>
       <c r="AI3">
-        <v>0.3321958183330152</v>
+        <v>0.3321958183330148</v>
       </c>
       <c r="AJ3">
-        <v>0.6643916362152703</v>
+        <v>0.6643916362152706</v>
       </c>
       <c r="AK3">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009138</v>
       </c>
       <c r="AL3">
-        <v>0.332195818314362</v>
+        <v>0.3321958183143612</v>
       </c>
       <c r="AM3">
-        <v>0.01955212224240663</v>
+        <v>0.01955212224253161</v>
       </c>
       <c r="AN3">
-        <v>-179.9804478594382</v>
+        <v>-179.980447859438</v>
       </c>
       <c r="AO3">
-        <v>-179.9804478960748</v>
+        <v>-179.9804478960746</v>
       </c>
       <c r="AP3">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177373826</v>
       </c>
       <c r="AQ3">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640086</v>
       </c>
       <c r="AR3">
-        <v>-179.9804478924417</v>
+        <v>-179.9804478924415</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -15270,40 +15270,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.175691758719999E-10</v>
+        <v>8.175676044245398E-10</v>
       </c>
       <c r="O4">
-        <v>2.047534443641613E-10</v>
+        <v>2.047573799636553E-10</v>
       </c>
       <c r="P4">
-        <v>2.040342903627216E-10</v>
+        <v>2.040358650321036E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.17572321977508E-10</v>
+        <v>-8.175691769346372E-10</v>
       </c>
       <c r="R4">
-        <v>-2.047558052159459E-10</v>
+        <v>-2.047510855036955E-10</v>
       </c>
       <c r="S4">
-        <v>-2.040358638797751E-10</v>
+        <v>-2.040342892103841E-10</v>
       </c>
       <c r="T4">
-        <v>8.297530580558909E-13</v>
+        <v>8.234581394251465E-13</v>
       </c>
       <c r="U4">
-        <v>-1.054653031199723E-09</v>
+        <v>-1.05465775064348E-09</v>
       </c>
       <c r="V4">
-        <v>1.055071057395791E-09</v>
+        <v>1.055067910741952E-09</v>
       </c>
       <c r="W4">
-        <v>-8.329013161527888E-13</v>
+        <v>-8.266058605344267E-13</v>
       </c>
       <c r="X4">
-        <v>1.054654604035933E-09</v>
+        <v>1.054657752837714E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.055071057886472E-09</v>
+        <v>-1.055074204540307E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15324,40 +15324,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6643916362244899</v>
+        <v>0.6643916362244902</v>
       </c>
       <c r="AH4">
-        <v>0.3321958178914816</v>
+        <v>0.3321958178914809</v>
       </c>
       <c r="AI4">
-        <v>0.3321958183330153</v>
+        <v>0.3321958183330146</v>
       </c>
       <c r="AJ4">
-        <v>0.6643916362152703</v>
+        <v>0.6643916362152706</v>
       </c>
       <c r="AK4">
-        <v>0.3321958179009146</v>
+        <v>0.3321958179009138</v>
       </c>
       <c r="AL4">
-        <v>0.332195818314362</v>
+        <v>0.3321958183143612</v>
       </c>
       <c r="AM4">
-        <v>0.01955212224242221</v>
+        <v>0.01955212224252182</v>
       </c>
       <c r="AN4">
-        <v>-179.9804478594382</v>
+        <v>-179.980447859438</v>
       </c>
       <c r="AO4">
-        <v>-179.9804478960748</v>
+        <v>-179.9804478960746</v>
       </c>
       <c r="AP4">
-        <v>0.01955212177363815</v>
+        <v>0.01955212177373826</v>
       </c>
       <c r="AQ4">
-        <v>-179.9804478640089</v>
+        <v>-179.9804478640086</v>
       </c>
       <c r="AR4">
-        <v>-179.9804478924417</v>
+        <v>-179.9804478924415</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -15401,40 +15401,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.102053775512821E-14</v>
+        <v>-6.295455619903904E-15</v>
       </c>
       <c r="O5">
-        <v>-3.935062501633718E-15</v>
+        <v>1.574132398301587E-15</v>
       </c>
       <c r="P5">
-        <v>-1.073974469983202E-18</v>
+        <v>-3.150412747715917E-15</v>
       </c>
       <c r="Q5">
-        <v>4.72508213522432E-15</v>
+        <v>1.575743362058661E-15</v>
       </c>
       <c r="R5">
-        <v>4.721860206664272E-15</v>
+        <v>3.149338773084152E-15</v>
       </c>
       <c r="S5">
-        <v>4.721860210928895E-15</v>
+        <v>3.22192340998747E-18</v>
       </c>
       <c r="T5">
-        <v>1.573219519690486E-14</v>
+        <v>3.1450428712624E-15</v>
       </c>
       <c r="U5">
-        <v>3.145848349521005E-15</v>
+        <v>-1.573058421820614E-15</v>
       </c>
       <c r="V5">
-        <v>3.14719082430594E-15</v>
+        <v>9.440498498447814E-15</v>
       </c>
       <c r="W5">
-        <v>-1.258715232564244E-14</v>
+        <v>-6.293844656690174E-15</v>
       </c>
       <c r="X5">
-        <v>-3.145579855400764E-15</v>
+        <v>-6.293307663763424E-15</v>
       </c>
       <c r="Y5">
-        <v>-3.145579862600966E-15</v>
+        <v>-9.441572472917805E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -15455,40 +15455,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6643916362244899</v>
+        <v>0.66439163622449</v>
       </c>
       <c r="AH5">
-        <v>0.3321958178914815</v>
+        <v>0.3321958178914809</v>
       </c>
       <c r="AI5">
-        <v>0.3321958183330152</v>
+        <v>0.3321958183330148</v>
       </c>
       <c r="AJ5">
-        <v>0.6643916362244899</v>
+        <v>0.6643916362244902</v>
       </c>
       <c r="AK5">
-        <v>0.3321958178914816</v>
+        <v>0.3321958178914809</v>
       </c>
       <c r="AL5">
-        <v>0.3321958183330153</v>
+        <v>0.3321958183330146</v>
       </c>
       <c r="AM5">
-        <v>0.01955212224240663</v>
+        <v>0.01955212224253161</v>
       </c>
       <c r="AN5">
-        <v>-179.9804478594382</v>
+        <v>-179.980447859438</v>
       </c>
       <c r="AO5">
-        <v>-179.9804478960748</v>
+        <v>-179.9804478960746</v>
       </c>
       <c r="AP5">
-        <v>0.01955212224242221</v>
+        <v>0.01955212224252182</v>
       </c>
       <c r="AQ5">
-        <v>-179.9804478594382</v>
+        <v>-179.980447859438</v>
       </c>
       <c r="AR5">
-        <v>-179.9804478960748</v>
+        <v>-179.9804478960746</v>
       </c>
     </row>
   </sheetData>
@@ -15679,40 +15679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.947732187685656E-09</v>
+        <v>-1.947741363975332E-09</v>
       </c>
       <c r="O2">
-        <v>-1.540759954701227E-09</v>
+        <v>-1.540752489110659E-09</v>
       </c>
       <c r="P2">
-        <v>-2.50700879379198E-09</v>
+        <v>-2.507012675044436E-09</v>
       </c>
       <c r="Q2">
-        <v>1.94773103912013E-09</v>
+        <v>1.947741364027672E-09</v>
       </c>
       <c r="R2">
-        <v>1.540761173850042E-09</v>
+        <v>1.540753480000973E-09</v>
       </c>
       <c r="S2">
-        <v>2.507012675407328E-09</v>
+        <v>2.507013268896773E-09</v>
       </c>
       <c r="T2">
-        <v>5.630588652124292E-10</v>
+        <v>5.630849645064524E-10</v>
       </c>
       <c r="U2">
-        <v>3.619484074601491E-09</v>
+        <v>3.619475705135907E-09</v>
       </c>
       <c r="V2">
-        <v>-8.229365081041307E-10</v>
+        <v>-8.229375349251689E-10</v>
       </c>
       <c r="W2">
-        <v>-5.630624291119064E-10</v>
+        <v>-5.630849644755211E-10</v>
       </c>
       <c r="X2">
-        <v>-3.619483522058694E-09</v>
+        <v>-3.619481132392762E-09</v>
       </c>
       <c r="Y2">
-        <v>8.229375351396139E-10</v>
+        <v>8.229368615712221E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15733,37 +15733,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7668755422478361</v>
+        <v>0.7668755422478362</v>
       </c>
       <c r="AH2">
-        <v>0.5649615026650584</v>
+        <v>0.5649615026650583</v>
       </c>
       <c r="AI2">
-        <v>0.3790339612538544</v>
+        <v>0.3790339612538532</v>
       </c>
       <c r="AJ2">
-        <v>0.766875542263605</v>
+        <v>0.7668755422636052</v>
       </c>
       <c r="AK2">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571302</v>
       </c>
       <c r="AL2">
-        <v>0.3790339613129893</v>
+        <v>0.3790339613129881</v>
       </c>
       <c r="AM2">
-        <v>-3.827350193674409</v>
+        <v>-3.827350193674434</v>
       </c>
       <c r="AN2">
-        <v>-155.6209588726733</v>
+        <v>-155.6209588726731</v>
       </c>
       <c r="AO2">
-        <v>131.3836767675908</v>
+        <v>131.3836767675909</v>
       </c>
       <c r="AP2">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423944</v>
       </c>
       <c r="AQ2">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665841</v>
       </c>
       <c r="AR2">
         <v>131.3836767695575</v>
@@ -15810,40 +15810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.492344779439791E-10</v>
+        <v>6.49240635883805E-10</v>
       </c>
       <c r="O3">
-        <v>5.135762410906598E-10</v>
+        <v>5.135843914567305E-10</v>
       </c>
       <c r="P3">
-        <v>8.356720034777761E-10</v>
+        <v>8.356728701409409E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.492320020055594E-10</v>
+        <v>-6.492370113275209E-10</v>
       </c>
       <c r="R3">
-        <v>-5.135752505230399E-10</v>
+        <v>-5.135831726306137E-10</v>
       </c>
       <c r="S3">
-        <v>-8.356752912004675E-10</v>
+        <v>-8.356728701006201E-10</v>
       </c>
       <c r="T3">
-        <v>-1.876844335929147E-10</v>
+        <v>-1.877012290305178E-10</v>
       </c>
       <c r="U3">
-        <v>-1.206495491750352E-09</v>
+        <v>-1.206485921816969E-09</v>
       </c>
       <c r="V3">
-        <v>2.7431668187722E-10</v>
+        <v>2.743102665090672E-10</v>
       </c>
       <c r="W3">
-        <v>1.876806271856973E-10</v>
+        <v>1.877009865537076E-10</v>
       </c>
       <c r="X3">
-        <v>1.206490064302802E-09</v>
+        <v>1.206486474169071E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.743183822428196E-10</v>
+        <v>-2.743102664852392E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15864,37 +15864,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7668755422688612</v>
+        <v>0.7668755422688611</v>
       </c>
       <c r="AH3">
-        <v>0.5649615026544882</v>
+        <v>0.5649615026544879</v>
       </c>
       <c r="AI3">
-        <v>0.3790339613327008</v>
+        <v>0.3790339613326999</v>
       </c>
       <c r="AJ3">
-        <v>0.766875542263605</v>
+        <v>0.7668755422636052</v>
       </c>
       <c r="AK3">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571302</v>
       </c>
       <c r="AL3">
-        <v>0.3790339613129893</v>
+        <v>0.3790339613129881</v>
       </c>
       <c r="AM3">
-        <v>-3.82735019200716</v>
+        <v>-3.827350192007114</v>
       </c>
       <c r="AN3">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AO3">
         <v>131.3836767702131</v>
       </c>
       <c r="AP3">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423944</v>
       </c>
       <c r="AQ3">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665841</v>
       </c>
       <c r="AR3">
         <v>131.3836767695575</v>
@@ -15941,40 +15941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.492341142236083E-10</v>
+        <v>6.492339929834852E-10</v>
       </c>
       <c r="O4">
-        <v>5.135811162337812E-10</v>
+        <v>5.135843914567305E-10</v>
       </c>
       <c r="P4">
-        <v>8.356767985354375E-10</v>
+        <v>8.356678019095665E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.492351415955339E-10</v>
+        <v>-6.492337504974228E-10</v>
       </c>
       <c r="R4">
-        <v>-5.135821067207271E-10</v>
+        <v>-5.135831726306137E-10</v>
       </c>
       <c r="S4">
-        <v>-8.356741042215592E-10</v>
+        <v>-8.35670496142804E-10</v>
       </c>
       <c r="T4">
-        <v>-1.876898704186179E-10</v>
+        <v>-1.876916826938518E-10</v>
       </c>
       <c r="U4">
-        <v>-1.206493282437289E-09</v>
+        <v>-1.206485921816969E-09</v>
       </c>
       <c r="V4">
-        <v>2.743221033612427E-10</v>
+        <v>2.743105868248079E-10</v>
       </c>
       <c r="W4">
-        <v>1.876881187668819E-10</v>
+        <v>1.876953072477574E-10</v>
       </c>
       <c r="X4">
-        <v>1.206498709932512E-09</v>
+        <v>1.206486474169071E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.743197293795984E-10</v>
+        <v>-2.743129607587967E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15995,37 +15995,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7668755422688611</v>
+        <v>0.7668755422688612</v>
       </c>
       <c r="AH4">
-        <v>0.5649615026544883</v>
+        <v>0.5649615026544879</v>
       </c>
       <c r="AI4">
-        <v>0.379033961332701</v>
+        <v>0.3790339613326998</v>
       </c>
       <c r="AJ4">
-        <v>0.766875542263605</v>
+        <v>0.7668755422636052</v>
       </c>
       <c r="AK4">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571302</v>
       </c>
       <c r="AL4">
-        <v>0.3790339613129893</v>
+        <v>0.3790339613129881</v>
       </c>
       <c r="AM4">
-        <v>-3.827350192007162</v>
+        <v>-3.827350192007123</v>
       </c>
       <c r="AN4">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AO4">
         <v>131.3836767702131</v>
       </c>
       <c r="AP4">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423944</v>
       </c>
       <c r="AQ4">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665841</v>
       </c>
       <c r="AR4">
         <v>131.3836767695575</v>
@@ -16072,40 +16072,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.418475852050459E-15</v>
+        <v>7.006620690517053E-15</v>
       </c>
       <c r="O5">
-        <v>-9.903162138164328E-15</v>
+        <v>2.437571560528131E-15</v>
       </c>
       <c r="P5">
-        <v>-3.287763011743777E-15</v>
+        <v>8.355994385879803E-15</v>
       </c>
       <c r="Q5">
-        <v>1.084834493208066E-15</v>
+        <v>-4.409447962455939E-15</v>
       </c>
       <c r="R5">
-        <v>2.380506936268104E-15</v>
+        <v>1.771114046136071E-15</v>
       </c>
       <c r="S5">
-        <v>-4.795057661095283E-15</v>
+        <v>-5.982036569356778E-15</v>
       </c>
       <c r="T5">
-        <v>8.940136048443003E-15</v>
+        <v>-4.109510962914152E-15</v>
       </c>
       <c r="U5">
-        <v>7.264809045688521E-15</v>
+        <v>1.104656531744011E-15</v>
       </c>
       <c r="V5">
-        <v>-1.700389427119773E-15</v>
+        <v>1.380073686029787E-15</v>
       </c>
       <c r="W5">
-        <v>-1.099489152990008E-14</v>
+        <v>2.11537554322264E-15</v>
       </c>
       <c r="X5">
-        <v>-3.902933814560615E-16</v>
+        <v>-6.664575143920597E-16</v>
       </c>
       <c r="Y5">
-        <v>-5.421484022449313E-15</v>
+        <v>-4.074347243642794E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -16126,37 +16126,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
+        <v>0.7668755422688611</v>
+      </c>
+      <c r="AH5">
+        <v>0.5649615026544879</v>
+      </c>
+      <c r="AI5">
+        <v>0.3790339613326999</v>
+      </c>
+      <c r="AJ5">
         <v>0.7668755422688612</v>
       </c>
-      <c r="AH5">
-        <v>0.5649615026544882</v>
-      </c>
-      <c r="AI5">
-        <v>0.3790339613327008</v>
-      </c>
-      <c r="AJ5">
-        <v>0.7668755422688611</v>
-      </c>
       <c r="AK5">
-        <v>0.5649615026544883</v>
+        <v>0.5649615026544879</v>
       </c>
       <c r="AL5">
-        <v>0.379033961332701</v>
+        <v>0.3790339613326998</v>
       </c>
       <c r="AM5">
-        <v>-3.82735019200716</v>
+        <v>-3.827350192007114</v>
       </c>
       <c r="AN5">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AO5">
         <v>131.3836767702131</v>
       </c>
       <c r="AP5">
-        <v>-3.827350192007162</v>
+        <v>-3.827350192007123</v>
       </c>
       <c r="AQ5">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AR5">
         <v>131.3836767702131</v>
@@ -16350,40 +16350,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.947732187685656E-09</v>
+        <v>-1.947741363975332E-09</v>
       </c>
       <c r="O2">
-        <v>-1.540759954701227E-09</v>
+        <v>-1.540752489110659E-09</v>
       </c>
       <c r="P2">
-        <v>-2.50700879379198E-09</v>
+        <v>-2.507012675044436E-09</v>
       </c>
       <c r="Q2">
-        <v>1.94773103912013E-09</v>
+        <v>1.947741364027672E-09</v>
       </c>
       <c r="R2">
-        <v>1.540761173850042E-09</v>
+        <v>1.540753480000973E-09</v>
       </c>
       <c r="S2">
-        <v>2.507012675407328E-09</v>
+        <v>2.507013268896773E-09</v>
       </c>
       <c r="T2">
-        <v>5.630588652124292E-10</v>
+        <v>5.630849645064524E-10</v>
       </c>
       <c r="U2">
-        <v>3.619484074601491E-09</v>
+        <v>3.619475705135907E-09</v>
       </c>
       <c r="V2">
-        <v>-8.229365081041307E-10</v>
+        <v>-8.229375349251689E-10</v>
       </c>
       <c r="W2">
-        <v>-5.630624291119064E-10</v>
+        <v>-5.630849644755211E-10</v>
       </c>
       <c r="X2">
-        <v>-3.619483522058694E-09</v>
+        <v>-3.619481132392762E-09</v>
       </c>
       <c r="Y2">
-        <v>8.229375351396139E-10</v>
+        <v>8.229368615712221E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -16404,37 +16404,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7668755422478361</v>
+        <v>0.7668755422478362</v>
       </c>
       <c r="AH2">
-        <v>0.5649615026650584</v>
+        <v>0.5649615026650583</v>
       </c>
       <c r="AI2">
-        <v>0.3790339612538544</v>
+        <v>0.3790339612538532</v>
       </c>
       <c r="AJ2">
-        <v>0.766875542263605</v>
+        <v>0.7668755422636052</v>
       </c>
       <c r="AK2">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571302</v>
       </c>
       <c r="AL2">
-        <v>0.3790339613129893</v>
+        <v>0.3790339613129881</v>
       </c>
       <c r="AM2">
-        <v>-3.827350193674409</v>
+        <v>-3.827350193674434</v>
       </c>
       <c r="AN2">
-        <v>-155.6209588726733</v>
+        <v>-155.6209588726731</v>
       </c>
       <c r="AO2">
-        <v>131.3836767675908</v>
+        <v>131.3836767675909</v>
       </c>
       <c r="AP2">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423944</v>
       </c>
       <c r="AQ2">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665841</v>
       </c>
       <c r="AR2">
         <v>131.3836767695575</v>
@@ -16481,40 +16481,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.492344779439791E-10</v>
+        <v>6.49240635883805E-10</v>
       </c>
       <c r="O3">
-        <v>5.135762410906598E-10</v>
+        <v>5.135843914567305E-10</v>
       </c>
       <c r="P3">
-        <v>8.356720034777761E-10</v>
+        <v>8.356728701409409E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.492320020055594E-10</v>
+        <v>-6.492370113275209E-10</v>
       </c>
       <c r="R3">
-        <v>-5.135752505230399E-10</v>
+        <v>-5.135831726306137E-10</v>
       </c>
       <c r="S3">
-        <v>-8.356752912004675E-10</v>
+        <v>-8.356728701006201E-10</v>
       </c>
       <c r="T3">
-        <v>-1.876844335929147E-10</v>
+        <v>-1.877012290305178E-10</v>
       </c>
       <c r="U3">
-        <v>-1.206495491750352E-09</v>
+        <v>-1.206485921816969E-09</v>
       </c>
       <c r="V3">
-        <v>2.7431668187722E-10</v>
+        <v>2.743102665090672E-10</v>
       </c>
       <c r="W3">
-        <v>1.876806271856973E-10</v>
+        <v>1.877009865537076E-10</v>
       </c>
       <c r="X3">
-        <v>1.206490064302802E-09</v>
+        <v>1.206486474169071E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.743183822428196E-10</v>
+        <v>-2.743102664852392E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -16535,37 +16535,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7668755422688612</v>
+        <v>0.7668755422688611</v>
       </c>
       <c r="AH3">
-        <v>0.5649615026544882</v>
+        <v>0.5649615026544879</v>
       </c>
       <c r="AI3">
-        <v>0.3790339613327008</v>
+        <v>0.3790339613326999</v>
       </c>
       <c r="AJ3">
-        <v>0.766875542263605</v>
+        <v>0.7668755422636052</v>
       </c>
       <c r="AK3">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571302</v>
       </c>
       <c r="AL3">
-        <v>0.3790339613129893</v>
+        <v>0.3790339613129881</v>
       </c>
       <c r="AM3">
-        <v>-3.82735019200716</v>
+        <v>-3.827350192007114</v>
       </c>
       <c r="AN3">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AO3">
         <v>131.3836767702131</v>
       </c>
       <c r="AP3">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423944</v>
       </c>
       <c r="AQ3">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665841</v>
       </c>
       <c r="AR3">
         <v>131.3836767695575</v>
@@ -16612,40 +16612,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.492341142236083E-10</v>
+        <v>6.492339929834852E-10</v>
       </c>
       <c r="O4">
-        <v>5.135811162337812E-10</v>
+        <v>5.135843914567305E-10</v>
       </c>
       <c r="P4">
-        <v>8.356767985354375E-10</v>
+        <v>8.356678019095665E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.492351415955339E-10</v>
+        <v>-6.492337504974228E-10</v>
       </c>
       <c r="R4">
-        <v>-5.135821067207271E-10</v>
+        <v>-5.135831726306137E-10</v>
       </c>
       <c r="S4">
-        <v>-8.356741042215592E-10</v>
+        <v>-8.35670496142804E-10</v>
       </c>
       <c r="T4">
-        <v>-1.876898704186179E-10</v>
+        <v>-1.876916826938518E-10</v>
       </c>
       <c r="U4">
-        <v>-1.206493282437289E-09</v>
+        <v>-1.206485921816969E-09</v>
       </c>
       <c r="V4">
-        <v>2.743221033612427E-10</v>
+        <v>2.743105868248079E-10</v>
       </c>
       <c r="W4">
-        <v>1.876881187668819E-10</v>
+        <v>1.876953072477574E-10</v>
       </c>
       <c r="X4">
-        <v>1.206498709932512E-09</v>
+        <v>1.206486474169071E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.743197293795984E-10</v>
+        <v>-2.743129607587967E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -16666,37 +16666,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7668755422688611</v>
+        <v>0.7668755422688612</v>
       </c>
       <c r="AH4">
-        <v>0.5649615026544883</v>
+        <v>0.5649615026544879</v>
       </c>
       <c r="AI4">
-        <v>0.379033961332701</v>
+        <v>0.3790339613326998</v>
       </c>
       <c r="AJ4">
-        <v>0.766875542263605</v>
+        <v>0.7668755422636052</v>
       </c>
       <c r="AK4">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571302</v>
       </c>
       <c r="AL4">
-        <v>0.3790339613129893</v>
+        <v>0.3790339613129881</v>
       </c>
       <c r="AM4">
-        <v>-3.827350192007162</v>
+        <v>-3.827350192007123</v>
       </c>
       <c r="AN4">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AO4">
         <v>131.3836767702131</v>
       </c>
       <c r="AP4">
-        <v>-3.827350192423975</v>
+        <v>-3.827350192423944</v>
       </c>
       <c r="AQ4">
-        <v>-155.6209588665843</v>
+        <v>-155.6209588665841</v>
       </c>
       <c r="AR4">
         <v>131.3836767695575</v>
@@ -16743,40 +16743,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.418475852050459E-15</v>
+        <v>7.006620690517053E-15</v>
       </c>
       <c r="O5">
-        <v>-9.903162138164328E-15</v>
+        <v>2.437571560528131E-15</v>
       </c>
       <c r="P5">
-        <v>-3.287763011743777E-15</v>
+        <v>8.355994385879803E-15</v>
       </c>
       <c r="Q5">
-        <v>1.084834493208066E-15</v>
+        <v>-4.409447962455939E-15</v>
       </c>
       <c r="R5">
-        <v>2.380506936268104E-15</v>
+        <v>1.771114046136071E-15</v>
       </c>
       <c r="S5">
-        <v>-4.795057661095283E-15</v>
+        <v>-5.982036569356778E-15</v>
       </c>
       <c r="T5">
-        <v>8.940136048443003E-15</v>
+        <v>-4.109510962914152E-15</v>
       </c>
       <c r="U5">
-        <v>7.264809045688521E-15</v>
+        <v>1.104656531744011E-15</v>
       </c>
       <c r="V5">
-        <v>-1.700389427119773E-15</v>
+        <v>1.380073686029787E-15</v>
       </c>
       <c r="W5">
-        <v>-1.099489152990008E-14</v>
+        <v>2.11537554322264E-15</v>
       </c>
       <c r="X5">
-        <v>-3.902933814560615E-16</v>
+        <v>-6.664575143920597E-16</v>
       </c>
       <c r="Y5">
-        <v>-5.421484022449313E-15</v>
+        <v>-4.074347243642794E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -16797,37 +16797,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
+        <v>0.7668755422688611</v>
+      </c>
+      <c r="AH5">
+        <v>0.5649615026544879</v>
+      </c>
+      <c r="AI5">
+        <v>0.3790339613326999</v>
+      </c>
+      <c r="AJ5">
         <v>0.7668755422688612</v>
       </c>
-      <c r="AH5">
-        <v>0.5649615026544882</v>
-      </c>
-      <c r="AI5">
-        <v>0.3790339613327008</v>
-      </c>
-      <c r="AJ5">
-        <v>0.7668755422688611</v>
-      </c>
       <c r="AK5">
-        <v>0.5649615026544883</v>
+        <v>0.5649615026544879</v>
       </c>
       <c r="AL5">
-        <v>0.379033961332701</v>
+        <v>0.3790339613326998</v>
       </c>
       <c r="AM5">
-        <v>-3.82735019200716</v>
+        <v>-3.827350192007114</v>
       </c>
       <c r="AN5">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AO5">
         <v>131.3836767702131</v>
       </c>
       <c r="AP5">
-        <v>-3.827350192007162</v>
+        <v>-3.827350192007123</v>
       </c>
       <c r="AQ5">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AR5">
         <v>131.3836767702131</v>
@@ -18408,40 +18408,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>6.451026010115471E-29</v>
+        <v>-6.773840894194875E-14</v>
       </c>
       <c r="O2">
-        <v>2.084254351699379E-14</v>
+        <v>2.865851379178795E-14</v>
       </c>
       <c r="P2">
-        <v>1.042124915140882E-14</v>
+        <v>-7.29491003514915E-14</v>
       </c>
       <c r="Q2">
-        <v>-1.563194052506518E-14</v>
+        <v>6.252776210026033E-14</v>
       </c>
       <c r="R2">
-        <v>-2.604851335189882E-15</v>
+        <v>-1.563146844396138E-14</v>
       </c>
       <c r="S2">
-        <v>-1.042082090060242E-14</v>
+        <v>6.773888175360454E-14</v>
       </c>
       <c r="T2">
-        <v>-5.210646841688372E-15</v>
+        <v>-1.042129368337766E-14</v>
       </c>
       <c r="U2">
-        <v>5.763371413985835E-09</v>
+        <v>5.763376624632671E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763387050089312E-09</v>
+        <v>-5.763381839442468E-09</v>
       </c>
       <c r="W2">
-        <v>5.210646841688178E-15</v>
+        <v>1.563194052506598E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763366202853099E-09</v>
+        <v>-5.763381834793613E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763397471868894E-09</v>
+        <v>5.763381839928362E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -18462,34 +18462,34 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057475</v>
+        <v>0.5500000117057471</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030184</v>
+        <v>0.5500000121030185</v>
       </c>
       <c r="AI2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593777</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493878</v>
       </c>
       <c r="AL2">
-        <v>7.093487145426187E-13</v>
+        <v>7.708137111832595E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995568</v>
+        <v>-179.999999999557</v>
       </c>
       <c r="AN2">
-        <v>179.99999999955</v>
+        <v>179.9999999995499</v>
       </c>
       <c r="AO2">
-        <v>7.172809081992514E-13</v>
+        <v>7.755961441517077E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999952996</v>
@@ -18539,40 +18539,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.898436390184559E-28</v>
+        <v>-5.210646841688445E-15</v>
       </c>
       <c r="O3">
-        <v>2.084279230409498E-14</v>
+        <v>-1.302641215305053E-14</v>
       </c>
       <c r="P3">
-        <v>1.042149886381828E-14</v>
+        <v>1.042149886093503E-14</v>
       </c>
       <c r="Q3">
-        <v>-1.042129368337662E-14</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-2.605480782604222E-15</v>
+        <v>2.605307683736666E-14</v>
       </c>
       <c r="S3">
-        <v>-1.042145128182984E-14</v>
+        <v>-1.563209812471565E-14</v>
       </c>
       <c r="T3">
-        <v>1.563194052506512E-14</v>
+        <v>5.210646841688308E-15</v>
       </c>
       <c r="U3">
-        <v>-1.921134225739668E-09</v>
+        <v>-1.921149857680187E-09</v>
       </c>
       <c r="V3">
-        <v>1.921118595618701E-09</v>
+        <v>1.921113384971859E-09</v>
       </c>
       <c r="W3">
-        <v>-1.042129368337688E-14</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1.921139436440497E-09</v>
+        <v>1.921144647087337E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.92111338491787E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -18593,34 +18593,34 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439221</v>
+        <v>0.5500000116439213</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648437</v>
+        <v>0.5500000121648443</v>
       </c>
       <c r="AI3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593777</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493878</v>
       </c>
       <c r="AL3">
-        <v>6.958342290082945E-13</v>
+        <v>7.478075356453711E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO3">
-        <v>7.172809081992514E-13</v>
+        <v>7.755961441517077E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999952996</v>
@@ -18670,40 +18670,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-3.647452789181897E-14</v>
+        <v>-1.042129368337682E-14</v>
       </c>
       <c r="O4">
-        <v>2.0494532448286E-19</v>
+        <v>-1.302641215305053E-14</v>
       </c>
       <c r="P4">
-        <v>1.042149886420607E-14</v>
+        <v>1.042149886243581E-14</v>
       </c>
       <c r="Q4">
-        <v>3.126388105013057E-14</v>
+        <v>5.210646841688448E-15</v>
       </c>
       <c r="R4">
-        <v>1.823710657571828E-14</v>
+        <v>2.605307683651307E-14</v>
       </c>
       <c r="S4">
-        <v>-1.042145128182984E-14</v>
+        <v>-1.563209812557053E-14</v>
       </c>
       <c r="T4">
-        <v>3.126388105012979E-14</v>
+        <v>5.210646841688241E-15</v>
       </c>
       <c r="U4">
-        <v>-1.921123804445992E-09</v>
+        <v>-1.921149857680187E-09</v>
       </c>
       <c r="V4">
-        <v>1.921118595618702E-09</v>
+        <v>1.921123806265548E-09</v>
       </c>
       <c r="W4">
-        <v>-2.605323420844148E-14</v>
+        <v>-5.210646841688308E-15</v>
       </c>
       <c r="X4">
-        <v>1.92112901514682E-09</v>
+        <v>1.921155068381016E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.921123806211558E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -18724,34 +18724,34 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AG4">
-        <v>0.550000011643922</v>
+        <v>0.5500000116439213</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648438</v>
+        <v>0.5500000121648444</v>
       </c>
       <c r="AI4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593782</v>
+        <v>0.5500000116593777</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493872</v>
+        <v>0.5500000121493878</v>
       </c>
       <c r="AL4">
-        <v>6.890106257295765E-13</v>
+        <v>7.49648965579066E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO4">
-        <v>7.172809081992514E-13</v>
+        <v>7.755961441517077E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999952996</v>
@@ -18801,40 +18801,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.647452789181873E-14</v>
+        <v>1.042129368337682E-14</v>
       </c>
       <c r="O5">
-        <v>3.126388103699237E-14</v>
+        <v>1.042129367816364E-14</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>-5.564908815354897E-25</v>
       </c>
       <c r="Q5">
-        <v>-4.68958215751956E-14</v>
+        <v>-1.042129368337675E-14</v>
       </c>
       <c r="R5">
-        <v>-1.563194051905205E-14</v>
+        <v>5.21064683838699E-15</v>
       </c>
       <c r="S5">
-        <v>-1.042129368831191E-14</v>
+        <v>1.66947580005009E-24</v>
       </c>
       <c r="T5">
-        <v>-1.04212936833763E-14</v>
+        <v>-5.210646841688241E-15</v>
       </c>
       <c r="U5">
-        <v>-1.563194051432713E-14</v>
+        <v>2.605323420722118E-15</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-5.210646844155958E-15</v>
       </c>
       <c r="W5">
-        <v>2.084258736675292E-14</v>
+        <v>-1.363505671121129E-28</v>
       </c>
       <c r="X5">
-        <v>1.302661709638436E-14</v>
+        <v>7.815970259387039E-15</v>
       </c>
       <c r="Y5">
-        <v>1.112996488474544E-24</v>
+        <v>1.563194053246788E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -18855,40 +18855,40 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AG5">
-        <v>0.5500000116439221</v>
+        <v>0.5500000116439213</v>
       </c>
       <c r="AH5">
-        <v>0.5500000121648437</v>
+        <v>0.5500000121648443</v>
       </c>
       <c r="AI5">
-        <v>1.100000023808766</v>
+        <v>1.100000023808767</v>
       </c>
       <c r="AJ5">
-        <v>0.550000011643922</v>
+        <v>0.5500000116439213</v>
       </c>
       <c r="AK5">
-        <v>0.5500000121648438</v>
+        <v>0.5500000121648444</v>
       </c>
       <c r="AL5">
-        <v>6.958342290082945E-13</v>
+        <v>7.478075356453711E-13</v>
       </c>
       <c r="AM5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AN5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO5">
-        <v>6.890106257295765E-13</v>
+        <v>7.49648965579066E-13</v>
       </c>
       <c r="AP5">
-        <v>-179.9999999938804</v>
+        <v>-179.9999999938805</v>
       </c>
       <c r="AQ5">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
     </row>
   </sheetData>
